--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED75342-CCAB-434D-8BB6-B3FE5E4C059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDDF7C-304E-4A7A-8512-92C2E8BF7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="24" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="15" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -12625,7 +12625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12645,12 +12645,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12734,12 +12728,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12889,7 +12877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -12914,100 +12902,89 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15201,8 +15178,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15278,6 +15255,10 @@
         <v>122</v>
       </c>
       <c r="C6" s="3"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -15461,6 +15442,10 @@
         <v>141</v>
       </c>
       <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -15846,7 +15831,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -15855,7 +15840,7 @@
       </c>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -15864,7 +15849,7 @@
       </c>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -15873,7 +15858,7 @@
       </c>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -15884,7 +15869,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -15893,7 +15878,7 @@
       </c>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -15903,7 +15888,7 @@
       <c r="C70" s="4"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -15911,8 +15896,12 @@
         <v>187</v>
       </c>
       <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -15921,7 +15910,7 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -15933,7 +15922,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -15941,10 +15930,12 @@
         <v>190</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -15954,7 +15945,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -15963,7 +15954,7 @@
       </c>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -15972,7 +15963,7 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -15980,8 +15971,12 @@
         <v>194</v>
       </c>
       <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -15990,7 +15985,7 @@
       </c>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -16353,8 +16348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA56804-6A9E-402F-B031-BA7253DC714A}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16763,6 +16758,10 @@
         <v>372</v>
       </c>
       <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -16772,6 +16771,10 @@
         <v>373</v>
       </c>
       <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -18653,8 +18656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBCD81-F172-48FD-BFD1-AB8B6468CB73}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18823,6 +18826,10 @@
         <v>1302</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -19065,6 +19072,10 @@
         <v>1323</v>
       </c>
       <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -19792,7 +19803,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19864,6 +19875,10 @@
         <v>116</v>
       </c>
       <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -20938,8 +20953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21540,6 +21555,10 @@
         <v>1640</v>
       </c>
       <c r="C47" s="4"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -23601,7 +23620,7 @@
       <c r="B18" t="s">
         <v>2169</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -23618,7 +23637,7 @@
       <c r="A20" t="s">
         <v>2066</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" t="s">
         <v>2171</v>
       </c>
       <c r="C20" s="1"/>
@@ -23627,7 +23646,7 @@
       <c r="A21" t="s">
         <v>2067</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="2"/>
@@ -23636,7 +23655,7 @@
       <c r="A22" t="s">
         <v>2068</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" t="s">
         <v>362</v>
       </c>
       <c r="C22" s="2"/>
@@ -23645,7 +23664,7 @@
       <c r="A23" t="s">
         <v>2069</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" t="s">
         <v>1630</v>
       </c>
       <c r="C23" s="2"/>
@@ -23657,7 +23676,7 @@
       <c r="A24" t="s">
         <v>2070</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" t="s">
         <v>2172</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -23668,7 +23687,7 @@
       <c r="A25" t="s">
         <v>2071</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" t="s">
         <v>172</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -23680,7 +23699,7 @@
       <c r="A26" t="s">
         <v>2072</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" t="s">
         <v>2173</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -23692,10 +23711,10 @@
       <c r="A27" t="s">
         <v>2073</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" t="s">
         <v>2174</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="40" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -23703,7 +23722,7 @@
       <c r="A28" t="s">
         <v>2074</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" t="s">
         <v>2176</v>
       </c>
       <c r="C28" s="2"/>
@@ -23712,7 +23731,7 @@
       <c r="A29" t="s">
         <v>2075</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" t="s">
         <v>2177</v>
       </c>
       <c r="C29" s="2"/>
@@ -23721,7 +23740,7 @@
       <c r="A30" t="s">
         <v>2076</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" t="s">
         <v>2178</v>
       </c>
       <c r="C30" s="2"/>
@@ -23730,7 +23749,7 @@
       <c r="A31" t="s">
         <v>2077</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" t="s">
         <v>2179</v>
       </c>
       <c r="C31" s="2"/>
@@ -23739,7 +23758,7 @@
       <c r="A32" t="s">
         <v>2078</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" t="s">
         <v>2180</v>
       </c>
       <c r="C32" s="2"/>
@@ -23749,10 +23768,10 @@
       <c r="A33" t="s">
         <v>2079</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" t="s">
         <v>2181</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="42" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -23760,7 +23779,7 @@
       <c r="A34" t="s">
         <v>2080</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="3"/>
@@ -23769,7 +23788,7 @@
       <c r="A35" t="s">
         <v>2081</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" t="s">
         <v>2182</v>
       </c>
       <c r="C35" s="3"/>
@@ -23780,7 +23799,7 @@
       <c r="A36" t="s">
         <v>2082</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" t="s">
         <v>1148</v>
       </c>
       <c r="C36" s="3"/>
@@ -23789,7 +23808,7 @@
       <c r="A37" t="s">
         <v>2083</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" t="s">
         <v>1121</v>
       </c>
       <c r="C37" s="3"/>
@@ -23798,10 +23817,10 @@
       <c r="A38" t="s">
         <v>2084</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" t="s">
         <v>2183</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -23809,7 +23828,7 @@
       <c r="A39" t="s">
         <v>2085</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" t="s">
         <v>2184</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -23820,10 +23839,10 @@
       <c r="A40" t="s">
         <v>2086</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" t="s">
         <v>948</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="44" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -23831,7 +23850,7 @@
       <c r="A41" t="s">
         <v>2087</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" t="s">
         <v>2185</v>
       </c>
       <c r="C41" s="3"/>
@@ -23840,10 +23859,10 @@
       <c r="A42" t="s">
         <v>2088</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" t="s">
         <v>2186</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="45" t="s">
         <v>661</v>
       </c>
     </row>
@@ -23851,7 +23870,7 @@
       <c r="A43" t="s">
         <v>2089</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" t="s">
         <v>1123</v>
       </c>
       <c r="C43" s="31" t="s">
@@ -23862,7 +23881,7 @@
       <c r="A44" t="s">
         <v>2090</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" t="s">
         <v>1124</v>
       </c>
       <c r="C44" s="3"/>
@@ -23871,7 +23890,7 @@
       <c r="A45" t="s">
         <v>2091</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" t="s">
         <v>2187</v>
       </c>
       <c r="C45" s="31" t="s">
@@ -23882,7 +23901,7 @@
       <c r="A46" t="s">
         <v>2092</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" t="s">
         <v>2188</v>
       </c>
       <c r="C46" s="4"/>
@@ -23891,7 +23910,7 @@
       <c r="A47" t="s">
         <v>2093</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" t="s">
         <v>946</v>
       </c>
       <c r="C47" s="4"/>
@@ -23900,7 +23919,7 @@
       <c r="A48" t="s">
         <v>2094</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" t="s">
         <v>617</v>
       </c>
       <c r="C48" s="4"/>
@@ -23909,7 +23928,7 @@
       <c r="A49" t="s">
         <v>2095</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" t="s">
         <v>2189</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -23920,7 +23939,7 @@
       <c r="A50" t="s">
         <v>2096</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" t="s">
         <v>2190</v>
       </c>
       <c r="C50" s="4"/>
@@ -23929,7 +23948,7 @@
       <c r="A51" t="s">
         <v>2097</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" t="s">
         <v>709</v>
       </c>
       <c r="C51" s="4"/>
@@ -23940,10 +23959,10 @@
       <c r="A52" t="s">
         <v>2098</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" t="s">
         <v>2191</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="46" t="s">
         <v>939</v>
       </c>
     </row>
@@ -23951,7 +23970,7 @@
       <c r="A53" t="s">
         <v>2099</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" t="s">
         <v>703</v>
       </c>
       <c r="C53" s="4"/>
@@ -23960,10 +23979,10 @@
       <c r="A54" t="s">
         <v>2100</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" t="s">
         <v>2192</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="48" t="s">
         <v>1659</v>
       </c>
       <c r="D54" s="9"/>
@@ -23972,7 +23991,7 @@
       <c r="A55" t="s">
         <v>2101</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" t="s">
         <v>2193</v>
       </c>
       <c r="C55" s="4"/>
@@ -23982,7 +24001,7 @@
       <c r="A56" t="s">
         <v>2102</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" t="s">
         <v>2194</v>
       </c>
       <c r="C56" s="4"/>
@@ -23991,7 +24010,7 @@
       <c r="A57" t="s">
         <v>2103</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" t="s">
         <v>2195</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -24002,7 +24021,7 @@
       <c r="A58" t="s">
         <v>2104</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" t="s">
         <v>2196</v>
       </c>
       <c r="C58" s="4"/>
@@ -24011,7 +24030,7 @@
       <c r="A59" t="s">
         <v>2105</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="10"/>
@@ -24020,7 +24039,7 @@
       <c r="A60" t="s">
         <v>2106</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" t="s">
         <v>2197</v>
       </c>
       <c r="C60" s="10"/>
@@ -24029,7 +24048,7 @@
       <c r="A61" t="s">
         <v>2107</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" t="s">
         <v>2198</v>
       </c>
       <c r="C61" s="10"/>
@@ -24041,7 +24060,7 @@
       <c r="A62" t="s">
         <v>2108</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" t="s">
         <v>2199</v>
       </c>
       <c r="C62" s="10"/>
@@ -24054,7 +24073,7 @@
       <c r="A63" t="s">
         <v>2109</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" t="s">
         <v>2200</v>
       </c>
       <c r="C63" s="10"/>
@@ -24063,7 +24082,7 @@
       <c r="A64" t="s">
         <v>2110</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" t="s">
         <v>2201</v>
       </c>
       <c r="C64" s="10"/>
@@ -24075,7 +24094,7 @@
       <c r="A65" t="s">
         <v>2111</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" t="s">
         <v>132</v>
       </c>
       <c r="C65" s="10"/>
@@ -24084,7 +24103,7 @@
       <c r="A66" t="s">
         <v>2112</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" t="s">
         <v>2202</v>
       </c>
       <c r="C66" s="10"/>
@@ -24097,7 +24116,7 @@
       <c r="A67" t="s">
         <v>2113</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" t="s">
         <v>2203</v>
       </c>
       <c r="C67" s="10"/>
@@ -24110,10 +24129,10 @@
       <c r="A68" t="s">
         <v>2114</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -24121,7 +24140,7 @@
       <c r="A69" t="s">
         <v>2115</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" t="s">
         <v>2204</v>
       </c>
       <c r="C69" s="10"/>
@@ -24134,7 +24153,7 @@
       <c r="A70" t="s">
         <v>2116</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" t="s">
         <v>2205</v>
       </c>
       <c r="C70" s="10"/>
@@ -24143,10 +24162,10 @@
       <c r="A71" t="s">
         <v>2117</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" t="s">
         <v>2206</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -24154,7 +24173,7 @@
       <c r="A72" t="s">
         <v>2118</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" t="s">
         <v>1135</v>
       </c>
       <c r="C72" s="13"/>
@@ -24165,7 +24184,7 @@
       <c r="A73" t="s">
         <v>2119</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" t="s">
         <v>393</v>
       </c>
       <c r="C73" s="13"/>
@@ -24174,7 +24193,7 @@
       <c r="A74" t="s">
         <v>2120</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="13"/>
@@ -24184,7 +24203,7 @@
       <c r="A75" t="s">
         <v>2121</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" t="s">
         <v>2207</v>
       </c>
       <c r="C75" s="13"/>
@@ -24193,7 +24212,7 @@
       <c r="A76" t="s">
         <v>2122</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" t="s">
         <v>2209</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -24204,7 +24223,7 @@
       <c r="A77" t="s">
         <v>2123</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" t="s">
         <v>2210</v>
       </c>
       <c r="C77" s="13"/>
@@ -24214,10 +24233,10 @@
       <c r="A78" t="s">
         <v>2124</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" t="s">
         <v>2211</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>939</v>
       </c>
     </row>
@@ -24225,7 +24244,7 @@
       <c r="A79" t="s">
         <v>2125</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" t="s">
         <v>2212</v>
       </c>
       <c r="C79" s="13"/>
@@ -24234,7 +24253,7 @@
       <c r="A80" t="s">
         <v>2126</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" t="s">
         <v>2213</v>
       </c>
       <c r="C80" s="13"/>
@@ -24247,7 +24266,7 @@
       <c r="A81" t="s">
         <v>2127</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" t="s">
         <v>399</v>
       </c>
       <c r="C81" s="13"/>
@@ -24256,7 +24275,7 @@
       <c r="A82" t="s">
         <v>2128</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" t="s">
         <v>2214</v>
       </c>
       <c r="C82" s="13"/>
@@ -24265,10 +24284,10 @@
       <c r="A83" t="s">
         <v>2129</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" t="s">
         <v>2215</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="50" t="s">
         <v>939</v>
       </c>
     </row>
@@ -24276,7 +24295,7 @@
       <c r="A84" t="s">
         <v>2130</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" t="s">
         <v>2216</v>
       </c>
       <c r="C84" s="13"/>
@@ -24285,7 +24304,7 @@
       <c r="A85" t="s">
         <v>2131</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" t="s">
         <v>401</v>
       </c>
       <c r="C85" s="6"/>
@@ -24294,7 +24313,7 @@
       <c r="A86" t="s">
         <v>2132</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" t="s">
         <v>690</v>
       </c>
       <c r="C86" s="1"/>
@@ -24303,7 +24322,7 @@
       <c r="A87" t="s">
         <v>2133</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" t="s">
         <v>635</v>
       </c>
       <c r="C87" s="1"/>
@@ -24312,7 +24331,7 @@
       <c r="A88" t="s">
         <v>2134</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" t="s">
         <v>204</v>
       </c>
       <c r="C88" s="2"/>
@@ -24321,7 +24340,7 @@
       <c r="A89" t="s">
         <v>2135</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" t="s">
         <v>2217</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -24332,7 +24351,7 @@
       <c r="A90" t="s">
         <v>2136</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" t="s">
         <v>691</v>
       </c>
       <c r="C90" s="3"/>
@@ -24341,7 +24360,7 @@
       <c r="A91" t="s">
         <v>2137</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" t="s">
         <v>410</v>
       </c>
       <c r="C91" s="3"/>
@@ -24352,7 +24371,7 @@
       <c r="A92" t="s">
         <v>2138</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" t="s">
         <v>2218</v>
       </c>
       <c r="C92" s="4"/>
@@ -24361,7 +24380,7 @@
       <c r="A93" t="s">
         <v>2139</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" t="s">
         <v>2219</v>
       </c>
       <c r="C93" s="10"/>
@@ -24374,7 +24393,7 @@
       <c r="A94" t="s">
         <v>2140</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" t="s">
         <v>2220</v>
       </c>
       <c r="C94" s="13"/>
@@ -24383,7 +24402,7 @@
       <c r="A95" t="s">
         <v>2141</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" t="s">
         <v>2221</v>
       </c>
       <c r="C95" s="6"/>
@@ -24396,7 +24415,7 @@
       <c r="A96" t="s">
         <v>2142</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" t="s">
         <v>2222</v>
       </c>
       <c r="C96" s="1"/>
@@ -24405,7 +24424,7 @@
       <c r="A97" t="s">
         <v>2143</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" t="s">
         <v>2223</v>
       </c>
       <c r="C97" s="1"/>
@@ -24414,7 +24433,7 @@
       <c r="A98" t="s">
         <v>2144</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" t="s">
         <v>2224</v>
       </c>
       <c r="C98" s="1"/>
@@ -24423,7 +24442,7 @@
       <c r="A99" t="s">
         <v>2145</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" t="s">
         <v>2225</v>
       </c>
       <c r="C99" s="2"/>
@@ -24432,7 +24451,7 @@
       <c r="A100" t="s">
         <v>2146</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" t="s">
         <v>2226</v>
       </c>
       <c r="C100" s="19" t="s">
@@ -24443,7 +24462,7 @@
       <c r="A101" t="s">
         <v>2147</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" t="s">
         <v>2227</v>
       </c>
       <c r="C101" s="3"/>
@@ -24453,7 +24472,7 @@
       <c r="A102" t="s">
         <v>2148</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" t="s">
         <v>2228</v>
       </c>
       <c r="C102" s="3"/>
@@ -24462,7 +24481,7 @@
       <c r="A103" t="s">
         <v>2149</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" t="s">
         <v>2229</v>
       </c>
       <c r="C103" s="4"/>
@@ -24473,7 +24492,7 @@
       <c r="A104" t="s">
         <v>2150</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" t="s">
         <v>2230</v>
       </c>
       <c r="C104" s="4"/>
@@ -24483,7 +24502,7 @@
       <c r="A105" t="s">
         <v>2151</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" t="s">
         <v>2231</v>
       </c>
       <c r="C105" s="10"/>
@@ -24493,10 +24512,10 @@
       <c r="A106" t="s">
         <v>2152</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" t="s">
         <v>2232</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -24504,7 +24523,7 @@
       <c r="A107" t="s">
         <v>2153</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" t="s">
         <v>2233</v>
       </c>
       <c r="C107" s="10"/>
@@ -24516,7 +24535,7 @@
       <c r="A108" t="s">
         <v>2154</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" t="s">
         <v>2234</v>
       </c>
       <c r="C108" s="13"/>
@@ -24525,7 +24544,7 @@
       <c r="A109" t="s">
         <v>2155</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" t="s">
         <v>2235</v>
       </c>
       <c r="C109" s="13"/>
@@ -24535,10 +24554,10 @@
       <c r="A110" t="s">
         <v>2156</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" t="s">
         <v>2236</v>
       </c>
-      <c r="C110" s="53" t="s">
+      <c r="C110" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -24546,7 +24565,7 @@
       <c r="A111" t="s">
         <v>2157</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" t="s">
         <v>2237</v>
       </c>
       <c r="C111" s="6"/>
@@ -24555,7 +24574,7 @@
       <c r="A112" t="s">
         <v>2158</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" t="s">
         <v>2238</v>
       </c>
       <c r="C112" s="13"/>
@@ -24564,7 +24583,7 @@
       <c r="A113" t="s">
         <v>2159</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" t="s">
         <v>2239</v>
       </c>
       <c r="C113" s="6"/>
@@ -24884,7 +24903,7 @@
       <c r="B30" t="s">
         <v>2373</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="2" t="s">
         <v>730</v>
       </c>
     </row>
@@ -25012,7 +25031,7 @@
       <c r="B42" t="s">
         <v>2382</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -25100,7 +25119,7 @@
       <c r="B51" t="s">
         <v>701</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="48" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -25111,7 +25130,7 @@
       <c r="B52" t="s">
         <v>2389</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="48" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -25207,7 +25226,7 @@
       <c r="B62" t="s">
         <v>1502</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="49" t="s">
         <v>2175</v>
       </c>
       <c r="D62" s="9"/>
@@ -25247,7 +25266,7 @@
       <c r="B66" t="s">
         <v>388</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -25278,7 +25297,7 @@
       <c r="B69" t="s">
         <v>2401</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -25338,7 +25357,7 @@
       <c r="B75" t="s">
         <v>1324</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -25360,7 +25379,7 @@
       <c r="B77" t="s">
         <v>2407</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -25400,7 +25419,7 @@
       <c r="B81" t="s">
         <v>2411</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -25420,7 +25439,7 @@
       <c r="B83" t="s">
         <v>2413</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -25451,7 +25470,7 @@
       <c r="B86" t="s">
         <v>2416</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="40" t="s">
         <v>2175</v>
       </c>
       <c r="D86" s="9"/>
@@ -25588,7 +25607,7 @@
       <c r="B99" t="s">
         <v>2428</v>
       </c>
-      <c r="C99" s="55"/>
+      <c r="C99" s="52"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -25597,7 +25616,7 @@
       <c r="B100" t="s">
         <v>2429</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -26835,7 +26854,7 @@
       <c r="B30" t="s">
         <v>2744</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -26964,7 +26983,7 @@
       <c r="B42" t="s">
         <v>2750</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -27002,7 +27021,7 @@
       <c r="B45" t="s">
         <v>633</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="47"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -27068,7 +27087,7 @@
       <c r="B51" t="s">
         <v>2755</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27078,7 +27097,7 @@
       <c r="B52" t="s">
         <v>2756</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27122,7 +27141,7 @@
       <c r="B56" t="s">
         <v>2759</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="59" t="s">
         <v>939</v>
       </c>
     </row>
@@ -27140,7 +27159,7 @@
       <c r="A58" t="s">
         <v>2499</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" t="s">
         <v>2761</v>
       </c>
       <c r="C58" s="4"/>
@@ -27152,7 +27171,7 @@
       <c r="A59" t="s">
         <v>2500</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" t="s">
         <v>2762</v>
       </c>
       <c r="C59" s="10"/>
@@ -27163,10 +27182,10 @@
       <c r="A60" t="s">
         <v>2501</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" t="s">
         <v>2763</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -27174,7 +27193,7 @@
       <c r="A61" t="s">
         <v>2502</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" t="s">
         <v>2764</v>
       </c>
       <c r="C61" s="10"/>
@@ -27183,16 +27202,16 @@
       <c r="A62" t="s">
         <v>2503</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" t="s">
         <v>2765</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2504</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" t="s">
         <v>1342</v>
       </c>
       <c r="C63" s="10"/>
@@ -27202,7 +27221,7 @@
       <c r="A64" t="s">
         <v>2505</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" t="s">
         <v>2766</v>
       </c>
       <c r="C64" s="10"/>
@@ -27211,7 +27230,7 @@
       <c r="A65" t="s">
         <v>2506</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" t="s">
         <v>1348</v>
       </c>
       <c r="C65" s="10"/>
@@ -27220,16 +27239,16 @@
       <c r="A66" t="s">
         <v>2507</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" t="s">
         <v>2767</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="49"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2508</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" t="s">
         <v>2768</v>
       </c>
       <c r="C67" s="10"/>
@@ -27238,7 +27257,7 @@
       <c r="A68" t="s">
         <v>2509</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" t="s">
         <v>2769</v>
       </c>
       <c r="C68" s="10"/>
@@ -27247,16 +27266,16 @@
       <c r="A69" t="s">
         <v>2510</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" t="s">
         <v>2770</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="49"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2511</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" t="s">
         <v>2768</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -27267,7 +27286,7 @@
       <c r="A71" t="s">
         <v>2512</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" t="s">
         <v>1351</v>
       </c>
       <c r="C71" s="33" t="s">
@@ -27278,7 +27297,7 @@
       <c r="A72" t="s">
         <v>2513</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" t="s">
         <v>1149</v>
       </c>
       <c r="C72" s="13"/>
@@ -27287,7 +27306,7 @@
       <c r="A73" t="s">
         <v>2514</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" t="s">
         <v>1353</v>
       </c>
       <c r="C73" s="13"/>
@@ -27296,7 +27315,7 @@
       <c r="A74" t="s">
         <v>2515</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" t="s">
         <v>2771</v>
       </c>
       <c r="C74" s="13"/>
@@ -27305,16 +27324,16 @@
       <c r="A75" t="s">
         <v>2516</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" t="s">
         <v>2772</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="51"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2517</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" t="s">
         <v>2773</v>
       </c>
       <c r="C76" s="13"/>
@@ -27323,16 +27342,16 @@
       <c r="A77" t="s">
         <v>2518</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" t="s">
         <v>1541</v>
       </c>
-      <c r="C77" s="53"/>
+      <c r="C77" s="51"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2519</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="B78" t="s">
         <v>2774</v>
       </c>
       <c r="C78" s="13"/>
@@ -27341,7 +27360,7 @@
       <c r="A79" t="s">
         <v>2520</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" t="s">
         <v>2775</v>
       </c>
       <c r="C79" s="13"/>
@@ -27350,7 +27369,7 @@
       <c r="A80" t="s">
         <v>2521</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" t="s">
         <v>2776</v>
       </c>
       <c r="C80" s="13"/>
@@ -27359,16 +27378,16 @@
       <c r="A81" t="s">
         <v>2522</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" t="s">
         <v>2777</v>
       </c>
-      <c r="C81" s="53"/>
+      <c r="C81" s="51"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2523</v>
       </c>
-      <c r="B82" s="64" t="s">
+      <c r="B82" t="s">
         <v>2778</v>
       </c>
       <c r="C82" s="13"/>
@@ -27377,16 +27396,16 @@
       <c r="A83" t="s">
         <v>2524</v>
       </c>
-      <c r="B83" s="64" t="s">
+      <c r="B83" t="s">
         <v>431</v>
       </c>
-      <c r="C83" s="53"/>
+      <c r="C83" s="51"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2525</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" t="s">
         <v>2779</v>
       </c>
       <c r="C84" s="13"/>
@@ -27396,7 +27415,7 @@
       <c r="A85" t="s">
         <v>2526</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" t="s">
         <v>2780</v>
       </c>
       <c r="C85" s="13"/>
@@ -27405,16 +27424,16 @@
       <c r="A86" t="s">
         <v>2527</v>
       </c>
-      <c r="B86" s="64" t="s">
+      <c r="B86" t="s">
         <v>1829</v>
       </c>
-      <c r="C86" s="67"/>
+      <c r="C86" s="60"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2528</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" t="s">
         <v>1575</v>
       </c>
       <c r="C87" s="6"/>
@@ -27423,7 +27442,7 @@
       <c r="A88" t="s">
         <v>2529</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" t="s">
         <v>2782</v>
       </c>
       <c r="C88" s="24"/>
@@ -27433,16 +27452,16 @@
       <c r="A89" t="s">
         <v>2530</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" t="s">
         <v>2783</v>
       </c>
-      <c r="C89" s="68"/>
+      <c r="C89" s="61"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2531</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" t="s">
         <v>2784</v>
       </c>
       <c r="C90" s="3"/>
@@ -27451,7 +27470,7 @@
       <c r="A91" t="s">
         <v>2532</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" t="s">
         <v>2785</v>
       </c>
       <c r="C91" s="4"/>
@@ -27460,7 +27479,7 @@
       <c r="A92" t="s">
         <v>2533</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" t="s">
         <v>636</v>
       </c>
       <c r="C92" s="4"/>
@@ -27469,7 +27488,7 @@
       <c r="A93" t="s">
         <v>2534</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" t="s">
         <v>2786</v>
       </c>
       <c r="C93" s="10"/>
@@ -27478,7 +27497,7 @@
       <c r="A94" t="s">
         <v>2535</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B94" t="s">
         <v>2787</v>
       </c>
       <c r="C94" s="23"/>
@@ -27487,7 +27506,7 @@
       <c r="A95" t="s">
         <v>2536</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B95" t="s">
         <v>2788</v>
       </c>
       <c r="C95" s="24"/>
@@ -27496,7 +27515,7 @@
       <c r="A96" t="s">
         <v>2537</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" t="s">
         <v>2789</v>
       </c>
       <c r="C96" s="24"/>
@@ -27505,7 +27524,7 @@
       <c r="A97" t="s">
         <v>2538</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" t="s">
         <v>2790</v>
       </c>
       <c r="C97" s="1"/>
@@ -27514,7 +27533,7 @@
       <c r="A98" t="s">
         <v>2539</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" t="s">
         <v>2791</v>
       </c>
       <c r="C98" s="2"/>
@@ -27523,7 +27542,7 @@
       <c r="A99" t="s">
         <v>2540</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" t="s">
         <v>2792</v>
       </c>
       <c r="C99" s="36"/>
@@ -27532,10 +27551,10 @@
       <c r="A100" t="s">
         <v>2541</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" t="s">
         <v>2793</v>
       </c>
-      <c r="C100" s="45"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -27545,7 +27564,7 @@
       <c r="A101" t="s">
         <v>2542</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" t="s">
         <v>2794</v>
       </c>
       <c r="C101" s="3"/>
@@ -27554,7 +27573,7 @@
       <c r="A102" t="s">
         <v>2543</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" t="s">
         <v>2795</v>
       </c>
       <c r="C102" s="3"/>
@@ -27566,18 +27585,16 @@
       <c r="A103" t="s">
         <v>2544</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" t="s">
         <v>2796</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2545</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" t="s">
         <v>2797</v>
       </c>
       <c r="C104" s="4"/>
@@ -27588,7 +27605,7 @@
       <c r="A105" t="s">
         <v>2546</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" t="s">
         <v>2798</v>
       </c>
       <c r="C105" s="33" t="s">
@@ -27600,7 +27617,7 @@
       <c r="A106" t="s">
         <v>2547</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" t="s">
         <v>2799</v>
       </c>
       <c r="C106" s="10"/>
@@ -27609,7 +27626,7 @@
       <c r="A107" t="s">
         <v>2548</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" t="s">
         <v>2800</v>
       </c>
       <c r="C107" s="10"/>
@@ -27619,7 +27636,7 @@
       <c r="A108" t="s">
         <v>2549</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B108" t="s">
         <v>2801</v>
       </c>
       <c r="C108" s="13"/>
@@ -27630,7 +27647,7 @@
       <c r="A109" t="s">
         <v>2550</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" t="s">
         <v>2802</v>
       </c>
       <c r="C109" s="13"/>
@@ -27639,7 +27656,7 @@
       <c r="A110" t="s">
         <v>2551</v>
       </c>
-      <c r="B110" s="64" t="s">
+      <c r="B110" t="s">
         <v>2803</v>
       </c>
       <c r="C110" s="6"/>
@@ -27648,7 +27665,7 @@
       <c r="A111" t="s">
         <v>2552</v>
       </c>
-      <c r="B111" s="64" t="s">
+      <c r="B111" t="s">
         <v>2804</v>
       </c>
       <c r="C111" s="6"/>
@@ -27658,7 +27675,7 @@
       <c r="A112" t="s">
         <v>2553</v>
       </c>
-      <c r="B112" s="64" t="s">
+      <c r="B112" t="s">
         <v>2805</v>
       </c>
       <c r="C112" s="1"/>
@@ -28029,7 +28046,7 @@
       <c r="B19" t="s">
         <v>1508</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="53" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -28040,7 +28057,7 @@
       <c r="B20" t="s">
         <v>2671</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="54" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -28144,7 +28161,7 @@
       <c r="B30" t="s">
         <v>365</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -28176,7 +28193,7 @@
       <c r="B33" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="58"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -28366,7 +28383,7 @@
       <c r="B51" t="s">
         <v>2387</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -28376,7 +28393,7 @@
       <c r="B52" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
     </row>
@@ -28458,7 +28475,7 @@
       <c r="B60" t="s">
         <v>2688</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="4" t="s">
         <v>730</v>
       </c>
     </row>
@@ -28479,7 +28496,7 @@
       <c r="B62" t="s">
         <v>2689</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -28490,7 +28507,6 @@
         <v>2357</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -28509,7 +28525,7 @@
       <c r="B65" t="s">
         <v>2361</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -28520,7 +28536,7 @@
       <c r="B66" t="s">
         <v>2691</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="49"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -28560,7 +28576,7 @@
       <c r="B70" t="s">
         <v>2693</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -28613,7 +28629,7 @@
       <c r="B75" t="s">
         <v>2696</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -28624,7 +28640,7 @@
       <c r="B76" t="s">
         <v>1330</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="51"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -28646,7 +28662,7 @@
       <c r="B78" t="s">
         <v>1807</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="51"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -28701,7 +28717,7 @@
       <c r="B83" t="s">
         <v>2700</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="13" t="s">
         <v>730</v>
       </c>
     </row>
@@ -28721,7 +28737,7 @@
       <c r="B85" t="s">
         <v>2701</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -28734,7 +28750,7 @@
       <c r="B86" t="s">
         <v>2702</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="58" t="s">
         <v>700</v>
       </c>
       <c r="D86" s="9"/>
@@ -28755,7 +28771,7 @@
       <c r="B88" t="s">
         <v>2704</v>
       </c>
-      <c r="C88" s="61"/>
+      <c r="C88" s="56"/>
       <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -28765,7 +28781,7 @@
       <c r="B89" t="s">
         <v>2705</v>
       </c>
-      <c r="C89" s="62"/>
+      <c r="C89" s="57"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -28811,7 +28827,7 @@
       <c r="B94" t="s">
         <v>2710</v>
       </c>
-      <c r="C94" s="51"/>
+      <c r="C94" s="49"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -28820,7 +28836,7 @@
       <c r="B95" t="s">
         <v>2711</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="51" t="s">
         <v>939</v>
       </c>
     </row>
@@ -28828,7 +28844,7 @@
       <c r="A96" t="s">
         <v>2649</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" t="s">
         <v>2706</v>
       </c>
       <c r="C96" s="6"/>
@@ -28837,7 +28853,7 @@
       <c r="A97" t="s">
         <v>2650</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" t="s">
         <v>2712</v>
       </c>
       <c r="C97" s="1"/>
@@ -28847,7 +28863,7 @@
       <c r="A98" t="s">
         <v>2651</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" t="s">
         <v>2713</v>
       </c>
       <c r="C98" s="1"/>
@@ -28856,7 +28872,7 @@
       <c r="A99" t="s">
         <v>2652</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" t="s">
         <v>2714</v>
       </c>
       <c r="C99" s="36"/>
@@ -28867,27 +28883,26 @@
       <c r="A100" t="s">
         <v>2653</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" t="s">
         <v>2715</v>
       </c>
-      <c r="C100" s="42"/>
+      <c r="C100" s="40"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2654</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" t="s">
         <v>2716</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="65"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2655</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" t="s">
         <v>2717</v>
       </c>
       <c r="C102" s="3"/>
@@ -28898,7 +28913,7 @@
       <c r="A103" t="s">
         <v>2656</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" t="s">
         <v>2718</v>
       </c>
       <c r="C103" s="4"/>
@@ -28909,7 +28924,7 @@
       <c r="A104" t="s">
         <v>2657</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" t="s">
         <v>2719</v>
       </c>
       <c r="C104" s="4"/>
@@ -28919,7 +28934,7 @@
       <c r="A105" t="s">
         <v>2658</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" t="s">
         <v>2720</v>
       </c>
       <c r="C105" s="4"/>
@@ -28928,7 +28943,7 @@
       <c r="A106" t="s">
         <v>2659</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" t="s">
         <v>2721</v>
       </c>
       <c r="C106" s="10"/>
@@ -28938,7 +28953,7 @@
       <c r="A107" t="s">
         <v>2660</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" t="s">
         <v>2722</v>
       </c>
       <c r="C107" s="10"/>
@@ -28947,10 +28962,10 @@
       <c r="A108" t="s">
         <v>2661</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B108" t="s">
         <v>2723</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -28958,7 +28973,7 @@
       <c r="A109" t="s">
         <v>2662</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" t="s">
         <v>2724</v>
       </c>
       <c r="C109" s="10"/>
@@ -28967,7 +28982,7 @@
       <c r="A110" t="s">
         <v>2663</v>
       </c>
-      <c r="B110" s="64" t="s">
+      <c r="B110" t="s">
         <v>2725</v>
       </c>
       <c r="C110" s="13"/>
@@ -28977,7 +28992,7 @@
       <c r="A111" t="s">
         <v>2664</v>
       </c>
-      <c r="B111" s="64" t="s">
+      <c r="B111" t="s">
         <v>2726</v>
       </c>
       <c r="C111" s="13"/>
@@ -28986,7 +29001,7 @@
       <c r="A112" t="s">
         <v>2665</v>
       </c>
-      <c r="B112" s="64" t="s">
+      <c r="B112" t="s">
         <v>2727</v>
       </c>
       <c r="C112" s="10"/>
@@ -28995,7 +29010,7 @@
       <c r="A113" t="s">
         <v>2666</v>
       </c>
-      <c r="B113" s="64" t="s">
+      <c r="B113" t="s">
         <v>2728</v>
       </c>
       <c r="C113" s="2"/>
@@ -29017,7 +29032,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -29207,7 +29222,7 @@
       <c r="B19" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="53"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -29216,7 +29231,7 @@
       <c r="B20" t="s">
         <v>1297</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="62"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -29308,7 +29323,7 @@
       <c r="B30" t="s">
         <v>2959</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -29339,7 +29354,7 @@
       <c r="B33" t="s">
         <v>2961</v>
       </c>
-      <c r="C33" s="58"/>
+      <c r="C33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -29348,7 +29363,7 @@
       <c r="B34" t="s">
         <v>1540</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="52"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -29357,7 +29372,7 @@
       <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29397,7 +29412,7 @@
       <c r="B39" t="s">
         <v>1300</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29408,7 +29423,7 @@
       <c r="B40" t="s">
         <v>2964</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>2175</v>
       </c>
       <c r="D40" s="8"/>
@@ -29423,7 +29438,7 @@
       <c r="B41" t="s">
         <v>2965</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -29432,7 +29447,7 @@
       <c r="B42" t="s">
         <v>2966</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -29441,7 +29456,7 @@
       <c r="B43" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29452,7 +29467,7 @@
       <c r="B44" t="s">
         <v>2967</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29525,7 +29540,7 @@
       <c r="B51" t="s">
         <v>2972</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="48"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -29534,7 +29549,7 @@
       <c r="B52" t="s">
         <v>2973</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="48"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -29612,7 +29627,7 @@
       <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="49" t="s">
         <v>653</v>
       </c>
     </row>
@@ -29623,7 +29638,7 @@
       <c r="B61" t="s">
         <v>2979</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="49"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -29632,7 +29647,7 @@
       <c r="B62" t="s">
         <v>2980</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -29641,7 +29656,7 @@
       <c r="B63" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="49"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -29650,7 +29665,7 @@
       <c r="B64" t="s">
         <v>2773</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="49"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -29659,7 +29674,7 @@
       <c r="B65" t="s">
         <v>2981</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="49"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -29668,7 +29683,7 @@
       <c r="B66" t="s">
         <v>2982</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="49"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -29677,7 +29692,7 @@
       <c r="B67" t="s">
         <v>2983</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="49"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -29686,7 +29701,7 @@
       <c r="B68" t="s">
         <v>2185</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="49"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -29695,7 +29710,7 @@
       <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29706,7 +29721,7 @@
       <c r="B70" t="s">
         <v>2984</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="49"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -29715,7 +29730,7 @@
       <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29726,7 +29741,7 @@
       <c r="B72" t="s">
         <v>2985</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="49"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -29735,7 +29750,7 @@
       <c r="B73" t="s">
         <v>2986</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29764,7 +29779,7 @@
       <c r="B76" t="s">
         <v>1135</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="51"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -29782,7 +29797,7 @@
       <c r="B78" t="s">
         <v>2989</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="51"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -29827,7 +29842,7 @@
       <c r="B83" t="s">
         <v>2994</v>
       </c>
-      <c r="C83" s="60"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -29845,7 +29860,7 @@
       <c r="B85" t="s">
         <v>2996</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="51"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -29854,7 +29869,7 @@
       <c r="B86" t="s">
         <v>2997</v>
       </c>
-      <c r="C86" s="63"/>
+      <c r="C86" s="58"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -29872,7 +29887,7 @@
       <c r="B88" t="s">
         <v>2782</v>
       </c>
-      <c r="C88" s="72"/>
+      <c r="C88" s="63"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -29881,7 +29896,7 @@
       <c r="B89" t="s">
         <v>2019</v>
       </c>
-      <c r="C89" s="73"/>
+      <c r="C89" s="64"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -29917,7 +29932,7 @@
       <c r="B93" t="s">
         <v>1363</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29928,7 +29943,7 @@
       <c r="B94" t="s">
         <v>2999</v>
       </c>
-      <c r="C94" s="74"/>
+      <c r="C94" s="65"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -29937,13 +29952,13 @@
       <c r="B95" t="s">
         <v>2787</v>
       </c>
-      <c r="C95" s="75"/>
+      <c r="C95" s="66"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2932</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" t="s">
         <v>202</v>
       </c>
       <c r="C96" s="10"/>
@@ -29952,7 +29967,7 @@
       <c r="A97" t="s">
         <v>2933</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" t="s">
         <v>3000</v>
       </c>
       <c r="C97" s="13"/>
@@ -29961,7 +29976,7 @@
       <c r="A98" t="s">
         <v>2934</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" t="s">
         <v>3001</v>
       </c>
       <c r="C98" s="13"/>
@@ -29970,16 +29985,16 @@
       <c r="A99" t="s">
         <v>2935</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" t="s">
         <v>3002</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="67"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2936</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" t="s">
         <v>3003</v>
       </c>
       <c r="C100" s="24"/>
@@ -29988,7 +30003,7 @@
       <c r="A101" t="s">
         <v>2937</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" t="s">
         <v>3004</v>
       </c>
       <c r="C101" s="1"/>
@@ -29997,7 +30012,7 @@
       <c r="A102" t="s">
         <v>2938</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" t="s">
         <v>3005</v>
       </c>
       <c r="C102" s="2"/>
@@ -30006,7 +30021,7 @@
       <c r="A103" t="s">
         <v>2939</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" t="s">
         <v>3006</v>
       </c>
       <c r="C103" s="2"/>
@@ -30015,7 +30030,7 @@
       <c r="A104" t="s">
         <v>2940</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" t="s">
         <v>3007</v>
       </c>
       <c r="C104" s="3"/>
@@ -30024,10 +30039,10 @@
       <c r="A105" t="s">
         <v>2941</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" t="s">
         <v>3008</v>
       </c>
-      <c r="C105" s="45" t="s">
+      <c r="C105" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -30035,7 +30050,7 @@
       <c r="A106" t="s">
         <v>2942</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" t="s">
         <v>3009</v>
       </c>
       <c r="C106" s="4"/>
@@ -30044,7 +30059,7 @@
       <c r="A107" t="s">
         <v>2943</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" t="s">
         <v>3010</v>
       </c>
       <c r="C107" s="4"/>
@@ -30053,19 +30068,19 @@
       <c r="A108" t="s">
         <v>2944</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B108" t="s">
         <v>3011</v>
       </c>
-      <c r="C108" s="51"/>
+      <c r="C108" s="49"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2945</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" t="s">
         <v>3012</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="49" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -30073,7 +30088,7 @@
       <c r="A110" t="s">
         <v>2946</v>
       </c>
-      <c r="B110" s="64" t="s">
+      <c r="B110" t="s">
         <v>3013</v>
       </c>
       <c r="C110" s="13"/>
@@ -30082,7 +30097,7 @@
       <c r="A111" t="s">
         <v>2947</v>
       </c>
-      <c r="B111" s="64" t="s">
+      <c r="B111" t="s">
         <v>3014</v>
       </c>
       <c r="C111" s="13"/>
@@ -30093,7 +30108,7 @@
       <c r="A112" t="s">
         <v>2948</v>
       </c>
-      <c r="B112" s="64" t="s">
+      <c r="B112" t="s">
         <v>3015</v>
       </c>
       <c r="C112" s="13" t="s">
@@ -30104,10 +30119,10 @@
       <c r="A113" t="s">
         <v>2949</v>
       </c>
-      <c r="B113" s="64" t="s">
+      <c r="B113" t="s">
         <v>3016</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="60" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -30118,7 +30133,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42F967-E1F3-47EB-9301-1DFFD3817B8E}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
@@ -30127,7 +30142,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -30140,16 +30155,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="65">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="65">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -30206,10 +30221,10 @@
         <v>349</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -30392,7 +30407,7 @@
       <c r="B26" t="s">
         <v>1312</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -30428,7 +30443,7 @@
       <c r="B30" t="s">
         <v>1318</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -30437,7 +30452,7 @@
       <c r="B31" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -30507,7 +30522,7 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" t="s">
         <v>3636</v>
       </c>
       <c r="B39" t="s">
@@ -30593,7 +30608,7 @@
       <c r="B47" t="s">
         <v>3715</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="45"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -30657,10 +30672,10 @@
         <v>3720</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -30679,10 +30694,10 @@
         <v>2758</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -30718,7 +30733,7 @@
       <c r="B60" t="s">
         <v>1664</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="80" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -30729,7 +30744,7 @@
       <c r="B61" t="s">
         <v>3723</v>
       </c>
-      <c r="C61" s="92"/>
+      <c r="C61" s="83"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -30761,27 +30776,27 @@
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+      <c r="A65" t="s">
         <v>3662</v>
       </c>
       <c r="B65" t="s">
         <v>3710</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="66" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" t="s">
         <v>3663</v>
       </c>
       <c r="B66" t="s">
         <v>3724</v>
       </c>
-      <c r="C66" s="93"/>
+      <c r="C66" s="84"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="A67" t="s">
         <v>3664</v>
       </c>
       <c r="B67" t="s">
@@ -30791,33 +30806,33 @@
       <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+      <c r="A68" t="s">
         <v>3665</v>
       </c>
       <c r="B68" t="s">
         <v>1520</v>
       </c>
-      <c r="C68" s="75"/>
+      <c r="C68" s="66"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="A69" t="s">
         <v>3666</v>
       </c>
       <c r="B69" t="s">
         <v>3711</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="C69" s="85" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="A70" t="s">
         <v>3667</v>
       </c>
       <c r="B70" t="s">
         <v>3725</v>
       </c>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="85" t="s">
         <v>939</v>
       </c>
     </row>
@@ -30828,7 +30843,7 @@
       <c r="B71" t="s">
         <v>3726</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="85" t="s">
         <v>939</v>
       </c>
     </row>
@@ -30839,7 +30854,7 @@
       <c r="B72" t="s">
         <v>1143</v>
       </c>
-      <c r="C72" s="94"/>
+      <c r="C72" s="85"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -30848,7 +30863,7 @@
       <c r="B73" t="s">
         <v>2005</v>
       </c>
-      <c r="C73" s="94"/>
+      <c r="C73" s="85"/>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -30858,7 +30873,7 @@
       <c r="B74" t="s">
         <v>3727</v>
       </c>
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="85" t="s">
         <v>939</v>
       </c>
     </row>
@@ -30869,7 +30884,7 @@
       <c r="B75" t="s">
         <v>3728</v>
       </c>
-      <c r="C75" s="71"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -30887,7 +30902,7 @@
       <c r="B77" t="s">
         <v>3729</v>
       </c>
-      <c r="C77" s="94" t="s">
+      <c r="C77" s="85" t="s">
         <v>939</v>
       </c>
     </row>
@@ -30943,7 +30958,7 @@
       <c r="B83" t="s">
         <v>3731</v>
       </c>
-      <c r="C83" s="62"/>
+      <c r="C83" s="57"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -31015,7 +31030,7 @@
       <c r="B91" t="s">
         <v>1524</v>
       </c>
-      <c r="C91" s="53"/>
+      <c r="C91" s="51"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -31051,7 +31066,7 @@
       <c r="B95" t="s">
         <v>3740</v>
       </c>
-      <c r="C95" s="95"/>
+      <c r="C95" s="86"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -31060,7 +31075,7 @@
       <c r="B96" t="s">
         <v>1363</v>
       </c>
-      <c r="C96" s="95" t="s">
+      <c r="C96" s="86" t="s">
         <v>939</v>
       </c>
     </row>
@@ -31071,7 +31086,7 @@
       <c r="B97" t="s">
         <v>3741</v>
       </c>
-      <c r="C97" s="90"/>
+      <c r="C97" s="81"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -31089,7 +31104,7 @@
       <c r="B99" t="s">
         <v>3742</v>
       </c>
-      <c r="C99" s="96"/>
+      <c r="C99" s="87"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -31116,18 +31131,18 @@
       <c r="B102" t="s">
         <v>3754</v>
       </c>
-      <c r="C102" s="94" t="s">
+      <c r="C102" s="85" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="A103" t="s">
         <v>3700</v>
       </c>
       <c r="B103" t="s">
         <v>3755</v>
       </c>
-      <c r="C103" s="53"/>
+      <c r="C103" s="51"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -31145,12 +31160,12 @@
       <c r="B105" t="s">
         <v>3756</v>
       </c>
-      <c r="C105" s="95" t="s">
+      <c r="C105" s="86" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="64" t="s">
+      <c r="A106" t="s">
         <v>3746</v>
       </c>
       <c r="B106" t="s">
@@ -31177,7 +31192,7 @@
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
+      <c r="A109" t="s">
         <v>3749</v>
       </c>
       <c r="B109" t="s">
@@ -31204,7 +31219,7 @@
       <c r="C111" s="6"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
+      <c r="A112" t="s">
         <v>3752</v>
       </c>
       <c r="B112" t="s">
@@ -31220,26 +31235,6 @@
         <v>3764</v>
       </c>
       <c r="C113" s="6"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31250,7 +31245,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1048576"/>
@@ -31259,7 +31254,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31272,16 +31267,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="65">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="65">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -31338,10 +31333,10 @@
         <v>3120</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -31404,7 +31399,7 @@
       <c r="B14" t="s">
         <v>806</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="88" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -31516,7 +31511,7 @@
       <c r="B26" t="s">
         <v>724</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -31552,7 +31547,7 @@
       <c r="B30" t="s">
         <v>809</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -31561,7 +31556,7 @@
       <c r="B31" t="s">
         <v>3873</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -31570,7 +31565,7 @@
       <c r="B32" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -31579,7 +31574,7 @@
       <c r="B33" t="s">
         <v>1136</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -31588,7 +31583,7 @@
       <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -31597,7 +31592,7 @@
       <c r="B35" t="s">
         <v>1138</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="3" t="s">
         <v>730</v>
       </c>
     </row>
@@ -31608,7 +31603,7 @@
       <c r="B36" t="s">
         <v>3874</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -31617,7 +31612,7 @@
       <c r="B37" t="s">
         <v>3875</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -31626,10 +31621,10 @@
       <c r="B38" t="s">
         <v>3876</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" t="s">
         <v>3802</v>
       </c>
       <c r="B39" t="s">
@@ -31671,7 +31666,7 @@
       <c r="B43" t="s">
         <v>648</v>
       </c>
-      <c r="C43" s="98"/>
+      <c r="C43" s="89"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -31771,10 +31766,10 @@
         <v>199</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -31793,10 +31788,10 @@
         <v>185</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -31843,7 +31838,7 @@
       <c r="B61" t="s">
         <v>3879</v>
       </c>
-      <c r="C61" s="80"/>
+      <c r="C61" s="71"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -31873,60 +31868,60 @@
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+      <c r="A65" t="s">
         <v>3828</v>
       </c>
       <c r="B65" t="s">
         <v>3882</v>
       </c>
-      <c r="C65" s="75"/>
+      <c r="C65" s="66"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" t="s">
         <v>3829</v>
       </c>
       <c r="B66" t="s">
         <v>3883</v>
       </c>
-      <c r="C66" s="93"/>
+      <c r="C66" s="84"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="A67" t="s">
         <v>3830</v>
       </c>
       <c r="B67" t="s">
         <v>3884</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="66" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+      <c r="A68" t="s">
         <v>3831</v>
       </c>
       <c r="B68" t="s">
         <v>3885</v>
       </c>
-      <c r="C68" s="75"/>
+      <c r="C68" s="66"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="A69" t="s">
         <v>3832</v>
       </c>
       <c r="B69" t="s">
         <v>3886</v>
       </c>
-      <c r="C69" s="94"/>
+      <c r="C69" s="85"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="A70" t="s">
         <v>3833</v>
       </c>
       <c r="B70" t="s">
         <v>1149</v>
       </c>
-      <c r="C70" s="52"/>
+      <c r="C70" s="50"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -31935,7 +31930,7 @@
       <c r="B71" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="52"/>
+      <c r="C71" s="50"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -31944,7 +31939,7 @@
       <c r="B72" t="s">
         <v>3887</v>
       </c>
-      <c r="C72" s="52"/>
+      <c r="C72" s="50"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -31953,7 +31948,7 @@
       <c r="B73" t="s">
         <v>2208</v>
       </c>
-      <c r="C73" s="52"/>
+      <c r="C73" s="50"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -31962,7 +31957,7 @@
       <c r="B74" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="52"/>
+      <c r="C74" s="50"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -31971,7 +31966,7 @@
       <c r="B75" t="s">
         <v>3888</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -31993,7 +31988,7 @@
       <c r="B77" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="52"/>
+      <c r="C77" s="50"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -32047,7 +32042,7 @@
       <c r="B83" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="73"/>
+      <c r="C83" s="64"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -32074,7 +32069,7 @@
       <c r="B86" t="s">
         <v>206</v>
       </c>
-      <c r="C86" s="101"/>
+      <c r="C86" s="92"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -32101,7 +32096,7 @@
       <c r="B89" t="s">
         <v>3894</v>
       </c>
-      <c r="C89" s="67"/>
+      <c r="C89" s="60"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -32155,7 +32150,7 @@
       <c r="B95" t="s">
         <v>3900</v>
       </c>
-      <c r="C95" s="102"/>
+      <c r="C95" s="93"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -32164,7 +32159,7 @@
       <c r="B96" t="s">
         <v>3901</v>
       </c>
-      <c r="C96" s="48"/>
+      <c r="C96" s="46"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -32173,7 +32168,7 @@
       <c r="B97" t="s">
         <v>3902</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="80"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -32182,7 +32177,7 @@
       <c r="B98" t="s">
         <v>3903</v>
       </c>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="66" t="s">
         <v>939</v>
       </c>
     </row>
@@ -32224,69 +32219,19 @@
       <c r="B102" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="95"/>
+      <c r="C102" s="86"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="A103" t="s">
         <v>3866</v>
       </c>
       <c r="B103" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="55"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="64"/>
+      <c r="C103" s="52"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="100"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="C106" s="64"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="64"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="64"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="C109" s="64"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="64"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="64"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
-      <c r="C112" s="64"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="64"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
+      <c r="C105" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32296,16 +32241,16 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C58CEC-A591-498E-8A37-59AAA5BB4EB2}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -32318,16 +32263,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="65">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="65">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -32341,7 +32286,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" t="s">
         <v>3908</v>
       </c>
       <c r="B3" t="s">
@@ -32384,10 +32329,10 @@
         <v>1106</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -32443,7 +32388,7 @@
       <c r="B13" t="s">
         <v>4011</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="88" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -32454,7 +32399,7 @@
       <c r="B14" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -32481,7 +32426,7 @@
       <c r="B17" t="s">
         <v>4013</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="64" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -32501,7 +32446,7 @@
       <c r="B19" t="s">
         <v>2743</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -32566,7 +32511,7 @@
       <c r="B26" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -32576,7 +32521,7 @@
         <v>4015</v>
       </c>
       <c r="C27" s="36"/>
-      <c r="I27" s="84"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -32603,7 +32548,7 @@
       <c r="B30" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -32612,7 +32557,7 @@
       <c r="B31" t="s">
         <v>729</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="55"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -32621,7 +32566,7 @@
       <c r="B32" t="s">
         <v>367</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="55"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -32630,7 +32575,7 @@
       <c r="B33" t="s">
         <v>4016</v>
       </c>
-      <c r="C33" s="58"/>
+      <c r="C33" s="55"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -32639,7 +32584,7 @@
       <c r="B34" t="s">
         <v>395</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -32648,7 +32593,7 @@
       <c r="B35" t="s">
         <v>4017</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -32657,7 +32602,7 @@
       <c r="B36" t="s">
         <v>2690</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="3" t="s">
         <v>730</v>
       </c>
     </row>
@@ -32668,7 +32613,7 @@
       <c r="B37" t="s">
         <v>396</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="45" t="s">
         <v>661</v>
       </c>
     </row>
@@ -32679,10 +32624,10 @@
       <c r="B38" t="s">
         <v>372</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" t="s">
         <v>3944</v>
       </c>
       <c r="B39" t="s">
@@ -32826,10 +32771,10 @@
         <v>815</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -32848,10 +32793,10 @@
         <v>4027</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -32860,7 +32805,7 @@
       <c r="B57" t="s">
         <v>2198</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="79" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -32880,7 +32825,7 @@
       <c r="B59" t="s">
         <v>2201</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="79" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -32900,7 +32845,7 @@
       <c r="B61" t="s">
         <v>4029</v>
       </c>
-      <c r="C61" s="80"/>
+      <c r="C61" s="71"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -32927,76 +32872,76 @@
       <c r="B64" t="s">
         <v>2203</v>
       </c>
-      <c r="C64" s="88" t="s">
+      <c r="C64" s="79" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>3970</v>
       </c>
       <c r="B65" t="s">
         <v>388</v>
       </c>
-      <c r="C65" s="75"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="C65" s="66"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>3971</v>
       </c>
       <c r="B66" t="s">
         <v>1537</v>
       </c>
-      <c r="C66" s="93"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="C66" s="84"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>3972</v>
       </c>
       <c r="B67" t="s">
         <v>392</v>
       </c>
-      <c r="C67" s="75"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+      <c r="C67" s="66"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>3973</v>
       </c>
       <c r="B68" t="s">
         <v>2205</v>
       </c>
-      <c r="C68" s="88" t="s">
+      <c r="C68" s="79" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>3974</v>
       </c>
       <c r="B69" t="s">
         <v>1785</v>
       </c>
-      <c r="C69" s="52"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="C69" s="50"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>3975</v>
       </c>
       <c r="B70" t="s">
         <v>1148</v>
       </c>
-      <c r="C70" s="52"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="50"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3976</v>
       </c>
       <c r="B71" t="s">
         <v>393</v>
       </c>
-      <c r="C71" s="52"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="50"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3977</v>
       </c>
@@ -33006,39 +32951,35 @@
       <c r="C72" s="23" t="s">
         <v>2175</v>
       </c>
-      <c r="H72" s="64"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3978</v>
       </c>
       <c r="B73" t="s">
         <v>397</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="H73" s="64"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="50"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3979</v>
       </c>
       <c r="B74" t="s">
         <v>1354</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="H74" s="64"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="50"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3980</v>
       </c>
       <c r="B75" t="s">
         <v>3869</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="H75" s="64"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3981</v>
       </c>
@@ -33048,19 +32989,17 @@
       <c r="C76" s="23" t="s">
         <v>2175</v>
       </c>
-      <c r="H76" s="64"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3982</v>
       </c>
       <c r="B77" t="s">
         <v>4030</v>
       </c>
-      <c r="C77" s="52"/>
-      <c r="H77" s="64"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="50"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3983</v>
       </c>
@@ -33068,9 +33007,8 @@
         <v>822</v>
       </c>
       <c r="C78" s="22"/>
-      <c r="H78" s="64"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3984</v>
       </c>
@@ -33078,9 +33016,8 @@
         <v>4031</v>
       </c>
       <c r="C79" s="22"/>
-      <c r="H79" s="64"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3985</v>
       </c>
@@ -33088,9 +33025,8 @@
         <v>403</v>
       </c>
       <c r="C80" s="22"/>
-      <c r="H80" s="64"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3986</v>
       </c>
@@ -33098,9 +33034,8 @@
         <v>402</v>
       </c>
       <c r="C81" s="22"/>
-      <c r="H81" s="64"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3987</v>
       </c>
@@ -33108,18 +33043,17 @@
         <v>4032</v>
       </c>
       <c r="C82" s="22"/>
-      <c r="H82" s="64"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3988</v>
       </c>
       <c r="B83" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="73"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="64"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3989</v>
       </c>
@@ -33128,7 +33062,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3990</v>
       </c>
@@ -33137,16 +33071,16 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3991</v>
       </c>
       <c r="B86" t="s">
         <v>1366</v>
       </c>
-      <c r="C86" s="101"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="92"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3992</v>
       </c>
@@ -33155,7 +33089,7 @@
       </c>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3993</v>
       </c>
@@ -33164,7 +33098,7 @@
       </c>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3994</v>
       </c>
@@ -33173,7 +33107,7 @@
       </c>
       <c r="C89" s="24"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3995</v>
       </c>
@@ -33182,7 +33116,7 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3996</v>
       </c>
@@ -33191,7 +33125,7 @@
       </c>
       <c r="C91" s="36"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3997</v>
       </c>
@@ -33200,7 +33134,7 @@
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3998</v>
       </c>
@@ -33209,7 +33143,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3999</v>
       </c>
@@ -33218,46 +33152,43 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4000</v>
       </c>
       <c r="B95" t="s">
         <v>4042</v>
       </c>
-      <c r="C95" s="48"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="46"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4001</v>
       </c>
       <c r="B96" t="s">
         <v>4043</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="H96" s="64"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="46"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4002</v>
       </c>
       <c r="B97" t="s">
         <v>4044</v>
       </c>
-      <c r="C97" s="99"/>
-      <c r="H97" s="64"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="90"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4003</v>
       </c>
       <c r="B98" t="s">
         <v>4045</v>
       </c>
-      <c r="C98" s="75"/>
-      <c r="H98" s="64"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="66"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4004</v>
       </c>
@@ -33265,9 +33196,8 @@
         <v>4046</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="H99" s="64"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4005</v>
       </c>
@@ -33275,9 +33205,8 @@
         <v>4047</v>
       </c>
       <c r="C100" s="13"/>
-      <c r="H100" s="64"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4006</v>
       </c>
@@ -33287,81 +33216,27 @@
       <c r="C101" s="13"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="H101" s="64"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4007</v>
       </c>
       <c r="B102" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="103"/>
-      <c r="H102" s="64"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="94"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>4008</v>
       </c>
       <c r="B103" t="s">
         <v>4049</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="H103" s="64"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="64"/>
-      <c r="H104" s="64"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="100"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="C106" s="64"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="64"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C108" s="64"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="C109" s="64"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="64"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="64"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
-      <c r="C112" s="64"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="64"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
+      <c r="C103" s="67"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33383,7 +33258,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1048576"/>
@@ -33392,7 +33267,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -33405,16 +33280,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="65">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="65">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -33475,10 +33350,10 @@
         <v>3120</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -33661,7 +33536,7 @@
       <c r="B26" t="s">
         <v>3124</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="68" t="s">
         <v>661</v>
       </c>
     </row>
@@ -33786,7 +33661,7 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" t="s">
         <v>3054</v>
       </c>
       <c r="B39" t="s">
@@ -33940,10 +33815,10 @@
         <v>3128</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -33962,10 +33837,10 @@
         <v>390</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -34010,7 +33885,7 @@
       <c r="B61" t="s">
         <v>1550</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="71" t="s">
         <v>3132</v>
       </c>
     </row>
@@ -34041,23 +33916,23 @@
       <c r="B64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="51" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+      <c r="A65" t="s">
         <v>3080</v>
       </c>
       <c r="B65" t="s">
         <v>3133</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="58" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" t="s">
         <v>3081</v>
       </c>
       <c r="B66" t="s">
@@ -34068,18 +33943,18 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="A67" t="s">
         <v>3082</v>
       </c>
       <c r="B67" t="s">
         <v>3134</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="51" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+      <c r="A68" t="s">
         <v>3083</v>
       </c>
       <c r="B68" t="s">
@@ -34090,7 +33965,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="A69" t="s">
         <v>3084</v>
       </c>
       <c r="B69" t="s">
@@ -34099,7 +33974,7 @@
       <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="A70" t="s">
         <v>3085</v>
       </c>
       <c r="B70" t="s">
@@ -34143,7 +34018,7 @@
       <c r="B74" t="s">
         <v>2412</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="13" t="s">
         <v>730</v>
       </c>
     </row>
@@ -34154,7 +34029,7 @@
       <c r="B75" t="s">
         <v>1828</v>
       </c>
-      <c r="C75" s="81"/>
+      <c r="C75" s="72"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -34167,7 +34042,7 @@
       <c r="B76" t="s">
         <v>1828</v>
       </c>
-      <c r="C76" s="81"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -34180,7 +34055,7 @@
       <c r="B77" t="s">
         <v>1828</v>
       </c>
-      <c r="C77" s="81"/>
+      <c r="C77" s="72"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -34189,7 +34064,7 @@
       <c r="B78" t="s">
         <v>3137</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="72" t="s">
         <v>3138</v>
       </c>
     </row>
@@ -34200,7 +34075,7 @@
       <c r="B79" t="s">
         <v>3139</v>
       </c>
-      <c r="C79" s="81"/>
+      <c r="C79" s="72"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -34227,7 +34102,7 @@
       <c r="B82" t="s">
         <v>3140</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="64" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -34256,7 +34131,7 @@
       <c r="B85" t="s">
         <v>3142</v>
       </c>
-      <c r="C85" s="82" t="s">
+      <c r="C85" s="73" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -34285,7 +34160,7 @@
       <c r="B88" t="s">
         <v>1363</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="43" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -34305,7 +34180,7 @@
       <c r="B90" t="s">
         <v>3144</v>
       </c>
-      <c r="C90" s="66" t="s">
+      <c r="C90" s="59" t="s">
         <v>939</v>
       </c>
     </row>
@@ -34360,7 +34235,7 @@
       <c r="B95" t="s">
         <v>3148</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="74" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -34371,7 +34246,7 @@
       <c r="B96" t="s">
         <v>3149</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="74" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -34430,88 +34305,18 @@
       <c r="B102" t="s">
         <v>3155</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="51" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="A103" t="s">
         <v>3118</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" t="s">
         <v>132</v>
       </c>
-      <c r="C103" s="81"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
+      <c r="C103" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35485,10 +35290,6 @@
         <v>1293</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -35498,10 +35299,6 @@
         <v>129</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -35511,10 +35308,6 @@
         <v>127</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -35524,10 +35317,6 @@
         <v>651</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -35537,10 +35326,6 @@
         <v>134</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -35550,10 +35335,6 @@
         <v>1632</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -35563,10 +35344,6 @@
         <v>132</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -35576,10 +35353,6 @@
         <v>139</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -35589,10 +35362,6 @@
         <v>1111</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -35602,10 +35371,6 @@
         <v>360</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -35615,10 +35380,6 @@
         <v>142</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -35631,7 +35392,6 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -35641,10 +35401,6 @@
         <v>3226</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -35654,10 +35410,6 @@
         <v>3227</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -35667,12 +35419,8 @@
         <v>3228</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3225</v>
       </c>
@@ -35682,8 +35430,6 @@
       <c r="C17" s="18"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35735,11 +35481,7 @@
       <c r="B2" t="s">
         <v>1498</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -35748,13 +35490,10 @@
       <c r="B3" t="s">
         <v>3246</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -35763,11 +35502,7 @@
       <c r="B4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -35776,11 +35511,7 @@
       <c r="B5" t="s">
         <v>2395</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -35789,11 +35520,7 @@
       <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -35802,11 +35529,7 @@
       <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -35815,11 +35538,7 @@
       <c r="B8" t="s">
         <v>3247</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -35828,11 +35547,7 @@
       <c r="B9" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -35841,11 +35556,7 @@
       <c r="B10" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -35854,11 +35565,7 @@
       <c r="B11" t="s">
         <v>809</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -35867,11 +35574,7 @@
       <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -35880,11 +35583,7 @@
       <c r="B13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -35893,7 +35592,7 @@
       <c r="B14" t="s">
         <v>3248</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -35906,11 +35605,7 @@
       <c r="B15" t="s">
         <v>3249</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="55"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -35919,11 +35614,7 @@
       <c r="B16" t="s">
         <v>3250</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="55"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -35932,14 +35623,13 @@
       <c r="B17" t="s">
         <v>3251</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="65"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="84"/>
+      <c r="K21" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35992,11 +35682,7 @@
       <c r="B2" t="s">
         <v>2667</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36005,11 +35691,7 @@
       <c r="B3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -36018,11 +35700,7 @@
       <c r="B4" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -36031,11 +35709,7 @@
       <c r="B5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -36044,11 +35718,7 @@
       <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -36057,11 +35727,7 @@
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -36070,11 +35736,7 @@
       <c r="B8" t="s">
         <v>3268</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -36083,11 +35745,7 @@
       <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -36096,11 +35754,7 @@
       <c r="B10" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -36109,11 +35763,7 @@
       <c r="B11" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="52"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -36122,11 +35772,7 @@
       <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -36135,11 +35781,7 @@
       <c r="B13" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -36148,11 +35790,7 @@
       <c r="B14" t="s">
         <v>3269</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -36161,11 +35799,7 @@
       <c r="B15" t="s">
         <v>3270</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -36174,24 +35808,18 @@
       <c r="B16" t="s">
         <v>3271</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3267</v>
       </c>
       <c r="B17" t="s">
         <v>3272</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36220,7 +35848,7 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="7">
@@ -36243,11 +35871,7 @@
       <c r="B2" t="s">
         <v>2354</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36256,11 +35880,7 @@
       <c r="B3" t="s">
         <v>649</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -36269,11 +35889,7 @@
       <c r="B4" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -36282,11 +35898,7 @@
       <c r="B5" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -36295,11 +35907,7 @@
       <c r="B6" t="s">
         <v>3508</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -36308,11 +35916,7 @@
       <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -36321,11 +35925,7 @@
       <c r="B8" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -36334,11 +35934,7 @@
       <c r="B9" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -36347,11 +35943,7 @@
       <c r="B10" t="s">
         <v>3509</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -36360,7 +35952,7 @@
       <c r="B11" t="s">
         <v>3510</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
@@ -36377,11 +35969,7 @@
       <c r="B12" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -36390,11 +35978,7 @@
       <c r="B13" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -36403,11 +35987,7 @@
       <c r="B14" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -36416,11 +35996,7 @@
       <c r="B15" t="s">
         <v>3511</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -36429,24 +36005,16 @@
       <c r="B16" t="s">
         <v>3512</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="65"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3507</v>
       </c>
       <c r="B17" t="s">
         <v>3513</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36475,7 +36043,7 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="7">
@@ -36498,11 +36066,7 @@
       <c r="B2" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36511,11 +36075,7 @@
       <c r="B3" t="s">
         <v>1646</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -36524,11 +36084,7 @@
       <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -36537,11 +36093,7 @@
       <c r="B5" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -36550,11 +36102,7 @@
       <c r="B6" t="s">
         <v>1134</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="79"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -36563,11 +36111,7 @@
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -36576,11 +36120,7 @@
       <c r="B8" t="s">
         <v>3530</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="79"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -36589,11 +36129,7 @@
       <c r="B9" t="s">
         <v>3531</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -36602,11 +36138,7 @@
       <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -36615,11 +36147,7 @@
       <c r="B11" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -36628,11 +36156,9 @@
       <c r="B12" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -36641,11 +36167,7 @@
       <c r="B13" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="79"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -36654,11 +36176,7 @@
       <c r="B14" t="s">
         <v>1114</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="79"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -36667,11 +36185,7 @@
       <c r="B15" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="79"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -36680,24 +36194,16 @@
       <c r="B16" t="s">
         <v>3532</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="79"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3529</v>
       </c>
       <c r="B17" t="s">
         <v>3533</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36750,10 +36256,6 @@
         <v>351</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36763,10 +36265,6 @@
         <v>393</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -36779,7 +36277,6 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -36790,9 +36287,6 @@
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -36802,10 +36296,6 @@
         <v>145</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -36815,10 +36305,6 @@
         <v>153</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -36828,10 +36314,6 @@
         <v>3204</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -36844,9 +36326,6 @@
       <c r="D9" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -36856,10 +36335,6 @@
         <v>2186</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -36869,10 +36344,6 @@
         <v>3205</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -36882,10 +36353,6 @@
         <v>157</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -36895,10 +36362,6 @@
         <v>3206</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -36908,10 +36371,6 @@
         <v>3207</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -36921,10 +36380,6 @@
         <v>203</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -36936,8 +36391,6 @@
       <c r="C16" s="22"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -37002,10 +36455,6 @@
         <v>345</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -37015,10 +36464,6 @@
         <v>127</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37028,10 +36473,6 @@
         <v>627</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -37043,8 +36484,6 @@
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -37054,10 +36493,6 @@
         <v>355</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -37093,10 +36528,6 @@
         <v>358</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -37109,9 +36540,6 @@
       <c r="D10" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -37134,10 +36562,6 @@
         <v>3168</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -37150,7 +36574,6 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37371,7 +36794,7 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="7">
@@ -37394,11 +36817,7 @@
       <c r="B2" t="s">
         <v>717</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -37407,11 +36826,7 @@
       <c r="B3" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37420,11 +36835,7 @@
       <c r="B4" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -37433,11 +36844,7 @@
       <c r="B5" t="s">
         <v>807</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -37446,13 +36853,9 @@
       <c r="B6" t="s">
         <v>808</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>1653</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -37461,13 +36864,9 @@
       <c r="B7" t="s">
         <v>3592</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="42" t="s">
         <v>1653</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -37476,11 +36875,7 @@
       <c r="B8" t="s">
         <v>3593</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -37489,11 +36884,7 @@
       <c r="B9" t="s">
         <v>3594</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="47"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -37502,11 +36893,7 @@
       <c r="B10" t="s">
         <v>811</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -37515,11 +36902,10 @@
       <c r="B11" t="s">
         <v>3595</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -37528,13 +36914,9 @@
       <c r="B12" t="s">
         <v>814</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="80" t="s">
         <v>1659</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -37543,11 +36925,7 @@
       <c r="B13" t="s">
         <v>3596</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -37556,11 +36934,7 @@
       <c r="B14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -37569,13 +36943,9 @@
       <c r="B15" t="s">
         <v>3597</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>1653</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -37584,18 +36954,10 @@
       <c r="B16" t="s">
         <v>3598</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="3:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="91"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C16" s="47"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38398,10 +37760,6 @@
         <v>347</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -38410,11 +37768,7 @@
       <c r="B3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -38423,11 +37777,7 @@
       <c r="B4" t="s">
         <v>650</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -38436,13 +37786,9 @@
       <c r="B5" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -38451,13 +37797,9 @@
       <c r="B6" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -38466,13 +37808,12 @@
       <c r="B7" t="s">
         <v>1156</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>661</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -38482,10 +37823,6 @@
         <v>1352</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -38495,10 +37832,6 @@
         <v>162</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -38508,10 +37841,6 @@
         <v>2821</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -38520,13 +37849,9 @@
       <c r="B11" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>939</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -38536,10 +37861,6 @@
         <v>660</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -38549,10 +37870,6 @@
         <v>822</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -38570,7 +37887,7 @@
       <c r="B15" t="s">
         <v>3186</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>661</v>
       </c>
       <c r="D15" s="9"/>
@@ -38629,7 +37946,7 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="7">
@@ -38652,11 +37969,7 @@
       <c r="B2" t="s">
         <v>2160</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -38665,11 +37978,7 @@
       <c r="B3" t="s">
         <v>1148</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -38678,11 +37987,7 @@
       <c r="B4" t="s">
         <v>3570</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -38691,11 +37996,7 @@
       <c r="B5" t="s">
         <v>638</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -38704,11 +38005,7 @@
       <c r="B6" t="s">
         <v>1152</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="63"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -38717,11 +38014,7 @@
       <c r="B7" t="s">
         <v>3571</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -38730,11 +38023,7 @@
       <c r="B8" t="s">
         <v>2166</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -38743,11 +38032,7 @@
       <c r="B9" t="s">
         <v>3572</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -38756,13 +38041,9 @@
       <c r="B10" t="s">
         <v>1812</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -38771,11 +38052,7 @@
       <c r="B11" t="s">
         <v>1782</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -38784,11 +38061,7 @@
       <c r="B12" t="s">
         <v>1817</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -38799,9 +38072,6 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -38810,11 +38080,7 @@
       <c r="B14" t="s">
         <v>1829</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="63"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -38823,11 +38089,7 @@
       <c r="B15" t="s">
         <v>3574</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -38836,24 +38098,16 @@
       <c r="B16" t="s">
         <v>3575</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3569</v>
       </c>
       <c r="B17" t="s">
         <v>3576</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38882,7 +38136,7 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="7">
@@ -38905,11 +38159,7 @@
       <c r="B2" t="s">
         <v>1291</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -38918,11 +38168,7 @@
       <c r="B3" t="s">
         <v>666</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -38931,11 +38177,7 @@
       <c r="B4" t="s">
         <v>3550</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -38944,11 +38186,7 @@
       <c r="B5" t="s">
         <v>1109</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -38957,11 +38195,7 @@
       <c r="B6" t="s">
         <v>1112</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="63"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -38970,13 +38204,9 @@
       <c r="B7" t="s">
         <v>1115</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -38985,11 +38215,7 @@
       <c r="B8" t="s">
         <v>1517</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="79"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -38998,11 +38224,9 @@
       <c r="B9" t="s">
         <v>1807</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -39011,11 +38235,7 @@
       <c r="B10" t="s">
         <v>1137</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -39024,11 +38244,7 @@
       <c r="B11" t="s">
         <v>1520</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -39037,11 +38253,7 @@
       <c r="B12" t="s">
         <v>3551</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -39050,13 +38262,9 @@
       <c r="B13" t="s">
         <v>679</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="49" t="s">
         <v>2175</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -39065,11 +38273,7 @@
       <c r="B14" t="s">
         <v>1144</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="79"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -39078,11 +38282,7 @@
       <c r="B15" t="s">
         <v>3552</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="79"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -39091,26 +38291,18 @@
       <c r="B16" t="s">
         <v>3553</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="63"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3549</v>
       </c>
       <c r="B17" t="s">
         <v>3554</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>2175</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39446,10 +38638,6 @@
         <v>3347</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -39459,10 +38647,6 @@
         <v>116</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -39472,10 +38656,6 @@
         <v>123</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -39484,11 +38664,7 @@
       <c r="B5" t="s">
         <v>1967</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -39498,10 +38674,6 @@
         <v>3348</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -39511,10 +38683,6 @@
         <v>3349</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -39524,10 +38692,6 @@
         <v>666</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -39537,10 +38701,6 @@
         <v>1107</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -39550,10 +38710,6 @@
         <v>1109</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -39563,10 +38719,6 @@
         <v>1112</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -39576,10 +38728,6 @@
         <v>3350</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -39589,10 +38737,6 @@
         <v>129</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -39602,10 +38746,6 @@
         <v>3351</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -39615,10 +38755,6 @@
         <v>3352</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -39628,12 +38764,8 @@
         <v>3353</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3288</v>
       </c>
@@ -39641,12 +38773,8 @@
         <v>370</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3289</v>
       </c>
@@ -39654,12 +38782,8 @@
         <v>3354</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3290</v>
       </c>
@@ -39667,12 +38791,8 @@
         <v>1384</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3291</v>
       </c>
@@ -39680,12 +38800,8 @@
         <v>172</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3292</v>
       </c>
@@ -39693,12 +38809,8 @@
         <v>372</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3293</v>
       </c>
@@ -39706,12 +38818,8 @@
         <v>3355</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3294</v>
       </c>
@@ -39719,27 +38827,19 @@
         <v>373</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3295</v>
       </c>
       <c r="B24" t="s">
         <v>3356</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="43" t="s">
         <v>2175</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3296</v>
       </c>
@@ -39749,12 +38849,8 @@
       <c r="C25" s="31" t="s">
         <v>1659</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3297</v>
       </c>
@@ -39762,12 +38858,8 @@
         <v>2748</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3298</v>
       </c>
@@ -39777,27 +38869,19 @@
       <c r="C27" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3299</v>
       </c>
       <c r="B28" t="s">
         <v>3358</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>2175</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3300</v>
       </c>
@@ -39807,27 +38891,19 @@
       <c r="C29" s="31" t="s">
         <v>1659</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3301</v>
       </c>
       <c r="B30" t="s">
         <v>3360</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3302</v>
       </c>
@@ -39835,12 +38911,8 @@
         <v>3361</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3303</v>
       </c>
@@ -39848,10 +38920,6 @@
         <v>3362</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -39861,10 +38929,6 @@
         <v>650</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -39874,10 +38938,6 @@
         <v>3363</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -39887,10 +38947,6 @@
         <v>943</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -39900,10 +38956,6 @@
         <v>3364</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -39925,13 +38977,9 @@
       <c r="B38" t="s">
         <v>2763</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="49" t="s">
         <v>2175</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -39941,10 +38989,6 @@
         <v>1137</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -39967,10 +39011,6 @@
         <v>1139</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -39993,10 +39033,6 @@
         <v>1144</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -40006,10 +39042,6 @@
         <v>3131</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -40019,10 +39051,6 @@
         <v>1145</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -40032,10 +39060,6 @@
         <v>162</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -40045,10 +39069,6 @@
         <v>393</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -40058,12 +39078,8 @@
         <v>1821</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3320</v>
       </c>
@@ -40071,12 +39087,8 @@
         <v>2821</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3321</v>
       </c>
@@ -40084,12 +39096,8 @@
         <v>398</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3322</v>
       </c>
@@ -40097,12 +39105,8 @@
         <v>1823</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3323</v>
       </c>
@@ -40110,12 +39114,8 @@
         <v>1355</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3324</v>
       </c>
@@ -40123,12 +39123,8 @@
         <v>660</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3325</v>
       </c>
@@ -40136,27 +39132,19 @@
         <v>822</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3326</v>
       </c>
       <c r="B55" t="s">
         <v>3365</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="50" t="s">
         <v>939</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3327</v>
       </c>
@@ -40164,27 +39152,19 @@
         <v>1359</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3328</v>
       </c>
       <c r="B57" t="s">
         <v>431</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3329</v>
       </c>
@@ -40194,12 +39174,8 @@
       <c r="C58" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3330</v>
       </c>
@@ -40209,12 +39185,8 @@
       <c r="C59" s="23" t="s">
         <v>2175</v>
       </c>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3331</v>
       </c>
@@ -40224,68 +39196,48 @@
       <c r="C60" s="22" t="s">
         <v>1653</v>
       </c>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3332</v>
       </c>
       <c r="B61" t="s">
         <v>3368</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="56" t="s">
         <v>1653</v>
       </c>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3333</v>
       </c>
       <c r="B62" t="s">
         <v>3369</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="58" t="s">
         <v>1659</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3334</v>
       </c>
       <c r="B63" t="s">
         <v>3370</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="72"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3335</v>
       </c>
       <c r="B64" t="s">
         <v>3371</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="45"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3336</v>
       </c>
@@ -40295,12 +39247,8 @@
       <c r="C65" s="26" t="s">
         <v>1653</v>
       </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3337</v>
       </c>
@@ -40310,12 +39258,8 @@
       <c r="C66" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3338</v>
       </c>
@@ -40323,12 +39267,8 @@
         <v>3374</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3339</v>
       </c>
@@ -40336,12 +39276,8 @@
         <v>3375</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3340</v>
       </c>
@@ -40349,12 +39285,8 @@
         <v>3376</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3341</v>
       </c>
@@ -40362,25 +39294,17 @@
         <v>3377</v>
       </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3342</v>
       </c>
       <c r="B71" t="s">
         <v>3378</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="57"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3343</v>
       </c>
@@ -40388,12 +39312,8 @@
         <v>3379</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3344</v>
       </c>
@@ -40401,12 +39321,8 @@
         <v>3380</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3345</v>
       </c>
@@ -40414,25 +39330,17 @@
         <v>3381</v>
       </c>
       <c r="C74" s="23"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3346</v>
       </c>
       <c r="B75" t="s">
         <v>2711</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="51" t="s">
         <v>939</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40451,7 +39359,7 @@
   <cols>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="65"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -40461,16 +39369,16 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="65">
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="65">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -40508,7 +39416,7 @@
       <c r="B5" t="s">
         <v>3457</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -40679,7 +39587,7 @@
       <c r="B24" t="s">
         <v>1515</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -40715,7 +39623,7 @@
       <c r="B28" t="s">
         <v>3466</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -40965,7 +39873,7 @@
       <c r="B55" t="s">
         <v>1151</v>
       </c>
-      <c r="C55" s="52"/>
+      <c r="C55" s="50"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -40985,7 +39893,7 @@
       <c r="B57" t="s">
         <v>1336</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -41023,7 +39931,7 @@
       <c r="B61" t="s">
         <v>1340</v>
       </c>
-      <c r="C61" s="61"/>
+      <c r="C61" s="56"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -41032,7 +39940,7 @@
       <c r="B62" t="s">
         <v>3479</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="58"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -41052,7 +39960,7 @@
       <c r="B64" t="s">
         <v>698</v>
       </c>
-      <c r="C64" s="47"/>
+      <c r="C64" s="45"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -41061,7 +39969,7 @@
       <c r="B65" t="s">
         <v>695</v>
       </c>
-      <c r="C65" s="74"/>
+      <c r="C65" s="65"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -41115,7 +40023,7 @@
       <c r="B71" t="s">
         <v>3486</v>
       </c>
-      <c r="C71" s="86"/>
+      <c r="C71" s="77"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -41156,7 +40064,7 @@
       <c r="B75" t="s">
         <v>3490</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="59" t="s">
         <v>3491</v>
       </c>
     </row>

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60B8786-0CC4-43EE-ADD4-575DC95E4663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3815F14D-7DC5-48FF-8102-3320703F1343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -12887,7 +12887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -13002,12 +13002,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13015,6 +13009,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13494,7 +13498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -13527,11 +13531,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G175))/M1</f>
         <v>6.0344827586206899E-2</v>
       </c>
@@ -13560,9 +13564,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -17289,23 +17293,23 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="100">
+      <c r="D1" s="98">
         <v>1</v>
       </c>
-      <c r="E1" s="100">
+      <c r="E1" s="98">
         <v>2</v>
       </c>
-      <c r="F1" s="100">
+      <c r="F1" s="98">
         <v>3</v>
       </c>
-      <c r="G1" s="100">
+      <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.16304347826086957</v>
       </c>
@@ -17322,9 +17326,9 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -17649,9 +17653,9 @@
         <v>146</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -17667,7 +17671,7 @@
       <c r="E31" s="97">
         <v>1</v>
       </c>
-      <c r="F31" s="101"/>
+      <c r="F31" s="99"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -17683,7 +17687,7 @@
       <c r="E32" s="97">
         <v>1</v>
       </c>
-      <c r="F32" s="101"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -17699,7 +17703,7 @@
       <c r="E33" s="97">
         <v>1</v>
       </c>
-      <c r="F33" s="101"/>
+      <c r="F33" s="99"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -17709,9 +17713,9 @@
         <v>150</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -17721,9 +17725,9 @@
         <v>152</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -17736,8 +17740,8 @@
       <c r="D36" s="97">
         <v>1</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -17750,8 +17754,8 @@
       <c r="D37" s="97">
         <v>1</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -17791,7 +17795,7 @@
       <c r="F39" s="97">
         <v>1</v>
       </c>
-      <c r="G39" s="101"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -17801,10 +17805,10 @@
         <v>156</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -17814,10 +17818,10 @@
         <v>157</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -17827,10 +17831,10 @@
         <v>158</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -18077,9 +18081,9 @@
         <v>182</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -18089,9 +18093,9 @@
         <v>183</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -18107,7 +18111,7 @@
       <c r="E68" s="97">
         <v>1</v>
       </c>
-      <c r="F68" s="101"/>
+      <c r="F68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -18117,9 +18121,9 @@
         <v>185</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -18132,8 +18136,8 @@
       <c r="D70" s="97">
         <v>1</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -18401,10 +18405,10 @@
         <v>210</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -18414,10 +18418,10 @@
         <v>211</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -18427,10 +18431,10 @@
         <v>212</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="101"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -18440,10 +18444,10 @@
         <v>213</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -18453,10 +18457,10 @@
         <v>214</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -18466,10 +18470,10 @@
         <v>215</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -18479,10 +18483,10 @@
         <v>216</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -18492,10 +18496,10 @@
         <v>217</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="101"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -18511,8 +18515,8 @@
       <c r="E102" s="97">
         <v>1</v>
       </c>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -18522,10 +18526,10 @@
         <v>219</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -18535,10 +18539,10 @@
         <v>220</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -18548,10 +18552,10 @@
         <v>221</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -18561,10 +18565,10 @@
         <v>222</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -18574,10 +18578,10 @@
         <v>223</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -18590,9 +18594,9 @@
       <c r="D108" s="97">
         <v>1</v>
       </c>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="101"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -18602,10 +18606,10 @@
         <v>225</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="101"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -18615,10 +18619,10 @@
         <v>226</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -18628,10 +18632,10 @@
         <v>227</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
-      <c r="G111" s="101"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -18641,10 +18645,10 @@
         <v>228</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -18657,9 +18661,9 @@
       <c r="D113" s="97">
         <v>1</v>
       </c>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -18669,10 +18673,10 @@
         <v>230</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="101"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -18682,10 +18686,10 @@
         <v>138</v>
       </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -18704,7 +18708,7 @@
       <c r="F116" s="97">
         <v>1</v>
       </c>
-      <c r="G116" s="101"/>
+      <c r="G116" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18752,11 +18756,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.234375</v>
       </c>
@@ -18773,13 +18777,13 @@
         <v>344</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -18795,8 +18799,8 @@
       <c r="E3" s="97">
         <v>1</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -18812,8 +18816,8 @@
       <c r="E4" s="97">
         <v>1</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -18844,10 +18848,10 @@
         <v>348</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -18857,10 +18861,10 @@
         <v>349</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -18870,10 +18874,10 @@
         <v>350</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -18886,9 +18890,9 @@
       <c r="D9" s="97">
         <v>1</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -18901,9 +18905,9 @@
       <c r="D10" s="97">
         <v>1</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -18913,10 +18917,10 @@
         <v>129</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -18926,10 +18930,10 @@
         <v>353</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -18939,10 +18943,10 @@
         <v>134</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -18952,10 +18956,10 @@
         <v>354</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -18965,10 +18969,10 @@
         <v>355</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -18978,10 +18982,10 @@
         <v>139</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18991,10 +18995,10 @@
         <v>356</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -19004,10 +19008,10 @@
         <v>357</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -19017,10 +19021,10 @@
         <v>358</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -19030,10 +19034,10 @@
         <v>359</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -19046,9 +19050,9 @@
       <c r="D21" s="97">
         <v>1</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -19287,9 +19291,9 @@
       <c r="D36" s="97">
         <v>1</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -19341,10 +19345,10 @@
         <v>373</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -19360,8 +19364,8 @@
       <c r="E40" s="97">
         <v>1</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -19371,10 +19375,10 @@
         <v>375</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -19481,9 +19485,9 @@
       <c r="D48" s="97">
         <v>1</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -19493,10 +19497,10 @@
         <v>377</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -19559,8 +19563,8 @@
       <c r="E53" s="97">
         <v>1</v>
       </c>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -19570,10 +19574,10 @@
         <v>381</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -19626,7 +19630,7 @@
       <c r="F57" s="97">
         <v>1</v>
       </c>
-      <c r="G57" s="101"/>
+      <c r="G57" s="99"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -19636,10 +19640,10 @@
         <v>132</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -19649,10 +19653,10 @@
         <v>385</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -19662,10 +19666,10 @@
         <v>386</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -19675,10 +19679,10 @@
         <v>387</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -19688,10 +19692,10 @@
         <v>388</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -19701,10 +19705,10 @@
         <v>389</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -19720,8 +19724,8 @@
       <c r="E64" s="97">
         <v>1</v>
       </c>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -19731,10 +19735,10 @@
         <v>390</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -19744,10 +19748,10 @@
         <v>142</v>
       </c>
       <c r="C66" s="10"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -19763,8 +19767,8 @@
       <c r="E67" s="97">
         <v>1</v>
       </c>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -19783,7 +19787,7 @@
       <c r="F68" s="97">
         <v>1</v>
       </c>
-      <c r="G68" s="101"/>
+      <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -19848,10 +19852,10 @@
         <v>395</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="101"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -19867,8 +19871,8 @@
       <c r="E73" s="97">
         <v>1</v>
       </c>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -19884,8 +19888,8 @@
       <c r="E74" s="97">
         <v>1</v>
       </c>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -19895,10 +19899,10 @@
         <v>397</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -19908,10 +19912,10 @@
         <v>398</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -19924,9 +19928,9 @@
       <c r="D77" s="97">
         <v>1</v>
       </c>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -19936,10 +19940,10 @@
         <v>400</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -19955,8 +19959,8 @@
       <c r="E79" s="97">
         <v>1</v>
       </c>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -19966,10 +19970,10 @@
         <v>401</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -19979,10 +19983,10 @@
         <v>402</v>
       </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="101"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -19995,9 +19999,9 @@
       <c r="D82" s="97">
         <v>1</v>
       </c>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -20007,10 +20011,10 @@
         <v>404</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -20020,10 +20024,10 @@
         <v>405</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -20033,10 +20037,10 @@
         <v>406</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="101"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -20046,10 +20050,10 @@
         <v>407</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="101"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -20068,7 +20072,7 @@
       <c r="F87" s="97">
         <v>1</v>
       </c>
-      <c r="G87" s="101"/>
+      <c r="G87" s="99"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -20078,10 +20082,10 @@
         <v>409</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="101"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -20091,10 +20095,10 @@
         <v>410</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -20104,10 +20108,10 @@
         <v>202</v>
       </c>
       <c r="C90" s="10"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -20120,9 +20124,9 @@
       <c r="D91" s="97">
         <v>1</v>
       </c>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -20132,10 +20136,10 @@
         <v>411</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -20145,10 +20149,10 @@
         <v>412</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -20158,10 +20162,10 @@
         <v>413</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -20171,10 +20175,10 @@
         <v>414</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -20184,10 +20188,10 @@
         <v>415</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="101"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -20197,10 +20201,10 @@
         <v>416</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -20210,10 +20214,10 @@
         <v>417</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -20223,10 +20227,10 @@
         <v>418</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -20236,10 +20240,10 @@
         <v>419</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -20249,10 +20253,10 @@
         <v>420</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="101"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -20262,10 +20266,10 @@
         <v>421</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -20281,8 +20285,8 @@
       <c r="E103" s="97">
         <v>1</v>
       </c>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -20296,7 +20300,7 @@
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
-      <c r="H104" s="102"/>
+      <c r="H104" s="100"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -20310,7 +20314,7 @@
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
-      <c r="H105" s="102"/>
+      <c r="H105" s="100"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -20332,7 +20336,7 @@
       <c r="G106" s="70">
         <v>1</v>
       </c>
-      <c r="H106" s="102"/>
+      <c r="H106" s="100"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -20346,7 +20350,7 @@
       <c r="E107" s="69"/>
       <c r="F107" s="69"/>
       <c r="G107" s="69"/>
-      <c r="H107" s="102"/>
+      <c r="H107" s="100"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -20360,7 +20364,7 @@
       <c r="E108" s="69"/>
       <c r="F108" s="69"/>
       <c r="G108" s="69"/>
-      <c r="H108" s="102"/>
+      <c r="H108" s="100"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -20373,9 +20377,9 @@
       <c r="D109" s="97">
         <v>1</v>
       </c>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="101"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -20422,9 +20426,9 @@
       <c r="D112" s="97">
         <v>1</v>
       </c>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -20434,10 +20438,10 @@
         <v>431</v>
       </c>
       <c r="C113" s="10"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20486,11 +20490,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.11830357142857142</v>
       </c>
@@ -20507,9 +20511,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -20603,8 +20607,8 @@
         <v>665</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -21115,7 +21119,7 @@
       <c r="F55" s="97">
         <v>1</v>
       </c>
-      <c r="G55" s="101"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -21125,10 +21129,10 @@
         <v>813</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -21144,8 +21148,8 @@
       <c r="E57" s="97">
         <v>1</v>
       </c>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -21158,9 +21162,9 @@
       <c r="D58" s="97">
         <v>1</v>
       </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -21188,10 +21192,10 @@
         <v>1134</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -21207,8 +21211,8 @@
       <c r="E62" s="97">
         <v>1</v>
       </c>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -21218,10 +21222,10 @@
         <v>1136</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -21231,10 +21235,10 @@
         <v>1137</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -21244,10 +21248,10 @@
         <v>1138</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -21257,10 +21261,10 @@
         <v>1139</v>
       </c>
       <c r="C66" s="10"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -21270,10 +21274,10 @@
         <v>1140</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -21283,10 +21287,10 @@
         <v>1141</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -21296,10 +21300,10 @@
         <v>1142</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -21309,10 +21313,10 @@
         <v>1143</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="101"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -21322,10 +21326,10 @@
         <v>666</v>
       </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -21344,7 +21348,7 @@
       <c r="F72" s="97">
         <v>1</v>
       </c>
-      <c r="G72" s="101"/>
+      <c r="G72" s="99"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -21354,10 +21358,10 @@
         <v>1144</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -21367,10 +21371,10 @@
         <v>1145</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -21380,10 +21384,10 @@
         <v>820</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -21417,7 +21421,7 @@
       <c r="G77" s="70">
         <v>1</v>
       </c>
-      <c r="H77" s="102"/>
+      <c r="H77" s="100"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -21439,7 +21443,7 @@
       <c r="G78" s="70">
         <v>1</v>
       </c>
-      <c r="H78" s="102"/>
+      <c r="H78" s="100"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -21464,7 +21468,7 @@
       <c r="E80" s="97">
         <v>1</v>
       </c>
-      <c r="F80" s="101"/>
+      <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -21474,9 +21478,9 @@
         <v>657</v>
       </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -21486,9 +21490,9 @@
         <v>957</v>
       </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -21591,8 +21595,8 @@
       <c r="D93" s="97">
         <v>1</v>
       </c>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -21602,9 +21606,9 @@
         <v>687</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -21614,9 +21618,9 @@
         <v>688</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -21626,9 +21630,9 @@
         <v>1158</v>
       </c>
       <c r="C96" s="10"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -21638,9 +21642,9 @@
         <v>1159</v>
       </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -21650,9 +21654,9 @@
         <v>1160</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -21662,9 +21666,9 @@
         <v>1161</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -21674,9 +21678,9 @@
         <v>1162</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -21686,9 +21690,9 @@
         <v>1163</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -21698,9 +21702,9 @@
         <v>1164</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -21716,7 +21720,7 @@
       <c r="E103" s="97">
         <v>1</v>
       </c>
-      <c r="F103" s="101"/>
+      <c r="F103" s="99"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
@@ -21729,8 +21733,8 @@
       <c r="D104" s="97">
         <v>1</v>
       </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -21740,9 +21744,9 @@
         <v>1167</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -21752,9 +21756,9 @@
         <v>1168</v>
       </c>
       <c r="C106" s="10"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -21764,9 +21768,9 @@
         <v>1169</v>
       </c>
       <c r="C107" s="10"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -21776,9 +21780,9 @@
         <v>1170</v>
       </c>
       <c r="C108" s="10"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -21788,9 +21792,9 @@
         <v>1171</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -21800,9 +21804,9 @@
         <v>1172</v>
       </c>
       <c r="C110" s="13"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -21878,11 +21882,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.13478260869565217</v>
       </c>
@@ -21902,9 +21906,9 @@
       <c r="D2" s="97">
         <v>1</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -21914,7 +21918,7 @@
         <v>1291</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="101"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -21924,7 +21928,7 @@
         <v>1292</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="101"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -21934,7 +21938,7 @@
         <v>1293</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="101"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -21944,7 +21948,7 @@
         <v>1294</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="101"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -22013,8 +22017,8 @@
         <v>1298</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -22039,8 +22043,8 @@
         <v>1299</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -22077,7 +22081,7 @@
       <c r="G15" s="70">
         <v>1</v>
       </c>
-      <c r="H15" s="102"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -22091,7 +22095,7 @@
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="102"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22119,10 +22123,10 @@
         <v>1305</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -22132,10 +22136,10 @@
         <v>1306</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -22148,9 +22152,9 @@
       <c r="D21" s="97">
         <v>1</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -22160,10 +22164,10 @@
         <v>1340</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -22176,9 +22180,9 @@
       <c r="D23" s="97">
         <v>1</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -22191,9 +22195,9 @@
       <c r="D24" s="97">
         <v>1</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -22203,10 +22207,10 @@
         <v>1310</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -22222,8 +22226,8 @@
       <c r="E26" s="97">
         <v>1</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -22233,10 +22237,10 @@
         <v>1311</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -22246,10 +22250,10 @@
         <v>1312</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -22259,10 +22263,10 @@
         <v>1313</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -22272,10 +22276,10 @@
         <v>1314</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -22285,10 +22289,10 @@
         <v>1315</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -22298,10 +22302,10 @@
         <v>1316</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -22311,10 +22315,10 @@
         <v>1317</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -22324,10 +22328,10 @@
         <v>1318</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -22337,10 +22341,10 @@
         <v>1319</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -22350,10 +22354,10 @@
         <v>1320</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -22363,10 +22367,10 @@
         <v>646</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -22376,10 +22380,10 @@
         <v>163</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -22398,7 +22402,7 @@
       <c r="F39" s="97">
         <v>1</v>
       </c>
-      <c r="G39" s="101"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -22412,7 +22416,7 @@
       <c r="E40" s="69"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
-      <c r="H40" s="102"/>
+      <c r="H40" s="100"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -22434,7 +22438,7 @@
       <c r="G41" s="70">
         <v>1</v>
       </c>
-      <c r="H41" s="102"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -22448,7 +22452,7 @@
       <c r="E42" s="69"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
-      <c r="H42" s="102"/>
+      <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -22470,7 +22474,7 @@
       <c r="G43" s="70">
         <v>1</v>
       </c>
-      <c r="H43" s="102"/>
+      <c r="H43" s="100"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -22484,7 +22488,7 @@
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
-      <c r="H44" s="102"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -22497,8 +22501,8 @@
       <c r="D45" s="97">
         <v>1</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -22508,9 +22512,9 @@
         <v>1326</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -22520,9 +22524,9 @@
         <v>357</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -22532,9 +22536,9 @@
         <v>1327</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -22544,9 +22548,9 @@
         <v>142</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -22556,9 +22560,9 @@
         <v>1328</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -22568,9 +22572,9 @@
         <v>167</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -22580,9 +22584,9 @@
         <v>1329</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -22592,9 +22596,9 @@
         <v>1330</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -22604,9 +22608,9 @@
         <v>1331</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -22619,8 +22623,8 @@
       <c r="D55" s="97">
         <v>1</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -22630,9 +22634,9 @@
         <v>151</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -22642,9 +22646,9 @@
         <v>1333</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -22654,9 +22658,9 @@
         <v>1334</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -22666,9 +22670,9 @@
         <v>1335</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -22678,9 +22682,9 @@
         <v>1336</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -22693,8 +22697,8 @@
       <c r="D61" s="97">
         <v>1</v>
       </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -22704,9 +22708,9 @@
         <v>1338</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -22716,9 +22720,9 @@
         <v>1339</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -22728,9 +22732,9 @@
         <v>1133</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -22740,9 +22744,9 @@
         <v>619</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -22755,8 +22759,8 @@
       <c r="D66" s="97">
         <v>1</v>
       </c>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -22766,9 +22770,9 @@
         <v>1341</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -22778,9 +22782,9 @@
         <v>1342</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -22790,9 +22794,9 @@
         <v>1343</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -22959,9 +22963,9 @@
         <v>958</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -22989,9 +22993,9 @@
         <v>1354</v>
       </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -23001,9 +23005,9 @@
         <v>1355</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -23013,9 +23017,9 @@
         <v>1356</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -23025,9 +23029,9 @@
         <v>1357</v>
       </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -23037,9 +23041,9 @@
         <v>1358</v>
       </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -23049,9 +23053,9 @@
         <v>1359</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -23061,9 +23065,9 @@
         <v>1360</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -23073,9 +23077,9 @@
         <v>1361</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -23091,7 +23095,7 @@
       <c r="E93" s="97">
         <v>1</v>
       </c>
-      <c r="F93" s="101"/>
+      <c r="F93" s="99"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -23101,9 +23105,9 @@
         <v>1363</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -23113,9 +23117,9 @@
         <v>202</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -23125,9 +23129,9 @@
         <v>1364</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -23197,7 +23201,7 @@
       <c r="E100" s="97">
         <v>1</v>
       </c>
-      <c r="F100" s="101"/>
+      <c r="F100" s="99"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -23207,9 +23211,9 @@
         <v>1368</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -23219,9 +23223,9 @@
         <v>1369</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -36890,8 +36894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36984,10 +36988,18 @@
         <v>3119</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="D7" s="103">
+        <v>1</v>
+      </c>
+      <c r="E7" s="103">
+        <v>1</v>
+      </c>
+      <c r="F7" s="103">
+        <v>1</v>
+      </c>
+      <c r="G7" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -37070,6 +37082,10 @@
       <c r="C15" s="18" t="s">
         <v>660</v>
       </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -37359,6 +37375,10 @@
         <v>945</v>
       </c>
       <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -37457,6 +37477,10 @@
         <v>127</v>
       </c>
       <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -37479,6 +37503,10 @@
         <v>3128</v>
       </c>
       <c r="C55" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -37488,10 +37516,10 @@
         <v>389</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -37549,6 +37577,10 @@
         <v>181</v>
       </c>
       <c r="C62" s="13"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -37560,6 +37592,10 @@
       <c r="C63" s="13" t="s">
         <v>729</v>
       </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -37615,6 +37651,10 @@
       <c r="C68" s="13" t="s">
         <v>729</v>
       </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -42007,11 +42047,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="101" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99">
+      <c r="K1" s="101"/>
+      <c r="L1" s="102">
         <f>(SUM(D2:G13))/M1</f>
         <v>0.77083333333333337</v>
       </c>
@@ -42040,9 +42080,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -43125,10 +43165,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43166,6 +43206,10 @@
         <v>1105</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -43283,6 +43327,7 @@
         <v>358</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -43293,7 +43338,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3396</v>
       </c>
@@ -43302,7 +43347,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3397</v>
       </c>
@@ -43311,7 +43356,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3398</v>
       </c>
@@ -43319,8 +43364,9 @@
         <v>3460</v>
       </c>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3399</v>
       </c>
@@ -43329,7 +43375,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3400</v>
       </c>
@@ -43338,7 +43384,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3401</v>
       </c>
@@ -43347,7 +43393,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3402</v>
       </c>
@@ -43356,7 +43402,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3403</v>
       </c>
@@ -43365,7 +43411,7 @@
       </c>
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3404</v>
       </c>
@@ -43374,7 +43420,7 @@
       </c>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3405</v>
       </c>
@@ -43383,7 +43429,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3406</v>
       </c>
@@ -43392,7 +43438,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3407</v>
       </c>
@@ -43401,7 +43447,7 @@
       </c>
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3408</v>
       </c>
@@ -43410,7 +43456,7 @@
       </c>
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3409</v>
       </c>
@@ -43421,7 +43467,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3410</v>
       </c>
@@ -43430,7 +43476,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3411</v>
       </c>
@@ -43539,6 +43585,10 @@
         <v>1990</v>
       </c>
       <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E7A57A-A272-4CCA-A773-CFB798990087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3EB39A-702E-4809-B17F-BD35910BA479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="25" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="23" activeTab="29" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="4282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6353" uniqueCount="4626">
   <si>
     <t>bt1-001</t>
   </si>
@@ -13319,6 +13319,1171 @@
   </si>
   <si>
     <t>Fanglongmon</t>
+  </si>
+  <si>
+    <t>Fluffymon</t>
+  </si>
+  <si>
+    <t>GranGalemon</t>
+  </si>
+  <si>
+    <t>Zephagamon</t>
+  </si>
+  <si>
+    <t>Eaglemon</t>
+  </si>
+  <si>
+    <t>Anemol Embrace</t>
+  </si>
+  <si>
+    <t>st19-001</t>
+  </si>
+  <si>
+    <t>st19-002</t>
+  </si>
+  <si>
+    <t>st19-003</t>
+  </si>
+  <si>
+    <t>st19-004</t>
+  </si>
+  <si>
+    <t>st19-005</t>
+  </si>
+  <si>
+    <t>st19-006</t>
+  </si>
+  <si>
+    <t>st19-007</t>
+  </si>
+  <si>
+    <t>st19-008</t>
+  </si>
+  <si>
+    <t>st19-009</t>
+  </si>
+  <si>
+    <t>st19-010</t>
+  </si>
+  <si>
+    <t>st19-011</t>
+  </si>
+  <si>
+    <t>st19-012</t>
+  </si>
+  <si>
+    <t>st19-013</t>
+  </si>
+  <si>
+    <t>st19-014</t>
+  </si>
+  <si>
+    <t>st19-015</t>
+  </si>
+  <si>
+    <t>st18-001</t>
+  </si>
+  <si>
+    <t>st18-002</t>
+  </si>
+  <si>
+    <t>st18-003</t>
+  </si>
+  <si>
+    <t>st18-004</t>
+  </si>
+  <si>
+    <t>st18-005</t>
+  </si>
+  <si>
+    <t>st18-006</t>
+  </si>
+  <si>
+    <t>st18-007</t>
+  </si>
+  <si>
+    <t>st18-008</t>
+  </si>
+  <si>
+    <t>st18-009</t>
+  </si>
+  <si>
+    <t>st18-010</t>
+  </si>
+  <si>
+    <t>st18-011</t>
+  </si>
+  <si>
+    <t>st18-012</t>
+  </si>
+  <si>
+    <t>st18-013</t>
+  </si>
+  <si>
+    <t>st18-014</t>
+  </si>
+  <si>
+    <t>st18-015</t>
+  </si>
+  <si>
+    <t>Junkmon</t>
+  </si>
+  <si>
+    <t>PawChessmon</t>
+  </si>
+  <si>
+    <t>Doggymon</t>
+  </si>
+  <si>
+    <t>Tobucatmon</t>
+  </si>
+  <si>
+    <t>ShoeShoemon</t>
+  </si>
+  <si>
+    <t>Pandamon</t>
+  </si>
+  <si>
+    <t>ExTyranomon</t>
+  </si>
+  <si>
+    <t>ShinMonzaemon</t>
+  </si>
+  <si>
+    <t>Noble Family Arts</t>
+  </si>
+  <si>
+    <t>bt18-001</t>
+  </si>
+  <si>
+    <t>bt18-002</t>
+  </si>
+  <si>
+    <t>bt18-003</t>
+  </si>
+  <si>
+    <t>bt18-004</t>
+  </si>
+  <si>
+    <t>bt18-005</t>
+  </si>
+  <si>
+    <t>bt18-006</t>
+  </si>
+  <si>
+    <t>bt18-007</t>
+  </si>
+  <si>
+    <t>bt18-008</t>
+  </si>
+  <si>
+    <t>bt18-009</t>
+  </si>
+  <si>
+    <t>bt18-010</t>
+  </si>
+  <si>
+    <t>bt18-011</t>
+  </si>
+  <si>
+    <t>bt18-012</t>
+  </si>
+  <si>
+    <t>bt18-013</t>
+  </si>
+  <si>
+    <t>bt18-014</t>
+  </si>
+  <si>
+    <t>bt18-015</t>
+  </si>
+  <si>
+    <t>bt18-016</t>
+  </si>
+  <si>
+    <t>bt18-017</t>
+  </si>
+  <si>
+    <t>bt18-018</t>
+  </si>
+  <si>
+    <t>bt18-019</t>
+  </si>
+  <si>
+    <t>bt18-020</t>
+  </si>
+  <si>
+    <t>bt18-021</t>
+  </si>
+  <si>
+    <t>bt18-022</t>
+  </si>
+  <si>
+    <t>bt18-023</t>
+  </si>
+  <si>
+    <t>bt18-024</t>
+  </si>
+  <si>
+    <t>bt18-025</t>
+  </si>
+  <si>
+    <t>bt18-026</t>
+  </si>
+  <si>
+    <t>bt18-027</t>
+  </si>
+  <si>
+    <t>bt18-028</t>
+  </si>
+  <si>
+    <t>bt18-029</t>
+  </si>
+  <si>
+    <t>bt18-030</t>
+  </si>
+  <si>
+    <t>bt18-031</t>
+  </si>
+  <si>
+    <t>bt18-032</t>
+  </si>
+  <si>
+    <t>bt18-033</t>
+  </si>
+  <si>
+    <t>bt18-034</t>
+  </si>
+  <si>
+    <t>bt18-035</t>
+  </si>
+  <si>
+    <t>bt18-036</t>
+  </si>
+  <si>
+    <t>bt18-037</t>
+  </si>
+  <si>
+    <t>bt18-038</t>
+  </si>
+  <si>
+    <t>bt18-039</t>
+  </si>
+  <si>
+    <t>bt18-040</t>
+  </si>
+  <si>
+    <t>bt18-041</t>
+  </si>
+  <si>
+    <t>bt18-042</t>
+  </si>
+  <si>
+    <t>bt18-043</t>
+  </si>
+  <si>
+    <t>bt18-044</t>
+  </si>
+  <si>
+    <t>bt18-045</t>
+  </si>
+  <si>
+    <t>bt18-046</t>
+  </si>
+  <si>
+    <t>bt18-047</t>
+  </si>
+  <si>
+    <t>bt18-048</t>
+  </si>
+  <si>
+    <t>bt18-049</t>
+  </si>
+  <si>
+    <t>bt18-050</t>
+  </si>
+  <si>
+    <t>bt18-051</t>
+  </si>
+  <si>
+    <t>bt18-052</t>
+  </si>
+  <si>
+    <t>bt18-053</t>
+  </si>
+  <si>
+    <t>bt18-054</t>
+  </si>
+  <si>
+    <t>bt18-055</t>
+  </si>
+  <si>
+    <t>bt18-056</t>
+  </si>
+  <si>
+    <t>bt18-057</t>
+  </si>
+  <si>
+    <t>bt18-058</t>
+  </si>
+  <si>
+    <t>bt18-059</t>
+  </si>
+  <si>
+    <t>bt18-060</t>
+  </si>
+  <si>
+    <t>bt18-061</t>
+  </si>
+  <si>
+    <t>bt18-062</t>
+  </si>
+  <si>
+    <t>bt18-063</t>
+  </si>
+  <si>
+    <t>bt18-064</t>
+  </si>
+  <si>
+    <t>bt18-065</t>
+  </si>
+  <si>
+    <t>bt18-066</t>
+  </si>
+  <si>
+    <t>bt18-067</t>
+  </si>
+  <si>
+    <t>bt18-068</t>
+  </si>
+  <si>
+    <t>bt18-069</t>
+  </si>
+  <si>
+    <t>bt18-070</t>
+  </si>
+  <si>
+    <t>bt18-071</t>
+  </si>
+  <si>
+    <t>bt18-072</t>
+  </si>
+  <si>
+    <t>bt18-073</t>
+  </si>
+  <si>
+    <t>bt18-074</t>
+  </si>
+  <si>
+    <t>bt18-075</t>
+  </si>
+  <si>
+    <t>bt18-076</t>
+  </si>
+  <si>
+    <t>bt18-077</t>
+  </si>
+  <si>
+    <t>bt18-078</t>
+  </si>
+  <si>
+    <t>bt18-079</t>
+  </si>
+  <si>
+    <t>bt18-080</t>
+  </si>
+  <si>
+    <t>bt18-081</t>
+  </si>
+  <si>
+    <t>bt18-082</t>
+  </si>
+  <si>
+    <t>bt18-083</t>
+  </si>
+  <si>
+    <t>bt18-084</t>
+  </si>
+  <si>
+    <t>bt18-085</t>
+  </si>
+  <si>
+    <t>bt18-086</t>
+  </si>
+  <si>
+    <t>bt18-087</t>
+  </si>
+  <si>
+    <t>bt18-088</t>
+  </si>
+  <si>
+    <t>bt18-089</t>
+  </si>
+  <si>
+    <t>bt18-090</t>
+  </si>
+  <si>
+    <t>bt18-091</t>
+  </si>
+  <si>
+    <t>bt18-092</t>
+  </si>
+  <si>
+    <t>bt18-093</t>
+  </si>
+  <si>
+    <t>bt18-094</t>
+  </si>
+  <si>
+    <t>bt18-095</t>
+  </si>
+  <si>
+    <t>bt18-096</t>
+  </si>
+  <si>
+    <t>bt18-097</t>
+  </si>
+  <si>
+    <t>bt18-098</t>
+  </si>
+  <si>
+    <t>bt18-099</t>
+  </si>
+  <si>
+    <t>bt18-100</t>
+  </si>
+  <si>
+    <t>bt18-101</t>
+  </si>
+  <si>
+    <t>bt18-102</t>
+  </si>
+  <si>
+    <t>Puroromon</t>
+  </si>
+  <si>
+    <t>Grumblemon</t>
+  </si>
+  <si>
+    <t>Ancientvolcanomon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verde</t>
+    </r>
+  </si>
+  <si>
+    <t>Millenniummon</t>
+  </si>
+  <si>
+    <t>Calamaramon</t>
+  </si>
+  <si>
+    <t>AncientMegaTheriummon</t>
+  </si>
+  <si>
+    <t>Candlemon</t>
+  </si>
+  <si>
+    <t>Dynasmon ACE</t>
+  </si>
+  <si>
+    <t>MetalEtemon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">morado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+  </si>
+  <si>
+    <t>Funbeemon</t>
+  </si>
+  <si>
+    <t>Waspmon</t>
+  </si>
+  <si>
+    <t>CannonBeemon</t>
+  </si>
+  <si>
+    <t>JetSilphymon</t>
+  </si>
+  <si>
+    <t>AncientTroymon</t>
+  </si>
+  <si>
+    <t>TigerVespamon</t>
+  </si>
+  <si>
+    <t>Snatchmon</t>
+  </si>
+  <si>
+    <t>Sephiromon</t>
+  </si>
+  <si>
+    <t>Wisemon</t>
+  </si>
+  <si>
+    <t>Rhinokabuterimon</t>
+  </si>
+  <si>
+    <t>ShadowSeraphimon</t>
+  </si>
+  <si>
+    <t>Machindramon</t>
+  </si>
+  <si>
+    <t>Lowemon</t>
+  </si>
+  <si>
+    <t>Duskmon</t>
+  </si>
+  <si>
+    <t>Velgrmon</t>
+  </si>
+  <si>
+    <t>Oboromon</t>
+  </si>
+  <si>
+    <t>Lucemon: Chaos mode</t>
+  </si>
+  <si>
+    <t>Lordknightmon ACE</t>
+  </si>
+  <si>
+    <t>AcientSphinxmon</t>
+  </si>
+  <si>
+    <t>Lucemon: Larva</t>
+  </si>
+  <si>
+    <t>Owen Dreadnought</t>
+  </si>
+  <si>
+    <t>Takuya Kanbara &amp; Koji Minamoto</t>
+  </si>
+  <si>
+    <t>Tommy Himi</t>
+  </si>
+  <si>
+    <t>J.P. Shibayama</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t>Violet Inboots</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azul</t>
+    </r>
+  </si>
+  <si>
+    <t>Wind to Flame, Ice to Sword</t>
+  </si>
+  <si>
+    <t>Lord of Devastation and Rebirth</t>
+  </si>
+  <si>
+    <t>Dark to Light, Thunder to Gunfire</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">morado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+  </si>
+  <si>
+    <t>Dragon's roar</t>
+  </si>
+  <si>
+    <t>First of athena</t>
+  </si>
+  <si>
+    <t>Gospel of the fallen angel</t>
+  </si>
+  <si>
+    <t>Lucemon : Satan Mode</t>
+  </si>
+  <si>
+    <t>Susanoomon ACE</t>
+  </si>
+  <si>
+    <t>bt19-001</t>
+  </si>
+  <si>
+    <t>bt19-002</t>
+  </si>
+  <si>
+    <t>bt19-003</t>
+  </si>
+  <si>
+    <t>bt19-004</t>
+  </si>
+  <si>
+    <t>bt19-005</t>
+  </si>
+  <si>
+    <t>bt19-006</t>
+  </si>
+  <si>
+    <t>bt19-007</t>
+  </si>
+  <si>
+    <t>bt19-008</t>
+  </si>
+  <si>
+    <t>bt19-009</t>
+  </si>
+  <si>
+    <t>bt19-010</t>
+  </si>
+  <si>
+    <t>bt19-011</t>
+  </si>
+  <si>
+    <t>bt19-012</t>
+  </si>
+  <si>
+    <t>bt19-013</t>
+  </si>
+  <si>
+    <t>bt19-014</t>
+  </si>
+  <si>
+    <t>bt19-015</t>
+  </si>
+  <si>
+    <t>bt19-016</t>
+  </si>
+  <si>
+    <t>bt19-017</t>
+  </si>
+  <si>
+    <t>bt19-018</t>
+  </si>
+  <si>
+    <t>bt19-019</t>
+  </si>
+  <si>
+    <t>bt19-020</t>
+  </si>
+  <si>
+    <t>bt19-021</t>
+  </si>
+  <si>
+    <t>bt19-022</t>
+  </si>
+  <si>
+    <t>bt19-023</t>
+  </si>
+  <si>
+    <t>bt19-024</t>
+  </si>
+  <si>
+    <t>bt19-025</t>
+  </si>
+  <si>
+    <t>bt19-026</t>
+  </si>
+  <si>
+    <t>bt19-027</t>
+  </si>
+  <si>
+    <t>bt19-028</t>
+  </si>
+  <si>
+    <t>bt19-029</t>
+  </si>
+  <si>
+    <t>bt19-030</t>
+  </si>
+  <si>
+    <t>bt19-031</t>
+  </si>
+  <si>
+    <t>bt19-032</t>
+  </si>
+  <si>
+    <t>bt19-033</t>
+  </si>
+  <si>
+    <t>bt19-034</t>
+  </si>
+  <si>
+    <t>bt19-035</t>
+  </si>
+  <si>
+    <t>bt19-036</t>
+  </si>
+  <si>
+    <t>bt19-037</t>
+  </si>
+  <si>
+    <t>bt19-038</t>
+  </si>
+  <si>
+    <t>bt19-039</t>
+  </si>
+  <si>
+    <t>bt19-040</t>
+  </si>
+  <si>
+    <t>bt19-041</t>
+  </si>
+  <si>
+    <t>bt19-042</t>
+  </si>
+  <si>
+    <t>bt19-043</t>
+  </si>
+  <si>
+    <t>bt19-044</t>
+  </si>
+  <si>
+    <t>bt19-045</t>
+  </si>
+  <si>
+    <t>bt19-046</t>
+  </si>
+  <si>
+    <t>bt19-047</t>
+  </si>
+  <si>
+    <t>bt19-048</t>
+  </si>
+  <si>
+    <t>bt19-049</t>
+  </si>
+  <si>
+    <t>bt19-050</t>
+  </si>
+  <si>
+    <t>bt19-051</t>
+  </si>
+  <si>
+    <t>bt19-052</t>
+  </si>
+  <si>
+    <t>bt19-053</t>
+  </si>
+  <si>
+    <t>bt19-054</t>
+  </si>
+  <si>
+    <t>bt19-055</t>
+  </si>
+  <si>
+    <t>bt19-056</t>
+  </si>
+  <si>
+    <t>bt19-057</t>
+  </si>
+  <si>
+    <t>bt19-058</t>
+  </si>
+  <si>
+    <t>bt19-059</t>
+  </si>
+  <si>
+    <t>bt19-060</t>
+  </si>
+  <si>
+    <t>bt19-061</t>
+  </si>
+  <si>
+    <t>bt19-062</t>
+  </si>
+  <si>
+    <t>bt19-063</t>
+  </si>
+  <si>
+    <t>bt19-064</t>
+  </si>
+  <si>
+    <t>bt19-065</t>
+  </si>
+  <si>
+    <t>bt19-066</t>
+  </si>
+  <si>
+    <t>bt19-067</t>
+  </si>
+  <si>
+    <t>bt19-068</t>
+  </si>
+  <si>
+    <t>bt19-069</t>
+  </si>
+  <si>
+    <t>bt19-070</t>
+  </si>
+  <si>
+    <t>bt19-071</t>
+  </si>
+  <si>
+    <t>bt19-072</t>
+  </si>
+  <si>
+    <t>bt19-073</t>
+  </si>
+  <si>
+    <t>bt19-074</t>
+  </si>
+  <si>
+    <t>bt19-075</t>
+  </si>
+  <si>
+    <t>bt19-076</t>
+  </si>
+  <si>
+    <t>bt19-077</t>
+  </si>
+  <si>
+    <t>bt19-078</t>
+  </si>
+  <si>
+    <t>bt19-079</t>
+  </si>
+  <si>
+    <t>bt19-080</t>
+  </si>
+  <si>
+    <t>bt19-081</t>
+  </si>
+  <si>
+    <t>bt19-082</t>
+  </si>
+  <si>
+    <t>bt19-083</t>
+  </si>
+  <si>
+    <t>bt19-084</t>
+  </si>
+  <si>
+    <t>bt19-085</t>
+  </si>
+  <si>
+    <t>bt19-086</t>
+  </si>
+  <si>
+    <t>bt19-087</t>
+  </si>
+  <si>
+    <t>bt19-088</t>
+  </si>
+  <si>
+    <t>bt19-089</t>
+  </si>
+  <si>
+    <t>bt19-090</t>
+  </si>
+  <si>
+    <t>bt19-091</t>
+  </si>
+  <si>
+    <t>bt19-092</t>
+  </si>
+  <si>
+    <t>bt19-093</t>
+  </si>
+  <si>
+    <t>bt19-094</t>
+  </si>
+  <si>
+    <t>bt19-095</t>
+  </si>
+  <si>
+    <t>bt19-096</t>
+  </si>
+  <si>
+    <t>bt19-097</t>
+  </si>
+  <si>
+    <t>bt19-098</t>
+  </si>
+  <si>
+    <t>bt19-099</t>
+  </si>
+  <si>
+    <t>bt19-100</t>
+  </si>
+  <si>
+    <t>bt19-101</t>
+  </si>
+  <si>
+    <t>bt19-102</t>
+  </si>
+  <si>
+    <t>MarineBullmon</t>
+  </si>
+  <si>
+    <t>Ryugumon</t>
+  </si>
+  <si>
+    <t>Grwolmon</t>
+  </si>
+  <si>
+    <t>WarGroulmon ACE</t>
+  </si>
+  <si>
+    <t>Shoutmon EX6</t>
+  </si>
+  <si>
+    <t>MailBirdmon</t>
+  </si>
+  <si>
+    <t>Zeiggreymon</t>
+  </si>
+  <si>
+    <t>Tappirmon</t>
+  </si>
+  <si>
+    <t>ShoutingStarmon</t>
+  </si>
+  <si>
+    <t>Terriemon</t>
+  </si>
+  <si>
+    <t>Chambiemon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">amarillo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+  </si>
+  <si>
+    <t>Taomon ACE</t>
+  </si>
+  <si>
+    <t>JaegerDorulumon</t>
+  </si>
+  <si>
+    <t>Dynasmon x antibody</t>
+  </si>
+  <si>
+    <t>Lucemon x antibody</t>
+  </si>
+  <si>
+    <t>Rapidmon ACE</t>
+  </si>
+  <si>
+    <t>ForgeBeemon</t>
+  </si>
+  <si>
+    <t>AtlurBallistamon</t>
+  </si>
+  <si>
+    <t>Verpamon</t>
+  </si>
+  <si>
+    <t>Queenbeemon</t>
+  </si>
+  <si>
+    <t>RaptorSparrowmon</t>
+  </si>
+  <si>
+    <t>justimon: Blitz Arm ACE</t>
+  </si>
+  <si>
+    <t>kimeramon</t>
+  </si>
+  <si>
+    <t>Lordknightmon x antibody</t>
+  </si>
+  <si>
+    <t>Beelzemon: Blast Mode ACE</t>
+  </si>
+  <si>
+    <t>Moonmillenniummon</t>
+  </si>
+  <si>
+    <t>Luminamon</t>
+  </si>
+  <si>
+    <t>ADR-01 Jeri</t>
+  </si>
+  <si>
+    <t>Winr</t>
+  </si>
+  <si>
+    <t>Henry Wong</t>
+  </si>
+  <si>
+    <t>Ryo Akiyama</t>
+  </si>
+  <si>
+    <t>Nene Amano</t>
+  </si>
+  <si>
+    <t>Red Card</t>
+  </si>
+  <si>
+    <t>Meteor Rock Soul</t>
+  </si>
+  <si>
+    <t>Trinity Burst!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">amarillo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verde</t>
+    </r>
+  </si>
+  <si>
+    <t>Wadatsumi Purification</t>
+  </si>
+  <si>
+    <t>Queen Device</t>
+  </si>
+  <si>
+    <t>Seventh Divine Cruz</t>
+  </si>
+  <si>
+    <t>Knight Device</t>
+  </si>
+  <si>
+    <t>Hornet Eraser</t>
+  </si>
+  <si>
+    <t>Bond of True Love</t>
+  </si>
+  <si>
+    <t>King Device</t>
+  </si>
+  <si>
+    <t>The Wicked God Descends!</t>
+  </si>
+  <si>
+    <t>D-Reaper Zone</t>
+  </si>
+  <si>
+    <t>ZeedMillenniummon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>morado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFEEC02"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+  </si>
+  <si>
+    <t>Luminamon (Nene Version)</t>
   </si>
 </sst>
 </file>
@@ -13584,7 +14749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -13710,23 +14875,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14206,8 +15392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14239,13 +15425,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G175))/M1</f>
-        <v>6.8965517241379309E-2</v>
+        <v>9.4827586206896547E-2</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -14272,9 +15458,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -14518,8 +15704,8 @@
       <c r="D14" s="97">
         <v>1</v>
       </c>
-      <c r="E14" s="95">
-        <v>0</v>
+      <c r="E14" s="97">
+        <v>1</v>
       </c>
       <c r="F14" s="95">
         <v>0</v>
@@ -14914,8 +16100,8 @@
         <v>184</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="95">
-        <v>0</v>
+      <c r="D33" s="109">
+        <v>1</v>
       </c>
       <c r="E33" s="95">
         <v>0</v>
@@ -15019,17 +16205,17 @@
         <v>622</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="97">
-        <v>1</v>
-      </c>
-      <c r="E38" s="97">
-        <v>1</v>
-      </c>
-      <c r="F38" s="97">
-        <v>1</v>
-      </c>
-      <c r="G38" s="95">
-        <v>0</v>
+      <c r="D38" s="103">
+        <v>1</v>
+      </c>
+      <c r="E38" s="103">
+        <v>1</v>
+      </c>
+      <c r="F38" s="103">
+        <v>1</v>
+      </c>
+      <c r="G38" s="110">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -15043,11 +16229,11 @@
       <c r="D39" s="97">
         <v>1</v>
       </c>
-      <c r="E39" s="95">
-        <v>0</v>
-      </c>
-      <c r="F39" s="95">
-        <v>0</v>
+      <c r="E39" s="109">
+        <v>1</v>
+      </c>
+      <c r="F39" s="109">
+        <v>1</v>
       </c>
       <c r="G39" s="95">
         <v>0</v>
@@ -16134,8 +17320,8 @@
         <v>656</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="95">
-        <v>0</v>
+      <c r="D91" s="109">
+        <v>1</v>
       </c>
       <c r="E91" s="95">
         <v>0</v>
@@ -16417,11 +17603,11 @@
         <v>670</v>
       </c>
       <c r="C104" s="24"/>
-      <c r="D104" s="95">
-        <v>0</v>
-      </c>
-      <c r="E104" s="95">
-        <v>0</v>
+      <c r="D104" s="109">
+        <v>1</v>
+      </c>
+      <c r="E104" s="109">
+        <v>1</v>
       </c>
       <c r="F104" s="95">
         <v>0</v>
@@ -16438,11 +17624,11 @@
         <v>671</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="95">
-        <v>0</v>
-      </c>
-      <c r="E105" s="95">
-        <v>0</v>
+      <c r="D105" s="109">
+        <v>1</v>
+      </c>
+      <c r="E105" s="109">
+        <v>1</v>
       </c>
       <c r="F105" s="95">
         <v>0</v>
@@ -16480,11 +17666,11 @@
         <v>673</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="95">
-        <v>0</v>
-      </c>
-      <c r="E107" s="95">
-        <v>0</v>
+      <c r="D107" s="109">
+        <v>1</v>
+      </c>
+      <c r="E107" s="109">
+        <v>1</v>
       </c>
       <c r="F107" s="95">
         <v>0</v>
@@ -16501,11 +17687,11 @@
         <v>674</v>
       </c>
       <c r="C108" s="10"/>
-      <c r="D108" s="95">
-        <v>0</v>
-      </c>
-      <c r="E108" s="95">
-        <v>0</v>
+      <c r="D108" s="109">
+        <v>1</v>
+      </c>
+      <c r="E108" s="109">
+        <v>1</v>
       </c>
       <c r="F108" s="95">
         <v>0</v>
@@ -16522,11 +17708,11 @@
         <v>675</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="95">
-        <v>0</v>
-      </c>
-      <c r="E109" s="95">
-        <v>0</v>
+      <c r="D109" s="109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="109">
+        <v>1</v>
       </c>
       <c r="F109" s="95">
         <v>0</v>
@@ -17531,8 +18717,8 @@
         <v>714</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="95">
-        <v>0</v>
+      <c r="D156" s="109">
+        <v>1</v>
       </c>
       <c r="E156" s="95">
         <v>0</v>
@@ -17615,8 +18801,8 @@
         <v>718</v>
       </c>
       <c r="C160" s="10"/>
-      <c r="D160" s="95">
-        <v>0</v>
+      <c r="D160" s="109">
+        <v>1</v>
       </c>
       <c r="E160" s="95">
         <v>0</v>
@@ -18025,11 +19211,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.19782608695652174</v>
       </c>
@@ -18046,9 +19232,9 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -18874,13 +20060,13 @@
         <v>185</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="105">
-        <v>1</v>
-      </c>
-      <c r="E69" s="105">
-        <v>1</v>
-      </c>
-      <c r="F69" s="105">
+      <c r="D69" s="103">
+        <v>1</v>
+      </c>
+      <c r="E69" s="103">
+        <v>1</v>
+      </c>
+      <c r="F69" s="103">
         <v>1</v>
       </c>
       <c r="G69" s="70">
@@ -19487,7 +20673,7 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19518,13 +20704,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.26339285714285715</v>
+        <v>0.265625</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -19543,9 +20729,9 @@
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -20150,7 +21336,9 @@
         <v>376</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="69"/>
+      <c r="D42" s="111">
+        <v>1</v>
+      </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
@@ -21278,11 +22466,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.12723214285714285</v>
       </c>
@@ -21299,9 +22487,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -22490,13 +23678,13 @@
         <v>1164</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="105">
-        <v>1</v>
-      </c>
-      <c r="E102" s="105">
-        <v>1</v>
-      </c>
-      <c r="F102" s="105">
+      <c r="D102" s="103">
+        <v>1</v>
+      </c>
+      <c r="E102" s="103">
+        <v>1</v>
+      </c>
+      <c r="F102" s="103">
         <v>1</v>
       </c>
       <c r="G102" s="70">
@@ -22679,11 +23867,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.15217391304347827</v>
       </c>
@@ -22703,9 +23891,9 @@
       <c r="D2" s="97">
         <v>1</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -22725,7 +23913,7 @@
         <v>1292</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="105">
+      <c r="D4" s="103">
         <v>1</v>
       </c>
       <c r="E4" s="70">
@@ -23392,13 +24580,13 @@
         <v>1329</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="105">
-        <v>1</v>
-      </c>
-      <c r="E52" s="105">
-        <v>1</v>
-      </c>
-      <c r="F52" s="105">
+      <c r="D52" s="103">
+        <v>1</v>
+      </c>
+      <c r="E52" s="103">
+        <v>1</v>
+      </c>
+      <c r="F52" s="103">
         <v>1</v>
       </c>
       <c r="G52" s="70">
@@ -35957,7 +37145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C58CEC-A591-498E-8A37-59AAA5BB4EB2}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D69" sqref="D69:G69"/>
     </sheetView>
   </sheetViews>
@@ -36998,8 +38186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38131,12 +39319,1129 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.90625" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B38" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D54" s="111"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>938</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C65" s="66"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C66" s="66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B70" t="s">
+        <v>678</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C73" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C75" s="33"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C79" s="51"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C80" s="51"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C81" s="51"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C84" s="118" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C86" s="51"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C87" s="67"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C89" s="86" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C95" s="51"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C102" s="51"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C103" s="72"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -38177,11 +40482,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G74))/M1</f>
         <v>0.26027397260273971</v>
       </c>
@@ -38207,9 +40512,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -39092,12 +41397,1163 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.90625" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="H2" s="120"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="H3" s="120"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="H4" s="120"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="9"/>
+      <c r="H5" s="120"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="H6" s="120"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="120"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="H9" s="120"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="H10" s="120"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="H12" s="120"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="H13" s="120"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>729</v>
+      </c>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>4588</v>
+      </c>
+      <c r="H15" s="120"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="H16" s="120"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="H17" s="120"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="H18" s="120"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="H19" s="120"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="H20" s="120"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="H21" s="120"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="H22" s="120"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="H23" s="120"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="120"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="H25" s="120"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="H26" s="120"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4583</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="H27" s="120"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="H28" s="120"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="H29" s="120"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="9"/>
+      <c r="H30" s="120"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="H31" s="120"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H32" s="120"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="120"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H34" s="120"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B35" t="s">
+        <v>941</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="H35" s="120"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H36" s="120"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="H37" s="120"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4589</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="H38" s="120"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H39" s="120"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="H40" s="120"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B41" t="s">
+        <v>944</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="H41" s="120"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H42" s="120"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H43" s="120"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4592</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="H44" s="120"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="H45" s="120"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="H46" s="120"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="9"/>
+      <c r="H47" s="120"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C48" s="121" t="s">
+        <v>729</v>
+      </c>
+      <c r="H48" s="120"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="H49" s="120"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B50" t="s">
+        <v>946</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="H50" s="120"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="H51" s="120"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4595</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>729</v>
+      </c>
+      <c r="H52" s="120"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="H53" s="120"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C54" s="121" t="s">
+        <v>729</v>
+      </c>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="120"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B55" t="s">
+        <v>949</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="H55" s="120"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="120"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="H57" s="120"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H58" s="120"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="H59" s="120"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H60" s="120"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B61" t="s">
+        <v>950</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="H61" s="120"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H62" s="120"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>952</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="H63" s="120"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H64" s="120"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="H65" s="120"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B66" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="H66" s="120"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C67" s="123" t="s">
+        <v>729</v>
+      </c>
+      <c r="H67" s="120"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="123"/>
+      <c r="H68" s="120"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C69" s="123" t="s">
+        <v>729</v>
+      </c>
+      <c r="H69" s="120"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B70" t="s">
+        <v>644</v>
+      </c>
+      <c r="C70" s="123" t="s">
+        <v>729</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="H70" s="120"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H71" s="120"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B72" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" s="123"/>
+      <c r="H72" s="120"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C73" s="123" t="s">
+        <v>729</v>
+      </c>
+      <c r="H73" s="120"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C74" s="123"/>
+      <c r="H74" s="120"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C75" s="123"/>
+      <c r="H75" s="120"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C76" s="123"/>
+      <c r="H76" s="120"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C77" s="124"/>
+      <c r="H77" s="120"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B78" t="s">
+        <v>961</v>
+      </c>
+      <c r="C78" s="67"/>
+      <c r="H78" s="120"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C79" s="67"/>
+      <c r="H79" s="120"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C80" s="30"/>
+      <c r="H80" s="120"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B81" t="s">
+        <v>972</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="H81" s="120"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="H82" s="120"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B83" t="s">
+        <v>725</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="9"/>
+      <c r="H83" s="120"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B84" t="s">
+        <v>976</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="H84" s="120"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C85" s="59"/>
+      <c r="H85" s="120"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C86" s="59"/>
+      <c r="H86" s="120"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C87" s="66"/>
+      <c r="H87" s="120"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C88" s="49"/>
+      <c r="H88" s="120"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B89" t="s">
+        <v>981</v>
+      </c>
+      <c r="C89" s="50"/>
+      <c r="H89" s="120"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="H90" s="120"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="H91" s="120"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>4613</v>
+      </c>
+      <c r="H92" s="120"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="9"/>
+      <c r="H93" s="120"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="H94" s="120"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4616</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="H95" s="120"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C96" s="80"/>
+      <c r="H96" s="120"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4618</v>
+      </c>
+      <c r="C97" s="121" t="s">
+        <v>729</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="H97" s="120"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="H98" s="120"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="H99" s="120"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="H100" s="120"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="H101" s="120"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>4624</v>
+      </c>
+      <c r="H102" s="120"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C103" s="72"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -39119,7 +42575,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39214,6 +42670,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="18"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -41532,7 +44989,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42350,11 +45807,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="107" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104">
+      <c r="K1" s="107"/>
+      <c r="L1" s="108">
         <f>(SUM(D2:G13))/M1</f>
         <v>0.77083333333333337</v>
       </c>
@@ -42383,9 +45840,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -42666,12 +46123,241 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC4C873-C964-45CC-A7AD-6B2228E0A514}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="38"/>
+    <col min="4" max="7" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="82"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43431,12 +47117,241 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533B971-FA12-4705-A035-659CC495F80D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="38"/>
+    <col min="4" max="7" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="82"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43452,7 +47367,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.90625" style="106"/>
+    <col min="4" max="7" width="10.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -43465,16 +47380,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="106">
-        <v>1</v>
-      </c>
-      <c r="E1" s="106">
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="106">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="106">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -44024,7 +47939,7 @@
       <c r="B55" t="s">
         <v>2008</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="104" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -44035,7 +47950,7 @@
       <c r="B56" t="s">
         <v>3730</v>
       </c>
-      <c r="C56" s="107"/>
+      <c r="C56" s="104"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -44044,7 +47959,7 @@
       <c r="B57" t="s">
         <v>1324</v>
       </c>
-      <c r="C57" s="107"/>
+      <c r="C57" s="104"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -44053,7 +47968,7 @@
       <c r="B58" t="s">
         <v>942</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C58" s="104" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -44064,7 +47979,7 @@
       <c r="B59" t="s">
         <v>4146</v>
       </c>
-      <c r="C59" s="107"/>
+      <c r="C59" s="104"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -44073,7 +47988,7 @@
       <c r="B60" t="s">
         <v>4147</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="104" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -44084,7 +47999,7 @@
       <c r="B61" t="s">
         <v>1174</v>
       </c>
-      <c r="C61" s="108"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -44104,7 +48019,7 @@
       <c r="B63" t="s">
         <v>4149</v>
       </c>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="2" t="s">
         <v>729</v>
       </c>
     </row>
@@ -44240,7 +48155,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.90625" style="106"/>
+    <col min="4" max="7" width="10.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -44253,16 +48168,16 @@
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="106">
-        <v>1</v>
-      </c>
-      <c r="E1" s="106">
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="106">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="106">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
     </row>
@@ -44801,7 +48716,7 @@
       <c r="B56" t="s">
         <v>4265</v>
       </c>
-      <c r="C56" s="110" t="s">
+      <c r="C56" s="106" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -44812,7 +48727,7 @@
       <c r="B57" t="s">
         <v>4266</v>
       </c>
-      <c r="C57" s="107"/>
+      <c r="C57" s="104"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -44821,7 +48736,7 @@
       <c r="B58" t="s">
         <v>4267</v>
       </c>
-      <c r="C58" s="107"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -44834,7 +48749,7 @@
       <c r="B59" t="s">
         <v>1786</v>
       </c>
-      <c r="C59" s="107"/>
+      <c r="C59" s="104"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -44843,7 +48758,7 @@
       <c r="B60" t="s">
         <v>4268</v>
       </c>
-      <c r="C60" s="107"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -44856,7 +48771,7 @@
       <c r="B61" t="s">
         <v>1789</v>
       </c>
-      <c r="C61" s="107"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -44874,7 +48789,7 @@
       <c r="B63" t="s">
         <v>4270</v>
       </c>
-      <c r="C63" s="111"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBEE7E0-87AF-431E-89B1-3CCE05F63B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC82D4-0B52-4A23-ACAC-D654E243BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="9" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="4728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="4837">
   <si>
     <t>bt1-001</t>
   </si>
@@ -14791,12 +14791,395 @@
   <si>
     <t>Grape Memory boost!</t>
   </si>
+  <si>
+    <t>ex8-001</t>
+  </si>
+  <si>
+    <t>ex8-002</t>
+  </si>
+  <si>
+    <t>ex8-003</t>
+  </si>
+  <si>
+    <t>ex8-004</t>
+  </si>
+  <si>
+    <t>ex8-005</t>
+  </si>
+  <si>
+    <t>ex8-006</t>
+  </si>
+  <si>
+    <t>ex8-007</t>
+  </si>
+  <si>
+    <t>ex8-008</t>
+  </si>
+  <si>
+    <t>ex8-009</t>
+  </si>
+  <si>
+    <t>ex8-010</t>
+  </si>
+  <si>
+    <t>ex8-011</t>
+  </si>
+  <si>
+    <t>ex8-012</t>
+  </si>
+  <si>
+    <t>ex8-013</t>
+  </si>
+  <si>
+    <t>ex8-014</t>
+  </si>
+  <si>
+    <t>ex8-015</t>
+  </si>
+  <si>
+    <t>ex8-016</t>
+  </si>
+  <si>
+    <t>ex8-017</t>
+  </si>
+  <si>
+    <t>ex8-018</t>
+  </si>
+  <si>
+    <t>ex8-019</t>
+  </si>
+  <si>
+    <t>ex8-020</t>
+  </si>
+  <si>
+    <t>ex8-021</t>
+  </si>
+  <si>
+    <t>ex8-022</t>
+  </si>
+  <si>
+    <t>ex8-023</t>
+  </si>
+  <si>
+    <t>ex8-024</t>
+  </si>
+  <si>
+    <t>ex8-025</t>
+  </si>
+  <si>
+    <t>ex8-026</t>
+  </si>
+  <si>
+    <t>ex8-027</t>
+  </si>
+  <si>
+    <t>ex8-028</t>
+  </si>
+  <si>
+    <t>ex8-029</t>
+  </si>
+  <si>
+    <t>ex8-030</t>
+  </si>
+  <si>
+    <t>ex8-031</t>
+  </si>
+  <si>
+    <t>ex8-032</t>
+  </si>
+  <si>
+    <t>ex8-033</t>
+  </si>
+  <si>
+    <t>ex8-034</t>
+  </si>
+  <si>
+    <t>ex8-035</t>
+  </si>
+  <si>
+    <t>ex8-036</t>
+  </si>
+  <si>
+    <t>ex8-037</t>
+  </si>
+  <si>
+    <t>ex8-038</t>
+  </si>
+  <si>
+    <t>ex8-039</t>
+  </si>
+  <si>
+    <t>ex8-040</t>
+  </si>
+  <si>
+    <t>ex8-041</t>
+  </si>
+  <si>
+    <t>ex8-042</t>
+  </si>
+  <si>
+    <t>ex8-043</t>
+  </si>
+  <si>
+    <t>ex8-044</t>
+  </si>
+  <si>
+    <t>ex8-045</t>
+  </si>
+  <si>
+    <t>ex8-046</t>
+  </si>
+  <si>
+    <t>ex8-047</t>
+  </si>
+  <si>
+    <t>ex8-048</t>
+  </si>
+  <si>
+    <t>ex8-049</t>
+  </si>
+  <si>
+    <t>ex8-050</t>
+  </si>
+  <si>
+    <t>ex8-051</t>
+  </si>
+  <si>
+    <t>ex8-052</t>
+  </si>
+  <si>
+    <t>ex8-053</t>
+  </si>
+  <si>
+    <t>ex8-054</t>
+  </si>
+  <si>
+    <t>ex8-055</t>
+  </si>
+  <si>
+    <t>ex8-056</t>
+  </si>
+  <si>
+    <t>ex8-057</t>
+  </si>
+  <si>
+    <t>ex8-058</t>
+  </si>
+  <si>
+    <t>ex8-059</t>
+  </si>
+  <si>
+    <t>ex8-060</t>
+  </si>
+  <si>
+    <t>ex8-061</t>
+  </si>
+  <si>
+    <t>ex8-062</t>
+  </si>
+  <si>
+    <t>ex8-063</t>
+  </si>
+  <si>
+    <t>ex8-064</t>
+  </si>
+  <si>
+    <t>ex8-065</t>
+  </si>
+  <si>
+    <t>ex8-066</t>
+  </si>
+  <si>
+    <t>ex8-067</t>
+  </si>
+  <si>
+    <t>ex8-068</t>
+  </si>
+  <si>
+    <t>ex8-069</t>
+  </si>
+  <si>
+    <t>ex8-070</t>
+  </si>
+  <si>
+    <t>ex8-071</t>
+  </si>
+  <si>
+    <t>ex8-072</t>
+  </si>
+  <si>
+    <t>ex8-073</t>
+  </si>
+  <si>
+    <t>ex8-074</t>
+  </si>
+  <si>
+    <t>Gilmon X Antibody</t>
+  </si>
+  <si>
+    <t>Growlmon X Antibody</t>
+  </si>
+  <si>
+    <t>MasterTyranomon</t>
+  </si>
+  <si>
+    <t>Wargrowlmon X Antibody</t>
+  </si>
+  <si>
+    <t>Dinomon</t>
+  </si>
+  <si>
+    <t>Polarbearmon</t>
+  </si>
+  <si>
+    <t>Skadmon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFEEC02"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> amarillo</t>
+    </r>
+  </si>
+  <si>
+    <t>Renamon X antibody</t>
+  </si>
+  <si>
+    <t>Pumpkimon</t>
+  </si>
+  <si>
+    <t>Skullmammothmon</t>
+  </si>
+  <si>
+    <t>Sakuyamon X Antibody</t>
+  </si>
+  <si>
+    <t>Darktyranomon</t>
+  </si>
+  <si>
+    <t>Metaltyranomon</t>
+  </si>
+  <si>
+    <t>HerculesKabuterimon ACE</t>
+  </si>
+  <si>
+    <t>Callismon</t>
+  </si>
+  <si>
+    <t>Proganomon</t>
+  </si>
+  <si>
+    <t>Cyberdramon X Antibody</t>
+  </si>
+  <si>
+    <t>Banchogolemon</t>
+  </si>
+  <si>
+    <t>Pyramidimon</t>
+  </si>
+  <si>
+    <t>MarineDevimon</t>
+  </si>
+  <si>
+    <t>Piedmon ACE</t>
+  </si>
+  <si>
+    <t>Barbamon X Antibody</t>
+  </si>
+  <si>
+    <t>Boltboutamon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">negro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFEEC02"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amarillo</t>
+    </r>
+  </si>
+  <si>
+    <t>Ryutaro Williams</t>
+  </si>
+  <si>
+    <t>Suzune Kazuki</t>
+  </si>
+  <si>
+    <t>Deep Savers</t>
+  </si>
+  <si>
+    <t>Nature Spirits</t>
+  </si>
+  <si>
+    <t>Zofr Kabus</t>
+  </si>
+  <si>
+    <t>Nightmare Soldiers</t>
+  </si>
+  <si>
+    <t>Seventh Jewelrize</t>
+  </si>
+  <si>
+    <t>Gallantmon X Antibody</t>
+  </si>
+  <si>
+    <t>MedievalDukemon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFEEC02"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> amarillo</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14950,6 +15333,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -15055,7 +15446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -15202,6 +15593,13 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15211,15 +15609,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15734,11 +16128,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G175))/M1</f>
         <v>9.4827586206896547E-2</v>
       </c>
@@ -15767,9 +16161,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19461,12 +19855,1491 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="123"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="123">
+        <v>1</v>
+      </c>
+      <c r="E1" s="123">
+        <v>2</v>
+      </c>
+      <c r="F1" s="123">
+        <v>3</v>
+      </c>
+      <c r="G1" s="123">
+        <v>4</v>
+      </c>
+      <c r="J1" s="121" t="s">
+        <v>4049</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
+        <f>(SUM(D2:G75))/M1</f>
+        <v>0.70608108108108103</v>
+      </c>
+      <c r="M1" s="96">
+        <f>74*4</f>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="97">
+        <v>1</v>
+      </c>
+      <c r="E2" s="97">
+        <v>1</v>
+      </c>
+      <c r="F2" s="97">
+        <v>1</v>
+      </c>
+      <c r="G2" s="125"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="103">
+        <v>1</v>
+      </c>
+      <c r="E3" s="103">
+        <v>1</v>
+      </c>
+      <c r="F3" s="103">
+        <v>1</v>
+      </c>
+      <c r="G3" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="103">
+        <v>1</v>
+      </c>
+      <c r="E4" s="103">
+        <v>1</v>
+      </c>
+      <c r="F4" s="103">
+        <v>1</v>
+      </c>
+      <c r="G4" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="97">
+        <v>1</v>
+      </c>
+      <c r="E5" s="97">
+        <v>1</v>
+      </c>
+      <c r="F5" s="97">
+        <v>1</v>
+      </c>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
+      <c r="E6" s="97">
+        <v>1</v>
+      </c>
+      <c r="F6" s="97">
+        <v>1</v>
+      </c>
+      <c r="G6" s="125"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="103">
+        <v>1</v>
+      </c>
+      <c r="E7" s="103">
+        <v>1</v>
+      </c>
+      <c r="F7" s="103">
+        <v>1</v>
+      </c>
+      <c r="G7" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D8" s="103">
+        <v>1</v>
+      </c>
+      <c r="E8" s="103">
+        <v>1</v>
+      </c>
+      <c r="F8" s="103">
+        <v>1</v>
+      </c>
+      <c r="G8" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="103">
+        <v>1</v>
+      </c>
+      <c r="E9" s="103">
+        <v>1</v>
+      </c>
+      <c r="F9" s="103">
+        <v>1</v>
+      </c>
+      <c r="G9" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4802</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D10" s="97">
+        <v>1</v>
+      </c>
+      <c r="E10" s="97">
+        <v>1</v>
+      </c>
+      <c r="F10" s="97">
+        <v>1</v>
+      </c>
+      <c r="G10" s="125"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="103">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103">
+        <v>1</v>
+      </c>
+      <c r="F11" s="103">
+        <v>1</v>
+      </c>
+      <c r="G11" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D12" s="97">
+        <v>1</v>
+      </c>
+      <c r="E12" s="97">
+        <v>1</v>
+      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" s="103">
+        <v>1</v>
+      </c>
+      <c r="E13" s="103">
+        <v>1</v>
+      </c>
+      <c r="F13" s="103">
+        <v>1</v>
+      </c>
+      <c r="G13" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="103">
+        <v>1</v>
+      </c>
+      <c r="E14" s="103">
+        <v>1</v>
+      </c>
+      <c r="F14" s="103">
+        <v>1</v>
+      </c>
+      <c r="G14" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4804</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D15" s="97">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="126">
+        <v>1</v>
+      </c>
+      <c r="G15" s="125"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4805</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="103">
+        <v>1</v>
+      </c>
+      <c r="E16" s="103">
+        <v>1</v>
+      </c>
+      <c r="F16" s="103">
+        <v>1</v>
+      </c>
+      <c r="G16" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4806</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D17" s="97">
+        <v>1</v>
+      </c>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="103">
+        <v>1</v>
+      </c>
+      <c r="E18" s="103">
+        <v>1</v>
+      </c>
+      <c r="F18" s="103">
+        <v>1</v>
+      </c>
+      <c r="G18" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="97">
+        <v>1</v>
+      </c>
+      <c r="E19" s="97">
+        <v>1</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D20" s="103">
+        <v>1</v>
+      </c>
+      <c r="E20" s="103">
+        <v>1</v>
+      </c>
+      <c r="F20" s="103">
+        <v>1</v>
+      </c>
+      <c r="G20" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="103">
+        <v>1</v>
+      </c>
+      <c r="E21" s="103">
+        <v>1</v>
+      </c>
+      <c r="F21" s="103">
+        <v>1</v>
+      </c>
+      <c r="G21" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="97">
+        <v>1</v>
+      </c>
+      <c r="E22" s="97">
+        <v>1</v>
+      </c>
+      <c r="F22" s="97">
+        <v>1</v>
+      </c>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D23" s="97">
+        <v>1</v>
+      </c>
+      <c r="E23" s="97">
+        <v>1</v>
+      </c>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4807</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D24" s="103">
+        <v>1</v>
+      </c>
+      <c r="E24" s="103">
+        <v>1</v>
+      </c>
+      <c r="F24" s="103">
+        <v>1</v>
+      </c>
+      <c r="G24" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="97">
+        <v>1</v>
+      </c>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D26" s="103">
+        <v>1</v>
+      </c>
+      <c r="E26" s="103">
+        <v>1</v>
+      </c>
+      <c r="F26" s="103">
+        <v>1</v>
+      </c>
+      <c r="G26" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B28" t="s">
+        <v>808</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="97">
+        <v>1</v>
+      </c>
+      <c r="E28" s="97">
+        <v>1</v>
+      </c>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>4809</v>
+      </c>
+      <c r="D30" s="97">
+        <v>1</v>
+      </c>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="103">
+        <v>1</v>
+      </c>
+      <c r="E31" s="103">
+        <v>1</v>
+      </c>
+      <c r="F31" s="103">
+        <v>1</v>
+      </c>
+      <c r="G31" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4810</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="103">
+        <v>1</v>
+      </c>
+      <c r="E32" s="103">
+        <v>1</v>
+      </c>
+      <c r="F32" s="103">
+        <v>1</v>
+      </c>
+      <c r="G32" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="103">
+        <v>1</v>
+      </c>
+      <c r="E33" s="103">
+        <v>1</v>
+      </c>
+      <c r="F33" s="103">
+        <v>1</v>
+      </c>
+      <c r="G33" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4811</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D34" s="97">
+        <v>1</v>
+      </c>
+      <c r="E34" s="97">
+        <v>1</v>
+      </c>
+      <c r="F34" s="97">
+        <v>1</v>
+      </c>
+      <c r="G34" s="125"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="103">
+        <v>1</v>
+      </c>
+      <c r="E35" s="103">
+        <v>1</v>
+      </c>
+      <c r="F35" s="103">
+        <v>1</v>
+      </c>
+      <c r="G35" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B36" t="s">
+        <v>937</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="103">
+        <v>1</v>
+      </c>
+      <c r="E36" s="103">
+        <v>1</v>
+      </c>
+      <c r="F36" s="103">
+        <v>1</v>
+      </c>
+      <c r="G36" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D37" s="103">
+        <v>1</v>
+      </c>
+      <c r="E37" s="103">
+        <v>1</v>
+      </c>
+      <c r="F37" s="103">
+        <v>1</v>
+      </c>
+      <c r="G37" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4813</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D39" s="103">
+        <v>1</v>
+      </c>
+      <c r="E39" s="103">
+        <v>1</v>
+      </c>
+      <c r="F39" s="103">
+        <v>1</v>
+      </c>
+      <c r="G39" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="97">
+        <v>1</v>
+      </c>
+      <c r="E40" s="97">
+        <v>1</v>
+      </c>
+      <c r="F40" s="97">
+        <v>1</v>
+      </c>
+      <c r="G40" s="125"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="103">
+        <v>1</v>
+      </c>
+      <c r="E41" s="103">
+        <v>1</v>
+      </c>
+      <c r="F41" s="103">
+        <v>1</v>
+      </c>
+      <c r="G41" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" s="103">
+        <v>1</v>
+      </c>
+      <c r="E42" s="103">
+        <v>1</v>
+      </c>
+      <c r="F42" s="103">
+        <v>1</v>
+      </c>
+      <c r="G42" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="103">
+        <v>1</v>
+      </c>
+      <c r="E43" s="103">
+        <v>1</v>
+      </c>
+      <c r="F43" s="103">
+        <v>1</v>
+      </c>
+      <c r="G43" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="D44" s="103">
+        <v>1</v>
+      </c>
+      <c r="E44" s="103">
+        <v>1</v>
+      </c>
+      <c r="F44" s="103">
+        <v>1</v>
+      </c>
+      <c r="G44" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="97">
+        <v>1</v>
+      </c>
+      <c r="E45" s="97">
+        <v>1</v>
+      </c>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4772</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4817</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D46" s="97">
+        <v>1</v>
+      </c>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="103">
+        <v>1</v>
+      </c>
+      <c r="E47" s="103">
+        <v>1</v>
+      </c>
+      <c r="F47" s="103">
+        <v>1</v>
+      </c>
+      <c r="G47" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B48" t="s">
+        <v>619</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="97">
+        <v>1</v>
+      </c>
+      <c r="E48" s="97">
+        <v>1</v>
+      </c>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B49" t="s">
+        <v>724</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="103">
+        <v>1</v>
+      </c>
+      <c r="E49" s="103">
+        <v>1</v>
+      </c>
+      <c r="F49" s="103">
+        <v>1</v>
+      </c>
+      <c r="G49" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="103">
+        <v>1</v>
+      </c>
+      <c r="E50" s="103">
+        <v>1</v>
+      </c>
+      <c r="F50" s="103">
+        <v>1</v>
+      </c>
+      <c r="G50" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C51" s="124" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D51" s="97">
+        <v>1</v>
+      </c>
+      <c r="E51" s="97">
+        <v>1</v>
+      </c>
+      <c r="F51" s="97">
+        <v>1</v>
+      </c>
+      <c r="G51" s="125"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C52" s="124"/>
+      <c r="D52" s="97">
+        <v>1</v>
+      </c>
+      <c r="E52" s="97">
+        <v>1</v>
+      </c>
+      <c r="F52" s="97">
+        <v>1</v>
+      </c>
+      <c r="G52" s="125"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4819</v>
+      </c>
+      <c r="C53" s="124"/>
+      <c r="D53" s="97">
+        <v>1</v>
+      </c>
+      <c r="E53" s="97">
+        <v>1</v>
+      </c>
+      <c r="F53" s="97">
+        <v>1</v>
+      </c>
+      <c r="G53" s="125"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4820</v>
+      </c>
+      <c r="C54" s="124"/>
+      <c r="D54" s="97">
+        <v>1</v>
+      </c>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4821</v>
+      </c>
+      <c r="C56" s="124" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B57" t="s">
+        <v>651</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="103">
+        <v>1</v>
+      </c>
+      <c r="E57" s="103">
+        <v>1</v>
+      </c>
+      <c r="F57" s="103">
+        <v>1</v>
+      </c>
+      <c r="G57" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="97">
+        <v>1</v>
+      </c>
+      <c r="E58" s="97">
+        <v>1</v>
+      </c>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C59" s="51"/>
+      <c r="D59" s="103">
+        <v>1</v>
+      </c>
+      <c r="E59" s="103">
+        <v>1</v>
+      </c>
+      <c r="F59" s="103">
+        <v>1</v>
+      </c>
+      <c r="G59" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="103">
+        <v>1</v>
+      </c>
+      <c r="E60" s="103">
+        <v>1</v>
+      </c>
+      <c r="F60" s="103">
+        <v>1</v>
+      </c>
+      <c r="G60" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B61" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="97">
+        <v>1</v>
+      </c>
+      <c r="E61" s="97">
+        <v>1</v>
+      </c>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4822</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="103">
+        <v>1</v>
+      </c>
+      <c r="E62" s="103">
+        <v>1</v>
+      </c>
+      <c r="F62" s="103">
+        <v>1</v>
+      </c>
+      <c r="G62" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="D63" s="97">
+        <v>1</v>
+      </c>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="97">
+        <v>1</v>
+      </c>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D65" s="97">
+        <v>1</v>
+      </c>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="97">
+        <v>1</v>
+      </c>
+      <c r="E66" s="97">
+        <v>1</v>
+      </c>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="97">
+        <v>1</v>
+      </c>
+      <c r="E67" s="97">
+        <v>1</v>
+      </c>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B68" t="s">
+        <v>726</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="97">
+        <v>1</v>
+      </c>
+      <c r="E68" s="97">
+        <v>1</v>
+      </c>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="103">
+        <v>1</v>
+      </c>
+      <c r="E69" s="103">
+        <v>1</v>
+      </c>
+      <c r="F69" s="103">
+        <v>1</v>
+      </c>
+      <c r="G69" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="103">
+        <v>1</v>
+      </c>
+      <c r="E70" s="103">
+        <v>1</v>
+      </c>
+      <c r="F70" s="103">
+        <v>1</v>
+      </c>
+      <c r="G70" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C71" s="77"/>
+      <c r="D71" s="103">
+        <v>1</v>
+      </c>
+      <c r="E71" s="103">
+        <v>1</v>
+      </c>
+      <c r="F71" s="103">
+        <v>1</v>
+      </c>
+      <c r="G71" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4832</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="103">
+        <v>1</v>
+      </c>
+      <c r="E72" s="103">
+        <v>1</v>
+      </c>
+      <c r="F72" s="103">
+        <v>1</v>
+      </c>
+      <c r="G72" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="97">
+        <v>1</v>
+      </c>
+      <c r="E73" s="97">
+        <v>1</v>
+      </c>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>4836</v>
+      </c>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19475,7 +21348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16099350-61BB-4DD4-B9DE-2BCFF1F868CB}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -19514,10 +21387,6 @@
         <v>4700</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19566,10 +21435,6 @@
         <v>4701</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -19597,7 +21462,6 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="118"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -19672,10 +21536,6 @@
         <v>4705</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -19687,7 +21547,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -19724,10 +21584,6 @@
         <v>4707</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -19765,10 +21621,6 @@
       <c r="C21" s="26" t="s">
         <v>1652</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -19778,10 +21630,6 @@
         <v>4710</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -19791,10 +21639,6 @@
         <v>4711</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -19804,10 +21648,6 @@
         <v>4712</v>
       </c>
       <c r="C24" s="43"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -19817,10 +21657,6 @@
         <v>4713</v>
       </c>
       <c r="C25" s="65"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -19830,10 +21666,6 @@
         <v>4714</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -19845,10 +21677,6 @@
       <c r="C27" s="23" t="s">
         <v>2174</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -19858,10 +21686,6 @@
         <v>4716</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -19871,10 +21695,6 @@
         <v>4717</v>
       </c>
       <c r="C29" s="55"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -19884,10 +21704,6 @@
         <v>4718</v>
       </c>
       <c r="C30" s="26"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -19897,10 +21713,6 @@
         <v>4719</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -19910,12 +21722,8 @@
         <v>4720</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4657</v>
       </c>
@@ -19923,12 +21731,8 @@
         <v>4721</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4658</v>
       </c>
@@ -19936,12 +21740,8 @@
         <v>4722</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4659</v>
       </c>
@@ -19949,12 +21749,8 @@
         <v>4723</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4660</v>
       </c>
@@ -19962,12 +21758,8 @@
         <v>4724</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4661</v>
       </c>
@@ -19975,12 +21767,8 @@
         <v>4725</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4662</v>
       </c>
@@ -19988,12 +21776,8 @@
         <v>4726</v>
       </c>
       <c r="C38" s="49"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4663</v>
       </c>
@@ -20001,370 +21785,200 @@
         <v>4727</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4664</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4665</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4666</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4667</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4668</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4669</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4670</v>
       </c>
-      <c r="C46" s="119"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4671</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4672</v>
       </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4673</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4674</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4675</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="116"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4676</v>
       </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4677</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4678</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4679</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="91"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4680</v>
       </c>
-      <c r="C56" s="120"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="116"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4681</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4682</v>
       </c>
-      <c r="C58" s="120"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="116"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4683</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="116"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4684</v>
       </c>
-      <c r="C60" s="124"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4685</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="117"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4686</v>
       </c>
-      <c r="C62" s="121"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="82"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4687</v>
       </c>
-      <c r="C63" s="120"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="116"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4688</v>
       </c>
-      <c r="C64" s="124"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="38"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4689</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="117"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4690</v>
       </c>
-      <c r="C66" s="119"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4691</v>
       </c>
-      <c r="C67" s="119"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4692</v>
       </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4693</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4694</v>
       </c>
-      <c r="C70" s="119"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4695</v>
       </c>
-      <c r="C71" s="125"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="118"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4696</v>
       </c>
-      <c r="C72" s="119"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4697</v>
       </c>
-      <c r="C73" s="119"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4698</v>
       </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="116"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4699</v>
       </c>
-      <c r="C75" s="126"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
+      <c r="C75" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20376,8 +21990,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20408,11 +22022,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.19782608695652174</v>
       </c>
@@ -20429,9 +22043,9 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -21901,11 +23515,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.265625</v>
       </c>
@@ -21926,9 +23540,9 @@
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23663,11 +25277,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.12723214285714285</v>
       </c>
@@ -23684,9 +25298,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -25064,11 +26678,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.15217391304347827</v>
       </c>
@@ -25088,9 +26702,9 @@
       <c r="D2" s="97">
         <v>1</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -41762,11 +43376,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G74))/M1</f>
         <v>0.26027397260273971</v>
       </c>
@@ -41792,9 +43406,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -46986,11 +48600,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="121" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117">
+      <c r="K1" s="121"/>
+      <c r="L1" s="122">
         <f>(SUM(D2:G13))/M1</f>
         <v>0.77083333333333337</v>
       </c>
@@ -47019,9 +48633,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC82D4-0B52-4A23-ACAC-D654E243BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991AA71-5B02-401F-A314-E4A6A2B1CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="9" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="27" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -15446,7 +15446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -15600,21 +15600,15 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16096,7 +16090,7 @@
   <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16128,13 +16122,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G175))/M1</f>
-        <v>9.4827586206896547E-2</v>
+        <v>0.10775862068965517</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16161,9 +16155,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -16824,17 +16818,17 @@
         <v>619</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="95">
-        <v>0</v>
-      </c>
-      <c r="E34" s="95">
-        <v>0</v>
-      </c>
-      <c r="F34" s="95">
-        <v>0</v>
-      </c>
-      <c r="G34" s="95">
-        <v>0</v>
+      <c r="D34" s="108">
+        <v>1</v>
+      </c>
+      <c r="E34" s="108">
+        <v>1</v>
+      </c>
+      <c r="F34" s="108">
+        <v>1</v>
+      </c>
+      <c r="G34" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -16866,11 +16860,11 @@
         <v>621</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="95">
-        <v>0</v>
-      </c>
-      <c r="E36" s="95">
-        <v>0</v>
+      <c r="D36" s="107">
+        <v>1</v>
+      </c>
+      <c r="E36" s="107">
+        <v>1</v>
       </c>
       <c r="F36" s="95">
         <v>0</v>
@@ -16971,8 +16965,8 @@
         <v>625</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="95">
-        <v>0</v>
+      <c r="D41" s="107">
+        <v>1</v>
       </c>
       <c r="E41" s="95">
         <v>0</v>
@@ -19548,8 +19542,8 @@
         <v>720</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="95">
-        <v>0</v>
+      <c r="D162" s="107">
+        <v>1</v>
       </c>
       <c r="E162" s="95">
         <v>0</v>
@@ -19590,8 +19584,8 @@
         <v>722</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="95">
-        <v>0</v>
+      <c r="D164" s="107">
+        <v>1</v>
       </c>
       <c r="E164" s="95">
         <v>0</v>
@@ -19857,7 +19851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
@@ -19865,7 +19859,7 @@
   <cols>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="123"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -19875,23 +19869,23 @@
       <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="123">
-        <v>1</v>
-      </c>
-      <c r="E1" s="123">
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="123">
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="123">
+      <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G75))/M1</f>
         <v>0.70608108108108103</v>
       </c>
@@ -19917,10 +19911,10 @@
       <c r="F2" s="97">
         <v>1</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="G2" s="99"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19981,7 +19975,7 @@
       <c r="F5" s="97">
         <v>1</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -20000,7 +19994,7 @@
       <c r="F6" s="97">
         <v>1</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -20086,7 +20080,7 @@
       <c r="F10" s="97">
         <v>1</v>
       </c>
-      <c r="G10" s="125"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -20125,8 +20119,8 @@
       <c r="E12" s="97">
         <v>1</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -20188,10 +20182,10 @@
       <c r="E15" s="97">
         <v>1</v>
       </c>
-      <c r="F15" s="126">
-        <v>1</v>
-      </c>
-      <c r="G15" s="125"/>
+      <c r="F15" s="122">
+        <v>1</v>
+      </c>
+      <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -20229,9 +20223,9 @@
       <c r="D17" s="97">
         <v>1</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -20268,8 +20262,8 @@
       <c r="E19" s="97">
         <v>1</v>
       </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -20332,7 +20326,7 @@
       <c r="F22" s="97">
         <v>1</v>
       </c>
-      <c r="G22" s="125"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -20350,8 +20344,8 @@
       <c r="E23" s="97">
         <v>1</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -20387,9 +20381,9 @@
       <c r="D25" s="97">
         <v>1</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -20424,10 +20418,10 @@
       <c r="C27" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -20443,8 +20437,8 @@
       <c r="E28" s="97">
         <v>1</v>
       </c>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -20456,10 +20450,10 @@
       <c r="C29" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -20474,9 +20468,9 @@
       <c r="D30" s="97">
         <v>1</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -20560,7 +20554,7 @@
       <c r="F34" s="97">
         <v>1</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="99"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -20635,10 +20629,10 @@
         <v>4813</v>
       </c>
       <c r="C38" s="45"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -20680,7 +20674,7 @@
       <c r="F40" s="97">
         <v>1</v>
       </c>
-      <c r="G40" s="125"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -20784,8 +20778,8 @@
       <c r="E45" s="97">
         <v>1</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -20800,9 +20794,9 @@
       <c r="D46" s="97">
         <v>1</v>
       </c>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -20839,8 +20833,8 @@
       <c r="E48" s="97">
         <v>1</v>
       </c>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -20891,7 +20885,7 @@
       <c r="B51" t="s">
         <v>1347</v>
       </c>
-      <c r="C51" s="124" t="s">
+      <c r="C51" s="121" t="s">
         <v>2174</v>
       </c>
       <c r="D51" s="97">
@@ -20903,7 +20897,7 @@
       <c r="F51" s="97">
         <v>1</v>
       </c>
-      <c r="G51" s="125"/>
+      <c r="G51" s="99"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -20912,7 +20906,7 @@
       <c r="B52" t="s">
         <v>4818</v>
       </c>
-      <c r="C52" s="124"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="97">
         <v>1</v>
       </c>
@@ -20922,7 +20916,7 @@
       <c r="F52" s="97">
         <v>1</v>
       </c>
-      <c r="G52" s="125"/>
+      <c r="G52" s="99"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -20931,7 +20925,7 @@
       <c r="B53" t="s">
         <v>4819</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="121"/>
       <c r="D53" s="97">
         <v>1</v>
       </c>
@@ -20941,7 +20935,7 @@
       <c r="F53" s="97">
         <v>1</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="99"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -20950,13 +20944,13 @@
       <c r="B54" t="s">
         <v>4820</v>
       </c>
-      <c r="C54" s="124"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="97">
         <v>1</v>
       </c>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -20965,11 +20959,11 @@
       <c r="B55" t="s">
         <v>2694</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -20978,13 +20972,13 @@
       <c r="B56" t="s">
         <v>4821</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="121" t="s">
         <v>2174</v>
       </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -21021,8 +21015,8 @@
       <c r="E58" s="97">
         <v>1</v>
       </c>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -21080,8 +21074,8 @@
       <c r="E61" s="97">
         <v>1</v>
       </c>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -21117,9 +21111,9 @@
       <c r="D63" s="97">
         <v>1</v>
       </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -21132,9 +21126,9 @@
       <c r="D64" s="97">
         <v>1</v>
       </c>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -21149,9 +21143,9 @@
       <c r="D65" s="97">
         <v>1</v>
       </c>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -21167,8 +21161,8 @@
       <c r="E66" s="97">
         <v>1</v>
       </c>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -21184,8 +21178,8 @@
       <c r="E67" s="97">
         <v>1</v>
       </c>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -21201,8 +21195,8 @@
       <c r="E68" s="97">
         <v>1</v>
       </c>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -21302,8 +21296,8 @@
       <c r="E73" s="97">
         <v>1</v>
       </c>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -21315,10 +21309,10 @@
       <c r="C74" s="30" t="s">
         <v>4836</v>
       </c>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -21330,10 +21324,10 @@
       <c r="C75" s="5" t="s">
         <v>2174</v>
       </c>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22022,11 +22016,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.19782608695652174</v>
       </c>
@@ -22043,9 +22037,9 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23515,11 +23509,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.265625</v>
       </c>
@@ -23540,9 +23534,9 @@
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -25277,11 +25271,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.12723214285714285</v>
       </c>
@@ -25298,9 +25292,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -26678,11 +26672,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.15217391304347827</v>
       </c>
@@ -26702,9 +26696,9 @@
       <c r="D2" s="97">
         <v>1</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -41080,8 +41074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41204,6 +41198,7 @@
         <v>626</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -43376,11 +43371,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G74))/M1</f>
         <v>0.26027397260273971</v>
       </c>
@@ -43406,9 +43401,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -48600,11 +48595,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122">
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
         <f>(SUM(D2:G13))/M1</f>
         <v>0.77083333333333337</v>
       </c>
@@ -48633,9 +48628,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -1,68 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Desktop\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991AA71-5B02-401F-A314-E4A6A2B1CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785B531-5227-4CAC-9E99-C8E8C021817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="27" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
-    <sheet name="Tokens" sheetId="50" r:id="rId2"/>
-    <sheet name="EX1" sheetId="4" r:id="rId3"/>
-    <sheet name="EX2" sheetId="5" r:id="rId4"/>
-    <sheet name="EX3" sheetId="9" r:id="rId5"/>
-    <sheet name="EX4" sheetId="25" r:id="rId6"/>
-    <sheet name="EX5" sheetId="26" r:id="rId7"/>
-    <sheet name="EX6" sheetId="27" r:id="rId8"/>
-    <sheet name="EX7" sheetId="28" r:id="rId9"/>
-    <sheet name="EX8" sheetId="29" r:id="rId10"/>
-    <sheet name="LM" sheetId="30" r:id="rId11"/>
-    <sheet name="BT1" sheetId="1" r:id="rId12"/>
-    <sheet name="BT2" sheetId="2" r:id="rId13"/>
-    <sheet name="BT3" sheetId="6" r:id="rId14"/>
-    <sheet name="BT4" sheetId="7" r:id="rId15"/>
-    <sheet name="BT5" sheetId="8" r:id="rId16"/>
-    <sheet name="BT6" sheetId="10" r:id="rId17"/>
-    <sheet name="BT7" sheetId="11" r:id="rId18"/>
-    <sheet name="BT8" sheetId="12" r:id="rId19"/>
-    <sheet name="BT9" sheetId="13" r:id="rId20"/>
-    <sheet name="BT10" sheetId="14" r:id="rId21"/>
-    <sheet name="BT11" sheetId="15" r:id="rId22"/>
-    <sheet name="BT12" sheetId="16" r:id="rId23"/>
-    <sheet name="BT13" sheetId="17" r:id="rId24"/>
-    <sheet name="BT14" sheetId="18" r:id="rId25"/>
-    <sheet name="BT15" sheetId="19" r:id="rId26"/>
-    <sheet name="BT16" sheetId="20" r:id="rId27"/>
-    <sheet name="BT17" sheetId="21" r:id="rId28"/>
-    <sheet name="BT18" sheetId="22" r:id="rId29"/>
-    <sheet name="BT19" sheetId="23" r:id="rId30"/>
-    <sheet name="BT20" sheetId="24" r:id="rId31"/>
-    <sheet name="ST1" sheetId="31" r:id="rId32"/>
-    <sheet name="ST2" sheetId="32" r:id="rId33"/>
-    <sheet name="ST3" sheetId="33" r:id="rId34"/>
-    <sheet name="ST4" sheetId="34" r:id="rId35"/>
-    <sheet name="ST5" sheetId="35" r:id="rId36"/>
-    <sheet name="ST6" sheetId="36" r:id="rId37"/>
-    <sheet name="ST7" sheetId="37" r:id="rId38"/>
-    <sheet name="ST8" sheetId="38" r:id="rId39"/>
-    <sheet name="ST9" sheetId="39" r:id="rId40"/>
-    <sheet name="ST10" sheetId="40" r:id="rId41"/>
-    <sheet name="ST11" sheetId="41" r:id="rId42"/>
-    <sheet name="ST12" sheetId="42" r:id="rId43"/>
-    <sheet name="ST13" sheetId="43" r:id="rId44"/>
-    <sheet name="ST14" sheetId="44" r:id="rId45"/>
-    <sheet name="ST15" sheetId="45" r:id="rId46"/>
-    <sheet name="ST16" sheetId="46" r:id="rId47"/>
-    <sheet name="ST17" sheetId="47" r:id="rId48"/>
-    <sheet name="ST18" sheetId="48" r:id="rId49"/>
-    <sheet name="ST19" sheetId="49" r:id="rId50"/>
+    <sheet name="RB1" sheetId="51" r:id="rId2"/>
+    <sheet name="Tokens" sheetId="50" r:id="rId3"/>
+    <sheet name="EX1" sheetId="4" r:id="rId4"/>
+    <sheet name="EX2" sheetId="5" r:id="rId5"/>
+    <sheet name="EX3" sheetId="9" r:id="rId6"/>
+    <sheet name="EX4" sheetId="25" r:id="rId7"/>
+    <sheet name="EX5" sheetId="26" r:id="rId8"/>
+    <sheet name="EX6" sheetId="27" r:id="rId9"/>
+    <sheet name="EX7" sheetId="28" r:id="rId10"/>
+    <sheet name="EX8" sheetId="29" r:id="rId11"/>
+    <sheet name="LM" sheetId="30" r:id="rId12"/>
+    <sheet name="BT1" sheetId="1" r:id="rId13"/>
+    <sheet name="BT2" sheetId="2" r:id="rId14"/>
+    <sheet name="BT3" sheetId="6" r:id="rId15"/>
+    <sheet name="BT4" sheetId="7" r:id="rId16"/>
+    <sheet name="BT5" sheetId="8" r:id="rId17"/>
+    <sheet name="BT6" sheetId="10" r:id="rId18"/>
+    <sheet name="BT7" sheetId="11" r:id="rId19"/>
+    <sheet name="BT8" sheetId="12" r:id="rId20"/>
+    <sheet name="BT9" sheetId="13" r:id="rId21"/>
+    <sheet name="BT10" sheetId="14" r:id="rId22"/>
+    <sheet name="BT11" sheetId="15" r:id="rId23"/>
+    <sheet name="BT12" sheetId="16" r:id="rId24"/>
+    <sheet name="BT13" sheetId="17" r:id="rId25"/>
+    <sheet name="BT14" sheetId="18" r:id="rId26"/>
+    <sheet name="BT15" sheetId="19" r:id="rId27"/>
+    <sheet name="BT16" sheetId="20" r:id="rId28"/>
+    <sheet name="BT17" sheetId="21" r:id="rId29"/>
+    <sheet name="BT18" sheetId="22" r:id="rId30"/>
+    <sheet name="BT19" sheetId="23" r:id="rId31"/>
+    <sheet name="BT20" sheetId="24" r:id="rId32"/>
+    <sheet name="ST1" sheetId="31" r:id="rId33"/>
+    <sheet name="ST2" sheetId="32" r:id="rId34"/>
+    <sheet name="ST3" sheetId="33" r:id="rId35"/>
+    <sheet name="ST4" sheetId="34" r:id="rId36"/>
+    <sheet name="ST5" sheetId="35" r:id="rId37"/>
+    <sheet name="ST6" sheetId="36" r:id="rId38"/>
+    <sheet name="ST7" sheetId="37" r:id="rId39"/>
+    <sheet name="ST8" sheetId="38" r:id="rId40"/>
+    <sheet name="ST9" sheetId="39" r:id="rId41"/>
+    <sheet name="ST10" sheetId="40" r:id="rId42"/>
+    <sheet name="ST11" sheetId="41" r:id="rId43"/>
+    <sheet name="ST12" sheetId="42" r:id="rId44"/>
+    <sheet name="ST13" sheetId="43" r:id="rId45"/>
+    <sheet name="ST14" sheetId="44" r:id="rId46"/>
+    <sheet name="ST15" sheetId="45" r:id="rId47"/>
+    <sheet name="ST16" sheetId="46" r:id="rId48"/>
+    <sheet name="ST17" sheetId="47" r:id="rId49"/>
+    <sheet name="ST18" sheetId="48" r:id="rId50"/>
+    <sheet name="ST19" sheetId="49" r:id="rId51"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Promos!$A$1:$M$175</definedName>
@@ -403,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="4837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="4847">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15173,6 +15174,36 @@
       </rPr>
       <t xml:space="preserve"> amarillo</t>
     </r>
+  </si>
+  <si>
+    <t>grandkuwaga ace</t>
+  </si>
+  <si>
+    <t>tyrankabuterumon</t>
+  </si>
+  <si>
+    <t>Metropolitan police4</t>
+  </si>
+  <si>
+    <t>metallifikuwagamon</t>
+  </si>
+  <si>
+    <t>rappidmon</t>
+  </si>
+  <si>
+    <t>commandramon</t>
+  </si>
+  <si>
+    <t>ukkomon</t>
+  </si>
+  <si>
+    <t>bladekuwaga</t>
+  </si>
+  <si>
+    <t>kokabuterimon</t>
+  </si>
+  <si>
+    <t>Ruli</t>
   </si>
 </sst>
 </file>
@@ -16089,8 +16120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16128,7 +16159,7 @@
       <c r="K1" s="123"/>
       <c r="L1" s="124">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.10775862068965517</v>
+        <v>0.11781609195402298</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16944,8 +16975,8 @@
         <v>624</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="95">
-        <v>0</v>
+      <c r="D40" s="107">
+        <v>1</v>
       </c>
       <c r="E40" s="95">
         <v>0</v>
@@ -18233,8 +18264,8 @@
         <v>187</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="95">
-        <v>0</v>
+      <c r="D101" s="107">
+        <v>1</v>
       </c>
       <c r="E101" s="95">
         <v>0</v>
@@ -18363,17 +18394,17 @@
         <v>673</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="95">
-        <v>0</v>
-      </c>
-      <c r="G107" s="95">
-        <v>0</v>
+      <c r="D107" s="108">
+        <v>1</v>
+      </c>
+      <c r="E107" s="108">
+        <v>1</v>
+      </c>
+      <c r="F107" s="108">
+        <v>1</v>
+      </c>
+      <c r="G107" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -18384,17 +18415,17 @@
         <v>674</v>
       </c>
       <c r="C108" s="10"/>
-      <c r="D108" s="107">
-        <v>1</v>
-      </c>
-      <c r="E108" s="107">
-        <v>1</v>
-      </c>
-      <c r="F108" s="95">
-        <v>0</v>
-      </c>
-      <c r="G108" s="95">
-        <v>0</v>
+      <c r="D108" s="108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -19287,8 +19318,8 @@
       <c r="D150" s="97">
         <v>1</v>
       </c>
-      <c r="E150" s="95">
-        <v>0</v>
+      <c r="E150" s="107">
+        <v>1</v>
       </c>
       <c r="F150" s="95">
         <v>0</v>
@@ -19848,11 +19879,755 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C5" s="76"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="F15" s="102"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>696</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>692</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>693</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C55" s="50"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C59" s="23"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C60" s="22"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C61" s="56"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C62" s="58"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B64" t="s">
+        <v>697</v>
+      </c>
+      <c r="C64" s="45"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B65" t="s">
+        <v>694</v>
+      </c>
+      <c r="C65" s="65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C71" s="77"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="D40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19887,7 +20662,7 @@
       <c r="K1" s="123"/>
       <c r="L1" s="124">
         <f>(SUM(D2:G75))/M1</f>
-        <v>0.70608108108108103</v>
+        <v>0.70945945945945943</v>
       </c>
       <c r="M1" s="96">
         <f>74*4</f>
@@ -20665,16 +21440,18 @@
         <v>183</v>
       </c>
       <c r="C40" s="35"/>
-      <c r="D40" s="97">
-        <v>1</v>
-      </c>
-      <c r="E40" s="97">
-        <v>1</v>
-      </c>
-      <c r="F40" s="97">
-        <v>1</v>
-      </c>
-      <c r="G40" s="99"/>
+      <c r="D40" s="103">
+        <v>1</v>
+      </c>
+      <c r="E40" s="103">
+        <v>1</v>
+      </c>
+      <c r="F40" s="103">
+        <v>1</v>
+      </c>
+      <c r="G40" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -21338,12 +22115,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16099350-61BB-4DD4-B9DE-2BCFF1F868CB}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21651,6 +22428,8 @@
         <v>4713</v>
       </c>
       <c r="C25" s="65"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -21979,7 +22758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1D4EB2-A0CA-4FAD-8E57-9A4DC13D930D}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
@@ -23473,7 +24252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA56804-6A9E-402F-B031-BA7253DC714A}">
   <dimension ref="A1:M113"/>
   <sheetViews>
@@ -25235,12 +26014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2665C-88A0-4C97-BC3C-CE855F56BE02}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25964,6 +26743,7 @@
         <v>1133</v>
       </c>
       <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -26636,7 +27416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBCD81-F172-48FD-BFD1-AB8B6468CB73}">
   <dimension ref="A1:M116"/>
   <sheetViews>
@@ -28233,7 +29013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EADFA4-B03A-4A5C-BF19-C33CF1C28CA2}">
   <dimension ref="A1:G113"/>
   <sheetViews>
@@ -29388,7 +30168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
@@ -30743,12 +31523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED9F24-D5F1-4918-913C-62878FD5AD90}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31623,6 +32403,8 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -31691,7 +32473,7 @@
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1948</v>
       </c>
@@ -31700,7 +32482,7 @@
       </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1949</v>
       </c>
@@ -31709,7 +32491,7 @@
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1950</v>
       </c>
@@ -31718,7 +32500,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1951</v>
       </c>
@@ -31727,7 +32509,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1952</v>
       </c>
@@ -31736,7 +32518,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1953</v>
       </c>
@@ -31745,7 +32527,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1954</v>
       </c>
@@ -31754,7 +32536,7 @@
       </c>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1955</v>
       </c>
@@ -31763,7 +32545,7 @@
       </c>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1956</v>
       </c>
@@ -31775,7 +32557,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1957</v>
       </c>
@@ -31783,10 +32565,12 @@
         <v>2038</v>
       </c>
       <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1958</v>
       </c>
@@ -31797,7 +32581,7 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>1959</v>
       </c>
@@ -31808,7 +32592,7 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1960</v>
       </c>
@@ -31817,7 +32601,7 @@
       </c>
       <c r="C109" s="13"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1961</v>
       </c>
@@ -31826,7 +32610,7 @@
       </c>
       <c r="C110" s="13"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1962</v>
       </c>
@@ -31835,7 +32619,7 @@
       </c>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1963</v>
       </c>
@@ -31860,12 +32644,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B3C36B-CFD4-41A0-A98A-A4B84E6F8F4F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F8D3F-14FD-470C-AE18-07C3FEC41D51}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32756,6 +33563,8 @@
         <v>689</v>
       </c>
       <c r="C86" s="1"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -33033,61 +33842,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0AE508-AC32-4900-A8F0-23DB602B6050}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3130</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDC2A0D-B05E-4A37-A9BB-06B7F5291BCE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G48" sqref="D48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33571,6 +34331,10 @@
         <v>2385</v>
       </c>
       <c r="C47" s="4"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -33580,9 +34344,12 @@
         <v>1639</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2286</v>
       </c>
@@ -33591,7 +34358,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2287</v>
       </c>
@@ -33599,8 +34366,12 @@
         <v>2387</v>
       </c>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2288</v>
       </c>
@@ -33611,7 +34382,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2289</v>
       </c>
@@ -33622,7 +34393,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2290</v>
       </c>
@@ -33631,7 +34402,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2291</v>
       </c>
@@ -33640,7 +34411,7 @@
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2292</v>
       </c>
@@ -33651,7 +34422,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2293</v>
       </c>
@@ -33660,7 +34431,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2294</v>
       </c>
@@ -33669,7 +34440,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2295</v>
       </c>
@@ -33678,7 +34449,7 @@
       </c>
       <c r="C58" s="10"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2296</v>
       </c>
@@ -33689,7 +34460,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2297</v>
       </c>
@@ -33698,7 +34469,7 @@
       </c>
       <c r="C60" s="10"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2298</v>
       </c>
@@ -33707,7 +34478,7 @@
       </c>
       <c r="C61" s="10"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2299</v>
       </c>
@@ -33720,7 +34491,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2300</v>
       </c>
@@ -33729,7 +34500,7 @@
       </c>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2301</v>
       </c>
@@ -34239,12 +35010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4CCD3-F266-4FA7-8C5C-BE1E474DC6DF}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34700,12 +35471,14 @@
         <v>2750</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>232</v>
       </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -34737,6 +35510,10 @@
         <v>185</v>
       </c>
       <c r="C46" s="4"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -35080,7 +35857,7 @@
       </c>
       <c r="C80" s="13"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2521</v>
       </c>
@@ -35089,7 +35866,7 @@
       </c>
       <c r="C81" s="51"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2522</v>
       </c>
@@ -35098,7 +35875,7 @@
       </c>
       <c r="C82" s="13"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2523</v>
       </c>
@@ -35107,7 +35884,7 @@
       </c>
       <c r="C83" s="51"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2524</v>
       </c>
@@ -35117,7 +35894,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2525</v>
       </c>
@@ -35126,7 +35903,7 @@
       </c>
       <c r="C85" s="13"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2526</v>
       </c>
@@ -35135,7 +35912,7 @@
       </c>
       <c r="C86" s="60"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2527</v>
       </c>
@@ -35144,7 +35921,7 @@
       </c>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2528</v>
       </c>
@@ -35154,7 +35931,7 @@
       <c r="C88" s="24"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2529</v>
       </c>
@@ -35163,7 +35940,7 @@
       </c>
       <c r="C89" s="61"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2530</v>
       </c>
@@ -35172,7 +35949,7 @@
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2531</v>
       </c>
@@ -35181,7 +35958,7 @@
       </c>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2532</v>
       </c>
@@ -35190,7 +35967,7 @@
       </c>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2533</v>
       </c>
@@ -35198,8 +35975,10 @@
         <v>2785</v>
       </c>
       <c r="C93" s="10"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2534</v>
       </c>
@@ -35208,7 +35987,7 @@
       </c>
       <c r="C94" s="23"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2535</v>
       </c>
@@ -35217,7 +35996,7 @@
       </c>
       <c r="C95" s="24"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2536</v>
       </c>
@@ -35403,12 +36182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5AFE3-81A7-4C3F-8CA3-BDA6DC2D3CE2}">
   <dimension ref="A1:BA113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36469,6 +37248,8 @@
         <v>2702</v>
       </c>
       <c r="C87" s="13"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -36727,7 +37508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43077EF-62D2-44C0-916B-3EA4B8692A9F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
@@ -37837,12 +38618,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42F967-E1F3-47EB-9301-1DFFD3817B8E}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38785,7 +39566,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3693</v>
       </c>
@@ -38794,7 +39575,7 @@
       </c>
       <c r="C97" s="81"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3694</v>
       </c>
@@ -38803,7 +39584,7 @@
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3695</v>
       </c>
@@ -38812,7 +39593,7 @@
       </c>
       <c r="C99" s="87"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3696</v>
       </c>
@@ -38821,7 +39602,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3697</v>
       </c>
@@ -38829,8 +39610,10 @@
         <v>1364</v>
       </c>
       <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3698</v>
       </c>
@@ -38841,7 +39624,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3699</v>
       </c>
@@ -38850,7 +39633,7 @@
       </c>
       <c r="C103" s="51"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3743</v>
       </c>
@@ -38859,7 +39642,7 @@
       </c>
       <c r="C104" s="13"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3744</v>
       </c>
@@ -38870,7 +39653,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3745</v>
       </c>
@@ -38879,7 +39662,7 @@
       </c>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3746</v>
       </c>
@@ -38888,7 +39671,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3747</v>
       </c>
@@ -38897,7 +39680,7 @@
       </c>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3748</v>
       </c>
@@ -38906,7 +39689,7 @@
       </c>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3749</v>
       </c>
@@ -38915,7 +39698,7 @@
       </c>
       <c r="C110" s="13"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3750</v>
       </c>
@@ -38924,7 +39707,7 @@
       </c>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3751</v>
       </c>
@@ -38949,12 +39732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39273,7 +40056,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3795</v>
       </c>
@@ -39282,7 +40065,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3796</v>
       </c>
@@ -39291,7 +40074,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3797</v>
       </c>
@@ -39302,7 +40085,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3798</v>
       </c>
@@ -39311,7 +40094,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3799</v>
       </c>
@@ -39320,7 +40103,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3800</v>
       </c>
@@ -39329,7 +40112,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3801</v>
       </c>
@@ -39338,7 +40121,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3802</v>
       </c>
@@ -39347,7 +40130,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3803</v>
       </c>
@@ -39356,7 +40139,7 @@
       </c>
       <c r="C41" s="31"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3804</v>
       </c>
@@ -39365,7 +40148,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3805</v>
       </c>
@@ -39374,7 +40157,7 @@
       </c>
       <c r="C43" s="89"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3806</v>
       </c>
@@ -39383,7 +40166,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3807</v>
       </c>
@@ -39392,7 +40175,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3808</v>
       </c>
@@ -39400,8 +40183,12 @@
         <v>187</v>
       </c>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3809</v>
       </c>
@@ -39410,7 +40197,7 @@
       </c>
       <c r="C47" s="35"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3810</v>
       </c>
@@ -39507,6 +40294,10 @@
         <v>1133</v>
       </c>
       <c r="C57" s="10"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -39545,6 +40336,10 @@
         <v>3878</v>
       </c>
       <c r="C61" s="71"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -39581,6 +40376,10 @@
         <v>3881</v>
       </c>
       <c r="C65" s="66"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -39619,6 +40418,8 @@
         <v>3885</v>
       </c>
       <c r="C69" s="85"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -39723,7 +40524,7 @@
       </c>
       <c r="C80" s="22"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3843</v>
       </c>
@@ -39732,7 +40533,7 @@
       </c>
       <c r="C81" s="22"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3844</v>
       </c>
@@ -39741,7 +40542,7 @@
       </c>
       <c r="C82" s="22"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3845</v>
       </c>
@@ -39750,7 +40551,7 @@
       </c>
       <c r="C83" s="64"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3846</v>
       </c>
@@ -39759,7 +40560,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3847</v>
       </c>
@@ -39768,7 +40569,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3848</v>
       </c>
@@ -39776,8 +40577,10 @@
         <v>206</v>
       </c>
       <c r="C86" s="92"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3849</v>
       </c>
@@ -39787,7 +40590,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3850</v>
       </c>
@@ -39796,7 +40599,7 @@
       </c>
       <c r="C88" s="13"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3851</v>
       </c>
@@ -39805,7 +40608,7 @@
       </c>
       <c r="C89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3852</v>
       </c>
@@ -39814,7 +40617,7 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3853</v>
       </c>
@@ -39823,7 +40626,7 @@
       </c>
       <c r="C91" s="30"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3854</v>
       </c>
@@ -39832,7 +40635,7 @@
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3855</v>
       </c>
@@ -39841,7 +40644,7 @@
       </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3856</v>
       </c>
@@ -39850,7 +40653,7 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3857</v>
       </c>
@@ -39859,7 +40662,7 @@
       </c>
       <c r="C95" s="93"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3858</v>
       </c>
@@ -39896,6 +40699,8 @@
         <v>3903</v>
       </c>
       <c r="C99" s="28"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -39946,12 +40751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C58CEC-A591-498E-8A37-59AAA5BB4EB2}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97:G97"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40018,6 +40823,10 @@
         <v>2353</v>
       </c>
       <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -40027,6 +40836,10 @@
         <v>4008</v>
       </c>
       <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -40408,6 +41221,10 @@
         <v>183</v>
       </c>
       <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -40444,6 +41261,9 @@
         <v>190</v>
       </c>
       <c r="C48" s="4"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -40543,6 +41363,10 @@
       <c r="C57" s="79" t="s">
         <v>1652</v>
       </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -40567,6 +41391,10 @@
       <c r="C59" s="79" t="s">
         <v>1652</v>
       </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -41058,24 +41886,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6F437-4233-4565-A960-B028FA067CC9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42016,6 +42908,8 @@
         <v>976</v>
       </c>
       <c r="C86" s="3"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -42206,7 +43100,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0AE508-AC32-4900-A8F0-23DB602B6050}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -43335,956 +44278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
-  <dimension ref="A1:M74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-      <c r="J1" s="123" t="s">
-        <v>4049</v>
-      </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
-        <f>(SUM(D2:G74))/M1</f>
-        <v>0.26027397260273971</v>
-      </c>
-      <c r="M1" s="96">
-        <f>73*4</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>736</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>737</v>
-      </c>
-      <c r="B6" t="s">
-        <v>805</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>738</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>739</v>
-      </c>
-      <c r="B8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>740</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>741</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>743</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>744</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>745</v>
-      </c>
-      <c r="B14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>746</v>
-      </c>
-      <c r="B15" t="s">
-        <v>806</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>747</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>748</v>
-      </c>
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>749</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>750</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>751</v>
-      </c>
-      <c r="B20" t="s">
-        <v>807</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>752</v>
-      </c>
-      <c r="B21" t="s">
-        <v>808</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>753</v>
-      </c>
-      <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>754</v>
-      </c>
-      <c r="B23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>755</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>756</v>
-      </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>757</v>
-      </c>
-      <c r="B26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>758</v>
-      </c>
-      <c r="B27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>759</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>760</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>761</v>
-      </c>
-      <c r="B30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>762</v>
-      </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>763</v>
-      </c>
-      <c r="B32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>764</v>
-      </c>
-      <c r="B33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>765</v>
-      </c>
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>766</v>
-      </c>
-      <c r="B35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>767</v>
-      </c>
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>768</v>
-      </c>
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>769</v>
-      </c>
-      <c r="B38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>770</v>
-      </c>
-      <c r="B39" t="s">
-        <v>810</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>771</v>
-      </c>
-      <c r="B40" t="s">
-        <v>811</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>772</v>
-      </c>
-      <c r="B41" t="s">
-        <v>812</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>773</v>
-      </c>
-      <c r="B42" t="s">
-        <v>813</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>774</v>
-      </c>
-      <c r="B43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>775</v>
-      </c>
-      <c r="B44" t="s">
-        <v>814</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>776</v>
-      </c>
-      <c r="B45" t="s">
-        <v>381</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>777</v>
-      </c>
-      <c r="B46" t="s">
-        <v>815</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>778</v>
-      </c>
-      <c r="B47" t="s">
-        <v>386</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>779</v>
-      </c>
-      <c r="B48" t="s">
-        <v>385</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>780</v>
-      </c>
-      <c r="B49" t="s">
-        <v>816</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>781</v>
-      </c>
-      <c r="B50" t="s">
-        <v>817</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1</v>
-      </c>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>782</v>
-      </c>
-      <c r="B51" t="s">
-        <v>818</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8">
-        <v>1</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>783</v>
-      </c>
-      <c r="B52" t="s">
-        <v>610</v>
-      </c>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>784</v>
-      </c>
-      <c r="B53" t="s">
-        <v>819</v>
-      </c>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>785</v>
-      </c>
-      <c r="B54" t="s">
-        <v>820</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>786</v>
-      </c>
-      <c r="B55" t="s">
-        <v>731</v>
-      </c>
-      <c r="C55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>787</v>
-      </c>
-      <c r="B56" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>788</v>
-      </c>
-      <c r="B57" t="s">
-        <v>392</v>
-      </c>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>789</v>
-      </c>
-      <c r="B58" t="s">
-        <v>395</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>790</v>
-      </c>
-      <c r="B59" t="s">
-        <v>397</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1</v>
-      </c>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>791</v>
-      </c>
-      <c r="B60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="8">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>792</v>
-      </c>
-      <c r="B61" t="s">
-        <v>821</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="8">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>793</v>
-      </c>
-      <c r="B62" t="s">
-        <v>398</v>
-      </c>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>794</v>
-      </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>795</v>
-      </c>
-      <c r="B64" t="s">
-        <v>822</v>
-      </c>
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>796</v>
-      </c>
-      <c r="B65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>797</v>
-      </c>
-      <c r="B66" t="s">
-        <v>404</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>798</v>
-      </c>
-      <c r="B67" t="s">
-        <v>823</v>
-      </c>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>799</v>
-      </c>
-      <c r="B68" t="s">
-        <v>824</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="B69" t="s">
-        <v>825</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>801</v>
-      </c>
-      <c r="B70" t="s">
-        <v>826</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>802</v>
-      </c>
-      <c r="B71" t="s">
-        <v>827</v>
-      </c>
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>803</v>
-      </c>
-      <c r="B72" t="s">
-        <v>828</v>
-      </c>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>804</v>
-      </c>
-      <c r="B73" t="s">
-        <v>830</v>
-      </c>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>829</v>
-      </c>
-      <c r="B74" t="s">
-        <v>831</v>
-      </c>
-      <c r="C74" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -45346,7 +45340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2EF3FC-3697-4B41-BC25-3641E22A5B39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -45358,7 +45352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E1525-1541-42D8-9206-484D6714F6FC}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -45551,7 +45545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FC071-9C76-46DF-AC92-9A8FC4C10E21}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -45752,7 +45746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A759D-EE31-48A1-99D6-BC4068F83D22}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -45941,7 +45935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE5EDF-54E0-4DD6-9142-209914D3DB37}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -46136,7 +46130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6A15D-042A-415D-89C4-998B7BF77056}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -46325,7 +46319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4045B-6CEA-41C3-A52A-FF388B919F40}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -46525,12 +46519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1811A8-9DDC-4D2E-8222-522E9D19BEA0}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46695,7 +46689,965 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G38" sqref="D38:G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>4049</v>
+      </c>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124">
+        <f>(SUM(D2:G74))/M1</f>
+        <v>0.27054794520547948</v>
+      </c>
+      <c r="M1" s="96">
+        <f>73*4</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>745</v>
+      </c>
+      <c r="B14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>747</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>748</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>749</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>750</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>751</v>
+      </c>
+      <c r="B20" t="s">
+        <v>807</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>752</v>
+      </c>
+      <c r="B21" t="s">
+        <v>808</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>753</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>754</v>
+      </c>
+      <c r="B23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>755</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>758</v>
+      </c>
+      <c r="B27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>759</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>761</v>
+      </c>
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>762</v>
+      </c>
+      <c r="B31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>763</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>764</v>
+      </c>
+      <c r="B33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>765</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>766</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>767</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>768</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>769</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>770</v>
+      </c>
+      <c r="B39" t="s">
+        <v>810</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>771</v>
+      </c>
+      <c r="B40" t="s">
+        <v>811</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>772</v>
+      </c>
+      <c r="B41" t="s">
+        <v>812</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>773</v>
+      </c>
+      <c r="B42" t="s">
+        <v>813</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>774</v>
+      </c>
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>775</v>
+      </c>
+      <c r="B44" t="s">
+        <v>814</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>776</v>
+      </c>
+      <c r="B45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>777</v>
+      </c>
+      <c r="B46" t="s">
+        <v>815</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>778</v>
+      </c>
+      <c r="B47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>779</v>
+      </c>
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>780</v>
+      </c>
+      <c r="B49" t="s">
+        <v>816</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>781</v>
+      </c>
+      <c r="B50" t="s">
+        <v>817</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>782</v>
+      </c>
+      <c r="B51" t="s">
+        <v>818</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>783</v>
+      </c>
+      <c r="B52" t="s">
+        <v>610</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>784</v>
+      </c>
+      <c r="B53" t="s">
+        <v>819</v>
+      </c>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>785</v>
+      </c>
+      <c r="B54" t="s">
+        <v>820</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>786</v>
+      </c>
+      <c r="B55" t="s">
+        <v>731</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>787</v>
+      </c>
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>788</v>
+      </c>
+      <c r="B57" t="s">
+        <v>392</v>
+      </c>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>789</v>
+      </c>
+      <c r="B58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>790</v>
+      </c>
+      <c r="B59" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>791</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>792</v>
+      </c>
+      <c r="B61" t="s">
+        <v>821</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>793</v>
+      </c>
+      <c r="B62" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>794</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>795</v>
+      </c>
+      <c r="B64" t="s">
+        <v>822</v>
+      </c>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>796</v>
+      </c>
+      <c r="B65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>797</v>
+      </c>
+      <c r="B66" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>798</v>
+      </c>
+      <c r="B67" t="s">
+        <v>823</v>
+      </c>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>799</v>
+      </c>
+      <c r="B68" t="s">
+        <v>824</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="B69" t="s">
+        <v>825</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>801</v>
+      </c>
+      <c r="B70" t="s">
+        <v>826</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>802</v>
+      </c>
+      <c r="B71" t="s">
+        <v>827</v>
+      </c>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>803</v>
+      </c>
+      <c r="B72" t="s">
+        <v>828</v>
+      </c>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>804</v>
+      </c>
+      <c r="B73" t="s">
+        <v>830</v>
+      </c>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>829</v>
+      </c>
+      <c r="B74" t="s">
+        <v>831</v>
+      </c>
+      <c r="C74" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A06971-D0A9-404A-B062-7F231660A129}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -46887,892 +47839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
-  <dimension ref="A1:BB75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7">
-        <v>7</v>
-      </c>
-      <c r="K1" s="7">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7">
-        <v>15</v>
-      </c>
-      <c r="S1" s="7">
-        <v>16</v>
-      </c>
-      <c r="T1" s="7">
-        <v>17</v>
-      </c>
-      <c r="U1" s="7">
-        <v>18</v>
-      </c>
-      <c r="V1" s="7">
-        <v>19</v>
-      </c>
-      <c r="W1" s="7">
-        <v>20</v>
-      </c>
-      <c r="X1" s="7">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="7">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="7">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="7">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="7">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="7">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="7">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="7">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="7">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="7">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="7">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="7">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="7">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="7">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="7">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="7">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="7">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="7">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="7">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="7">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="7">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="7">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="7">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="7">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="7">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="7">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="7">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="7">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="7">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="7">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="7"/>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B3" t="s">
-        <v>930</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B4" t="s">
-        <v>931</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>836</v>
-      </c>
-      <c r="B5" t="s">
-        <v>932</v>
-      </c>
-      <c r="C5" s="35"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>838</v>
-      </c>
-      <c r="B6" t="s">
-        <v>933</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>839</v>
-      </c>
-      <c r="B7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>841</v>
-      </c>
-      <c r="B8" t="s">
-        <v>934</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>842</v>
-      </c>
-      <c r="B9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>844</v>
-      </c>
-      <c r="B10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>845</v>
-      </c>
-      <c r="B11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="24"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>847</v>
-      </c>
-      <c r="B12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>848</v>
-      </c>
-      <c r="B13" t="s">
-        <v>935</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>850</v>
-      </c>
-      <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>851</v>
-      </c>
-      <c r="B15" t="s">
-        <v>936</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>853</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>856</v>
-      </c>
-      <c r="B18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>857</v>
-      </c>
-      <c r="B19" t="s">
-        <v>937</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>859</v>
-      </c>
-      <c r="B20" t="s">
-        <v>939</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>860</v>
-      </c>
-      <c r="B21" t="s">
-        <v>940</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>862</v>
-      </c>
-      <c r="B22" t="s">
-        <v>941</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>863</v>
-      </c>
-      <c r="B23" t="s">
-        <v>942</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>865</v>
-      </c>
-      <c r="B24" t="s">
-        <v>943</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>866</v>
-      </c>
-      <c r="B25" t="s">
-        <v>944</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>868</v>
-      </c>
-      <c r="B26" t="s">
-        <v>945</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>869</v>
-      </c>
-      <c r="B27" t="s">
-        <v>946</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>871</v>
-      </c>
-      <c r="B28" t="s">
-        <v>947</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>872</v>
-      </c>
-      <c r="B29" t="s">
-        <v>948</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>874</v>
-      </c>
-      <c r="B30" t="s">
-        <v>949</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>877</v>
-      </c>
-      <c r="B32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>878</v>
-      </c>
-      <c r="B33" t="s">
-        <v>950</v>
-      </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>880</v>
-      </c>
-      <c r="B34" t="s">
-        <v>951</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>881</v>
-      </c>
-      <c r="B35" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>883</v>
-      </c>
-      <c r="B36" t="s">
-        <v>952</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>884</v>
-      </c>
-      <c r="B37" t="s">
-        <v>953</v>
-      </c>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>886</v>
-      </c>
-      <c r="B38" t="s">
-        <v>954</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>887</v>
-      </c>
-      <c r="B39" t="s">
-        <v>955</v>
-      </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="B40" t="s">
-        <v>956</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>890</v>
-      </c>
-      <c r="B41" t="s">
-        <v>957</v>
-      </c>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>892</v>
-      </c>
-      <c r="B42" t="s">
-        <v>958</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>893</v>
-      </c>
-      <c r="B43" t="s">
-        <v>959</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>895</v>
-      </c>
-      <c r="B44" t="s">
-        <v>960</v>
-      </c>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>896</v>
-      </c>
-      <c r="B45" t="s">
-        <v>430</v>
-      </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>898</v>
-      </c>
-      <c r="B46" t="s">
-        <v>961</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>899</v>
-      </c>
-      <c r="B47" t="s">
-        <v>962</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>901</v>
-      </c>
-      <c r="B48" t="s">
-        <v>963</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>902</v>
-      </c>
-      <c r="B49" t="s">
-        <v>964</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>904</v>
-      </c>
-      <c r="B50" t="s">
-        <v>965</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>905</v>
-      </c>
-      <c r="B51" t="s">
-        <v>966</v>
-      </c>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>906</v>
-      </c>
-      <c r="B52" t="s">
-        <v>967</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>907</v>
-      </c>
-      <c r="B53" t="s">
-        <v>968</v>
-      </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>908</v>
-      </c>
-      <c r="B54" t="s">
-        <v>969</v>
-      </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>909</v>
-      </c>
-      <c r="B55" t="s">
-        <v>970</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>910</v>
-      </c>
-      <c r="B56" t="s">
-        <v>971</v>
-      </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>911</v>
-      </c>
-      <c r="B57" t="s">
-        <v>972</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>912</v>
-      </c>
-      <c r="B58" t="s">
-        <v>973</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>913</v>
-      </c>
-      <c r="B59" t="s">
-        <v>974</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>914</v>
-      </c>
-      <c r="B60" t="s">
-        <v>975</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>915</v>
-      </c>
-      <c r="B61" t="s">
-        <v>976</v>
-      </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>916</v>
-      </c>
-      <c r="B62" t="s">
-        <v>977</v>
-      </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>917</v>
-      </c>
-      <c r="B63" t="s">
-        <v>978</v>
-      </c>
-      <c r="C63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>918</v>
-      </c>
-      <c r="B64" t="s">
-        <v>979</v>
-      </c>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>919</v>
-      </c>
-      <c r="B65" t="s">
-        <v>980</v>
-      </c>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>920</v>
-      </c>
-      <c r="B66" t="s">
-        <v>981</v>
-      </c>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>921</v>
-      </c>
-      <c r="B67" t="s">
-        <v>982</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>922</v>
-      </c>
-      <c r="B68" t="s">
-        <v>983</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>923</v>
-      </c>
-      <c r="B69" t="s">
-        <v>984</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>924</v>
-      </c>
-      <c r="B70" t="s">
-        <v>985</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>925</v>
-      </c>
-      <c r="B71" t="s">
-        <v>986</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>926</v>
-      </c>
-      <c r="B72" t="s">
-        <v>987</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>927</v>
-      </c>
-      <c r="B73" t="s">
-        <v>988</v>
-      </c>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>928</v>
-      </c>
-      <c r="B74" t="s">
-        <v>989</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>929</v>
-      </c>
-      <c r="B75" t="s">
-        <v>990</v>
-      </c>
-      <c r="C75" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F54082-4295-4C20-BA52-1FA4DC05466A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -47964,7 +48031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C86F5B-A06A-4B63-8050-4ED95BDC44B9}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -48162,7 +48229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766049D7-8805-45E7-AD18-9BBCB3727F81}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -48174,7 +48241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211BD086-A7EC-4083-B462-B3F1AA4F74A3}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48364,7 +48431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8369BA-B10C-407A-814D-EB228FD07681}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48559,7 +48626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E0C903-B663-409B-9A59-B0D46CD8BDF5}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -48873,7 +48940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5679FC6-9ED7-4D7E-A17E-CB720602743F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -48885,7 +48952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D39B0-75AD-4DCF-8167-A515D15866AD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -48897,19 +48964,922 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35017152-91B9-4063-9B5D-BA10FB00F6EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
+  <dimension ref="A1:BB75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7">
+        <v>11</v>
+      </c>
+      <c r="O1" s="7">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7">
+        <v>15</v>
+      </c>
+      <c r="S1" s="7">
+        <v>16</v>
+      </c>
+      <c r="T1" s="7">
+        <v>17</v>
+      </c>
+      <c r="U1" s="7">
+        <v>18</v>
+      </c>
+      <c r="V1" s="7">
+        <v>19</v>
+      </c>
+      <c r="W1" s="7">
+        <v>20</v>
+      </c>
+      <c r="X1" s="7">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="7">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="7">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="7">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="7">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="7">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="7">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="7">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="7">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="7">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="7">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="7">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="7">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="7">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="7">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="7">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="7">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="7">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="7"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B8" t="s">
+        <v>934</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>844</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>850</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>851</v>
+      </c>
+      <c r="B15" t="s">
+        <v>936</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>853</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>856</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>857</v>
+      </c>
+      <c r="B19" t="s">
+        <v>937</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>859</v>
+      </c>
+      <c r="B20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" t="s">
+        <v>940</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>862</v>
+      </c>
+      <c r="B22" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>863</v>
+      </c>
+      <c r="B23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>865</v>
+      </c>
+      <c r="B24" t="s">
+        <v>943</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>866</v>
+      </c>
+      <c r="B25" t="s">
+        <v>944</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>868</v>
+      </c>
+      <c r="B26" t="s">
+        <v>945</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>869</v>
+      </c>
+      <c r="B27" t="s">
+        <v>946</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>871</v>
+      </c>
+      <c r="B28" t="s">
+        <v>947</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>872</v>
+      </c>
+      <c r="B29" t="s">
+        <v>948</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>874</v>
+      </c>
+      <c r="B30" t="s">
+        <v>949</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>877</v>
+      </c>
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>878</v>
+      </c>
+      <c r="B33" t="s">
+        <v>950</v>
+      </c>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>880</v>
+      </c>
+      <c r="B34" t="s">
+        <v>951</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>881</v>
+      </c>
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>883</v>
+      </c>
+      <c r="B36" t="s">
+        <v>952</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>884</v>
+      </c>
+      <c r="B37" t="s">
+        <v>953</v>
+      </c>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>886</v>
+      </c>
+      <c r="B38" t="s">
+        <v>954</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>887</v>
+      </c>
+      <c r="B39" t="s">
+        <v>955</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="B40" t="s">
+        <v>956</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>890</v>
+      </c>
+      <c r="B41" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>892</v>
+      </c>
+      <c r="B42" t="s">
+        <v>958</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>893</v>
+      </c>
+      <c r="B43" t="s">
+        <v>959</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>895</v>
+      </c>
+      <c r="B44" t="s">
+        <v>960</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>896</v>
+      </c>
+      <c r="B45" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>898</v>
+      </c>
+      <c r="B46" t="s">
+        <v>961</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>899</v>
+      </c>
+      <c r="B47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>901</v>
+      </c>
+      <c r="B48" t="s">
+        <v>963</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>902</v>
+      </c>
+      <c r="B49" t="s">
+        <v>964</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>904</v>
+      </c>
+      <c r="B50" t="s">
+        <v>965</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>905</v>
+      </c>
+      <c r="B51" t="s">
+        <v>966</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>906</v>
+      </c>
+      <c r="B52" t="s">
+        <v>967</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>907</v>
+      </c>
+      <c r="B53" t="s">
+        <v>968</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>908</v>
+      </c>
+      <c r="B54" t="s">
+        <v>969</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>909</v>
+      </c>
+      <c r="B55" t="s">
+        <v>970</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>910</v>
+      </c>
+      <c r="B56" t="s">
+        <v>971</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>911</v>
+      </c>
+      <c r="B57" t="s">
+        <v>972</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>912</v>
+      </c>
+      <c r="B58" t="s">
+        <v>973</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>913</v>
+      </c>
+      <c r="B59" t="s">
+        <v>974</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>914</v>
+      </c>
+      <c r="B60" t="s">
+        <v>975</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>915</v>
+      </c>
+      <c r="B61" t="s">
+        <v>976</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>916</v>
+      </c>
+      <c r="B62" t="s">
+        <v>977</v>
+      </c>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>917</v>
+      </c>
+      <c r="B63" t="s">
+        <v>978</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>918</v>
+      </c>
+      <c r="B64" t="s">
+        <v>979</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>919</v>
+      </c>
+      <c r="B65" t="s">
+        <v>980</v>
+      </c>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>920</v>
+      </c>
+      <c r="B66" t="s">
+        <v>981</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>921</v>
+      </c>
+      <c r="B67" t="s">
+        <v>982</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>922</v>
+      </c>
+      <c r="B68" t="s">
+        <v>983</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>923</v>
+      </c>
+      <c r="B69" t="s">
+        <v>984</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>924</v>
+      </c>
+      <c r="B70" t="s">
+        <v>985</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>925</v>
+      </c>
+      <c r="B71" t="s">
+        <v>986</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>926</v>
+      </c>
+      <c r="B72" t="s">
+        <v>987</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>927</v>
+      </c>
+      <c r="B73" t="s">
+        <v>988</v>
+      </c>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>928</v>
+      </c>
+      <c r="B74" t="s">
+        <v>989</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>929</v>
+      </c>
+      <c r="B75" t="s">
+        <v>990</v>
+      </c>
+      <c r="C75" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC4C873-C964-45CC-A7AD-6B2228E0A514}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -49142,760 +50112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388B2F6-0586-4EA8-9156-17C760219C92}">
-  <dimension ref="A1:G75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>840</v>
-      </c>
-      <c r="B6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>843</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>846</v>
-      </c>
-      <c r="B8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>849</v>
-      </c>
-      <c r="B9" t="s">
-        <v>698</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>852</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B11" t="s">
-        <v>807</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>858</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>861</v>
-      </c>
-      <c r="B13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>864</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>867</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>870</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>873</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>876</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>879</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>882</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>885</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>888</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>891</v>
-      </c>
-      <c r="B23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>894</v>
-      </c>
-      <c r="B24" t="s">
-        <v>808</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>897</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>900</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>903</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B31" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B37" t="s">
-        <v>374</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B51" t="s">
-        <v>952</v>
-      </c>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B56" t="s">
-        <v>684</v>
-      </c>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B57" t="s">
-        <v>352</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B58" t="s">
-        <v>354</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B59" t="s">
-        <v>677</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B62" t="s">
-        <v>813</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B63" t="s">
-        <v>357</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B64" t="s">
-        <v>809</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B65" t="s">
-        <v>935</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B66" t="s">
-        <v>732</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533B971-FA12-4705-A035-659CC495F80D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -50129,6 +50346,759 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388B2F6-0586-4EA8-9156-17C760219C92}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>849</v>
+      </c>
+      <c r="B9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>852</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>870</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>876</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>882</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>885</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>888</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>891</v>
+      </c>
+      <c r="B23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>894</v>
+      </c>
+      <c r="B24" t="s">
+        <v>808</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>897</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>900</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>903</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B51" t="s">
+        <v>952</v>
+      </c>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B59" t="s">
+        <v>677</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B62" t="s">
+        <v>813</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B64" t="s">
+        <v>809</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B65" t="s">
+        <v>935</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B66" t="s">
+        <v>732</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D72FC-F40B-467E-A79C-7C754C067D68}">
   <dimension ref="A1:G75"/>
   <sheetViews>
@@ -50916,7 +51886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9559E2-63E0-4D06-AE93-851D7E102422}">
   <dimension ref="A1:G75"/>
   <sheetViews>
@@ -51681,12 +52651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC6F7C-F7C5-42D8-BFC6-9908DC86B231}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52167,7 +53137,7 @@
       </c>
       <c r="C48" s="13"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3319</v>
       </c>
@@ -52176,7 +53146,7 @@
       </c>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3320</v>
       </c>
@@ -52185,7 +53155,7 @@
       </c>
       <c r="C50" s="13"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3321</v>
       </c>
@@ -52194,7 +53164,7 @@
       </c>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3322</v>
       </c>
@@ -52203,7 +53173,7 @@
       </c>
       <c r="C52" s="13"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3323</v>
       </c>
@@ -52212,7 +53182,7 @@
       </c>
       <c r="C53" s="13"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3324</v>
       </c>
@@ -52221,7 +53191,7 @@
       </c>
       <c r="C54" s="13"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3325</v>
       </c>
@@ -52232,7 +53202,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3326</v>
       </c>
@@ -52241,7 +53211,7 @@
       </c>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3327</v>
       </c>
@@ -52252,7 +53222,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3328</v>
       </c>
@@ -52262,8 +53232,10 @@
       <c r="C58" s="22" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3329</v>
       </c>
@@ -52274,7 +53246,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3330</v>
       </c>
@@ -52285,7 +53257,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3331</v>
       </c>
@@ -52296,7 +53268,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3332</v>
       </c>
@@ -52307,7 +53279,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3333</v>
       </c>
@@ -52316,7 +53288,7 @@
       </c>
       <c r="C63" s="72"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3334</v>
       </c>
@@ -52428,750 +53400,6 @@
       </c>
       <c r="C75" s="51" t="s">
         <v>938</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3381</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3382</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3383</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3455</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3384</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3456</v>
-      </c>
-      <c r="C5" s="76"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3385</v>
-      </c>
-      <c r="B6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3386</v>
-      </c>
-      <c r="B7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3387</v>
-      </c>
-      <c r="B8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3388</v>
-      </c>
-      <c r="B9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3389</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3457</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3390</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3458</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3391</v>
-      </c>
-      <c r="B12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3392</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3393</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3459</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3394</v>
-      </c>
-      <c r="B15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="F15" s="102"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3395</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3397</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3462</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3398</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3460</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3461</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3400</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3401</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3402</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3463</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3403</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3404</v>
-      </c>
-      <c r="B25" t="s">
-        <v>695</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3405</v>
-      </c>
-      <c r="B26" t="s">
-        <v>696</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3406</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3465</v>
-      </c>
-      <c r="C28" s="43"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3408</v>
-      </c>
-      <c r="B29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3409</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3466</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3467</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3411</v>
-      </c>
-      <c r="B32" t="s">
-        <v>692</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3412</v>
-      </c>
-      <c r="B33" t="s">
-        <v>693</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3413</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3414</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3468</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3415</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>3416</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3469</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3417</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3418</v>
-      </c>
-      <c r="B39" t="s">
-        <v>382</v>
-      </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3420</v>
-      </c>
-      <c r="B41" t="s">
-        <v>383</v>
-      </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>3421</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3422</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>3423</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>3424</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>3425</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3472</v>
-      </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3426</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3427</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3473</v>
-      </c>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3428</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3429</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3430</v>
-      </c>
-      <c r="B51" t="s">
-        <v>393</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3431</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2763</v>
-      </c>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3432</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>3434</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C55" s="50"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3474</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3475</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>3438</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3476</v>
-      </c>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>3439</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3477</v>
-      </c>
-      <c r="C60" s="22"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3440</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C61" s="56"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3478</v>
-      </c>
-      <c r="C62" s="58"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3479</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B64" t="s">
-        <v>697</v>
-      </c>
-      <c r="C64" s="45"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3444</v>
-      </c>
-      <c r="B65" t="s">
-        <v>694</v>
-      </c>
-      <c r="C65" s="65"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3480</v>
-      </c>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3446</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3481</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3447</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3482</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>3448</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3484</v>
-      </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3450</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3485</v>
-      </c>
-      <c r="C71" s="77"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3451</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3486</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3452</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3487</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3453</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3488</v>
-      </c>
-      <c r="C74" s="23"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>3490</v>
       </c>
     </row>
   </sheetData>

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785B531-5227-4CAC-9E99-C8E8C021817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2616F8F-E34B-482D-8500-CB06E50ACAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="4847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6661" uniqueCount="4850">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15204,6 +15204,15 @@
   </si>
   <si>
     <t>Ruli</t>
+  </si>
+  <si>
+    <t>sealsdramon</t>
+  </si>
+  <si>
+    <t>tanksdramon</t>
+  </si>
+  <si>
+    <t>ghostmon</t>
   </si>
 </sst>
 </file>
@@ -15477,7 +15486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -15635,11 +15644,23 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16120,8 +16141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16153,13 +16174,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.11781609195402298</v>
+        <v>0.1307471264367816</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16186,9 +16207,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -17820,8 +17841,8 @@
       <c r="D80" s="97">
         <v>1</v>
       </c>
-      <c r="E80" s="95">
-        <v>0</v>
+      <c r="E80" s="107">
+        <v>1</v>
       </c>
       <c r="F80" s="95">
         <v>0</v>
@@ -17862,8 +17883,8 @@
       <c r="D82" s="97">
         <v>1</v>
       </c>
-      <c r="E82" s="95">
-        <v>0</v>
+      <c r="E82" s="107">
+        <v>1</v>
       </c>
       <c r="F82" s="95">
         <v>0</v>
@@ -18287,11 +18308,11 @@
       <c r="C102" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D102" s="95">
-        <v>0</v>
-      </c>
-      <c r="E102" s="95">
-        <v>0</v>
+      <c r="D102" s="107">
+        <v>1</v>
+      </c>
+      <c r="E102" s="107">
+        <v>1</v>
       </c>
       <c r="F102" s="95">
         <v>0</v>
@@ -19552,17 +19573,17 @@
       <c r="C161" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="D161" s="95">
-        <v>0</v>
-      </c>
-      <c r="E161" s="95">
-        <v>0</v>
-      </c>
-      <c r="F161" s="95">
-        <v>0</v>
-      </c>
-      <c r="G161" s="95">
-        <v>0</v>
+      <c r="D161" s="108">
+        <v>1</v>
+      </c>
+      <c r="E161" s="108">
+        <v>1</v>
+      </c>
+      <c r="F161" s="108">
+        <v>1</v>
+      </c>
+      <c r="G161" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -19657,8 +19678,8 @@
         <v>696</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="95">
-        <v>0</v>
+      <c r="D166" s="107">
+        <v>1</v>
       </c>
       <c r="E166" s="95">
         <v>0</v>
@@ -20626,8 +20647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="D40:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20656,11 +20677,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G75))/M1</f>
         <v>0.70945945945945943</v>
       </c>
@@ -20687,9 +20708,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="99"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -21610,7 +21631,7 @@
       <c r="E48" s="97">
         <v>1</v>
       </c>
-      <c r="F48" s="99"/>
+      <c r="F48" s="122"/>
       <c r="G48" s="99"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -21972,7 +21993,7 @@
       <c r="E68" s="97">
         <v>1</v>
       </c>
-      <c r="F68" s="99"/>
+      <c r="F68" s="97"/>
       <c r="G68" s="99"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -22763,8 +22784,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22795,13 +22816,13 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.19782608695652174</v>
+        <v>0.27173913043478259</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -22816,9 +22837,9 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22969,6 +22990,9 @@
         <v>130</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -22978,6 +23002,18 @@
         <v>131</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="70">
+        <v>1</v>
+      </c>
+      <c r="E15" s="70">
+        <v>1</v>
+      </c>
+      <c r="F15" s="70">
+        <v>1</v>
+      </c>
+      <c r="G15" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -23014,6 +23050,12 @@
         <v>135</v>
       </c>
       <c r="C19" s="1"/>
+      <c r="D19" s="109">
+        <v>1</v>
+      </c>
+      <c r="E19" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -23044,10 +23086,16 @@
         <v>137</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="97">
-        <v>1</v>
-      </c>
-      <c r="E21" s="97">
+      <c r="D21" s="103">
+        <v>1</v>
+      </c>
+      <c r="E21" s="103">
+        <v>1</v>
+      </c>
+      <c r="F21" s="70">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70">
         <v>1</v>
       </c>
     </row>
@@ -23333,10 +23381,10 @@
         <v>158</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -23346,6 +23394,18 @@
         <v>159</v>
       </c>
       <c r="C43" s="2"/>
+      <c r="D43" s="70">
+        <v>1</v>
+      </c>
+      <c r="E43" s="70">
+        <v>1</v>
+      </c>
+      <c r="F43" s="70">
+        <v>1</v>
+      </c>
+      <c r="G43" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -23665,11 +23725,16 @@
         <v>186</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="97">
-        <v>1</v>
-      </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
+      <c r="D70" s="103">
+        <v>1</v>
+      </c>
+      <c r="E70" s="103">
+        <v>1</v>
+      </c>
+      <c r="F70" s="103">
+        <v>1</v>
+      </c>
+      <c r="G70" s="127"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -23793,6 +23858,18 @@
         <v>195</v>
       </c>
       <c r="C79" s="4"/>
+      <c r="D79" s="70">
+        <v>1</v>
+      </c>
+      <c r="E79" s="70">
+        <v>1</v>
+      </c>
+      <c r="F79" s="70">
+        <v>1</v>
+      </c>
+      <c r="G79" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -24110,8 +24187,12 @@
         <v>223</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
+      <c r="D107" s="103">
+        <v>1</v>
+      </c>
+      <c r="E107" s="103">
+        <v>1</v>
+      </c>
       <c r="F107" s="99"/>
       <c r="G107" s="99"/>
     </row>
@@ -24126,8 +24207,12 @@
       <c r="D108" s="97">
         <v>1</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
+      <c r="E108" s="97">
+        <v>1</v>
+      </c>
+      <c r="F108" s="97">
+        <v>1</v>
+      </c>
       <c r="G108" s="99"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -24177,10 +24262,18 @@
         <v>228</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
+      <c r="D112" s="103">
+        <v>1</v>
+      </c>
+      <c r="E112" s="103">
+        <v>1</v>
+      </c>
+      <c r="F112" s="103">
+        <v>1</v>
+      </c>
+      <c r="G112" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -24190,12 +24283,18 @@
         <v>229</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="97">
-        <v>1</v>
-      </c>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
+      <c r="D113" s="103">
+        <v>1</v>
+      </c>
+      <c r="E113" s="103">
+        <v>1</v>
+      </c>
+      <c r="F113" s="103">
+        <v>1</v>
+      </c>
+      <c r="G113" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -24205,10 +24304,18 @@
         <v>230</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
+      <c r="D114" s="103">
+        <v>1</v>
+      </c>
+      <c r="E114" s="103">
+        <v>1</v>
+      </c>
+      <c r="F114" s="103">
+        <v>1</v>
+      </c>
+      <c r="G114" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -24257,7 +24364,7 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24288,13 +24395,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.265625</v>
+        <v>0.2924107142857143</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -24313,9 +24420,9 @@
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -24449,9 +24556,13 @@
         <v>129</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="D11" s="97">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="126"/>
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -24615,10 +24726,18 @@
         <v>362</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
+      <c r="D23" s="70">
+        <v>1</v>
+      </c>
+      <c r="E23" s="70">
+        <v>1</v>
+      </c>
+      <c r="F23" s="70">
+        <v>1</v>
+      </c>
+      <c r="G23" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -24641,7 +24760,9 @@
         <v>363</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="69"/>
+      <c r="D25" s="70">
+        <v>1</v>
+      </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
@@ -25740,9 +25861,15 @@
         <v>415</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
+      <c r="D96" s="97">
+        <v>1</v>
+      </c>
+      <c r="E96" s="97">
+        <v>1</v>
+      </c>
+      <c r="F96" s="97">
+        <v>1</v>
+      </c>
       <c r="G96" s="99"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -25949,8 +26076,12 @@
         <v>429</v>
       </c>
       <c r="C110" s="13"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
+      <c r="D110" s="109">
+        <v>1</v>
+      </c>
+      <c r="E110" s="109">
+        <v>1</v>
+      </c>
       <c r="F110" s="69"/>
       <c r="G110" s="69"/>
     </row>
@@ -26018,8 +26149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2665C-88A0-4C97-BC3C-CE855F56BE02}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26050,13 +26181,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.12723214285714285</v>
+        <v>0.15401785714285715</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -26071,9 +26202,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -26233,7 +26364,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1006</v>
       </c>
@@ -26242,7 +26373,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1007</v>
       </c>
@@ -26251,7 +26382,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1008</v>
       </c>
@@ -26260,7 +26391,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1009</v>
       </c>
@@ -26269,7 +26400,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1010</v>
       </c>
@@ -26278,7 +26409,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1011</v>
       </c>
@@ -26287,7 +26418,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1012</v>
       </c>
@@ -26296,7 +26427,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1013</v>
       </c>
@@ -26305,7 +26436,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1014</v>
       </c>
@@ -26314,7 +26445,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1015</v>
       </c>
@@ -26322,8 +26453,11 @@
         <v>806</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1016</v>
       </c>
@@ -26332,7 +26466,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1017</v>
       </c>
@@ -26341,7 +26475,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1018</v>
       </c>
@@ -26350,7 +26484,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1019</v>
       </c>
@@ -26359,7 +26493,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1020</v>
       </c>
@@ -26368,7 +26502,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1021</v>
       </c>
@@ -26505,7 +26639,9 @@
         <v>1123</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="69"/>
+      <c r="D42" s="109">
+        <v>1</v>
+      </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
@@ -26743,7 +26879,10 @@
         <v>1133</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -26783,7 +26922,9 @@
         <v>1136</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="99"/>
+      <c r="D63" s="97">
+        <v>1</v>
+      </c>
       <c r="E63" s="99"/>
       <c r="F63" s="99"/>
       <c r="G63" s="99"/>
@@ -27014,6 +27155,9 @@
         <v>1149</v>
       </c>
       <c r="C79" s="13"/>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -27303,7 +27447,9 @@
       <c r="D104" s="97">
         <v>1</v>
       </c>
-      <c r="E104" s="99"/>
+      <c r="E104" s="97">
+        <v>1</v>
+      </c>
       <c r="F104" s="99"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -27314,9 +27460,18 @@
         <v>1167</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
+      <c r="D105" s="103">
+        <v>1</v>
+      </c>
+      <c r="E105" s="103">
+        <v>1</v>
+      </c>
+      <c r="F105" s="103">
+        <v>1</v>
+      </c>
+      <c r="G105" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -27386,6 +27541,15 @@
         <v>1173</v>
       </c>
       <c r="C111" s="13"/>
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="E111" s="9">
+        <v>1</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -27420,8 +27584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBCD81-F172-48FD-BFD1-AB8B6468CB73}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27452,13 +27616,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.15217391304347827</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -27476,9 +27640,18 @@
       <c r="D2" s="97">
         <v>1</v>
       </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -27551,7 +27724,9 @@
         <v>1296</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="109">
+        <v>1</v>
+      </c>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
@@ -27598,8 +27773,18 @@
         <v>1298</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="103">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -27761,8 +27946,12 @@
       <c r="D23" s="97">
         <v>1</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="E23" s="97">
+        <v>1</v>
+      </c>
+      <c r="F23" s="97">
+        <v>1</v>
+      </c>
       <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -27844,9 +28033,15 @@
         <v>1313</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
+      <c r="D29" s="97">
+        <v>1</v>
+      </c>
+      <c r="E29" s="97">
+        <v>1</v>
+      </c>
+      <c r="F29" s="97">
+        <v>1</v>
+      </c>
       <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -27883,8 +28078,12 @@
         <v>1316</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="D32" s="97">
+        <v>1</v>
+      </c>
+      <c r="E32" s="97">
+        <v>1</v>
+      </c>
       <c r="F32" s="99"/>
       <c r="G32" s="99"/>
     </row>
@@ -28141,7 +28340,9 @@
         <v>1328</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="99"/>
+      <c r="D50" s="97">
+        <v>1</v>
+      </c>
       <c r="E50" s="99"/>
       <c r="F50" s="99"/>
     </row>
@@ -28322,9 +28523,10 @@
         <v>1133</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -28445,7 +28647,7 @@
         <v>1349</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="69"/>
+      <c r="D75" s="109"/>
       <c r="E75" s="69"/>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
@@ -28894,10 +29096,18 @@
         <v>1375</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
+      <c r="D108" s="70">
+        <v>1</v>
+      </c>
+      <c r="E108" s="70">
+        <v>1</v>
+      </c>
+      <c r="F108" s="70">
+        <v>1</v>
+      </c>
+      <c r="G108" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -29017,8 +29227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EADFA4-B03A-4A5C-BF19-C33CF1C28CA2}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106:G106"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29131,6 +29341,10 @@
         <v>1499</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -29162,7 +29376,10 @@
         <v>1151</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -29185,6 +29402,10 @@
         <v>1502</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -29231,6 +29452,8 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -29831,6 +30054,9 @@
         <v>1544</v>
       </c>
       <c r="C79" s="13"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -30062,8 +30288,10 @@
         <v>1565</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -30104,6 +30332,7 @@
         <v>1569</v>
       </c>
       <c r="C107" s="13"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -30172,8 +30401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30562,6 +30791,10 @@
         <v>1786</v>
       </c>
       <c r="C24" s="2"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -30571,6 +30804,7 @@
         <v>1787</v>
       </c>
       <c r="C25" s="2"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -30580,6 +30814,8 @@
         <v>1788</v>
       </c>
       <c r="C26" s="2"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -31482,6 +31718,10 @@
         <v>1850</v>
       </c>
       <c r="C111" s="6"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -31527,8 +31767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED9F24-D5F1-4918-913C-62878FD5AD90}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89:F89"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31683,6 +31923,7 @@
         <v>1969</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -31711,7 +31952,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1868</v>
       </c>
@@ -31720,7 +31961,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1869</v>
       </c>
@@ -31728,8 +31969,9 @@
         <v>1627</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1870</v>
       </c>
@@ -31738,7 +31980,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1871</v>
       </c>
@@ -31747,7 +31989,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1872</v>
       </c>
@@ -31755,8 +31997,9 @@
         <v>723</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1873</v>
       </c>
@@ -31765,7 +32008,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1874</v>
       </c>
@@ -31774,7 +32017,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1875</v>
       </c>
@@ -31783,7 +32026,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1876</v>
       </c>
@@ -31792,7 +32035,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1877</v>
       </c>
@@ -31801,7 +32044,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1878</v>
       </c>
@@ -31810,7 +32053,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1879</v>
       </c>
@@ -31819,7 +32062,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1880</v>
       </c>
@@ -31828,7 +32071,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1881</v>
       </c>
@@ -31837,7 +32080,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1882</v>
       </c>
@@ -31846,7 +32089,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1883</v>
       </c>
@@ -31872,6 +32115,7 @@
         <v>1793</v>
       </c>
       <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -32004,6 +32248,8 @@
         <v>1992</v>
       </c>
       <c r="C48" s="4"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -32031,6 +32277,7 @@
         <v>1502</v>
       </c>
       <c r="C51" s="4"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -32526,6 +32773,10 @@
         <v>2034</v>
       </c>
       <c r="C102" s="4"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -32600,6 +32851,7 @@
         <v>2041</v>
       </c>
       <c r="C109" s="13"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -32618,6 +32870,10 @@
         <v>2043</v>
       </c>
       <c r="C111" s="6"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -32648,7 +32904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B3C36B-CFD4-41A0-A98A-A4B84E6F8F4F}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -32671,8 +32927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F8D3F-14FD-470C-AE18-07C3FEC41D51}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:E86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32836,6 +33092,8 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -32848,7 +33106,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2062</v>
       </c>
@@ -32859,7 +33117,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2063</v>
       </c>
@@ -32870,7 +33128,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2064</v>
       </c>
@@ -32879,7 +33137,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2065</v>
       </c>
@@ -32888,7 +33146,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2066</v>
       </c>
@@ -32897,7 +33155,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2067</v>
       </c>
@@ -32906,7 +33164,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2068</v>
       </c>
@@ -32918,7 +33176,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2069</v>
       </c>
@@ -32929,7 +33187,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2070</v>
       </c>
@@ -32941,7 +33199,7 @@
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2071</v>
       </c>
@@ -32953,7 +33211,7 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2072</v>
       </c>
@@ -32964,7 +33222,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2073</v>
       </c>
@@ -32972,8 +33230,12 @@
         <v>2175</v>
       </c>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2074</v>
       </c>
@@ -32982,7 +33244,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2075</v>
       </c>
@@ -32991,7 +33253,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2076</v>
       </c>
@@ -33000,7 +33262,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2077</v>
       </c>
@@ -33846,8 +34108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDC2A0D-B05E-4A37-A9BB-06B7F5291BCE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G48" sqref="D48:G48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34055,6 +34317,10 @@
         <v>1628</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -34089,6 +34355,7 @@
         <v>1630</v>
       </c>
       <c r="C23" s="2"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -34181,6 +34448,10 @@
         <v>383</v>
       </c>
       <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -34410,6 +34681,7 @@
         <v>2390</v>
       </c>
       <c r="C54" s="4"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -35014,8 +35286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4CCD3-F266-4FA7-8C5C-BE1E474DC6DF}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:E93"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35111,9 +35383,10 @@
         <v>2730</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -35709,7 +35982,7 @@
       </c>
       <c r="C64" s="10"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2505</v>
       </c>
@@ -35718,7 +35991,7 @@
       </c>
       <c r="C65" s="10"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2506</v>
       </c>
@@ -35727,7 +36000,7 @@
       </c>
       <c r="C66" s="49"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2507</v>
       </c>
@@ -35736,7 +36009,7 @@
       </c>
       <c r="C67" s="10"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2508</v>
       </c>
@@ -35745,7 +36018,7 @@
       </c>
       <c r="C68" s="10"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2509</v>
       </c>
@@ -35754,7 +36027,7 @@
       </c>
       <c r="C69" s="49"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2510</v>
       </c>
@@ -35765,7 +36038,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2511</v>
       </c>
@@ -35776,7 +36049,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2512</v>
       </c>
@@ -35785,7 +36058,7 @@
       </c>
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2513</v>
       </c>
@@ -35794,7 +36067,7 @@
       </c>
       <c r="C73" s="13"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2514</v>
       </c>
@@ -35803,7 +36076,7 @@
       </c>
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2515</v>
       </c>
@@ -35812,7 +36085,7 @@
       </c>
       <c r="C75" s="51"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2516</v>
       </c>
@@ -35821,7 +36094,7 @@
       </c>
       <c r="C76" s="13"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2517</v>
       </c>
@@ -35829,8 +36102,9 @@
         <v>1540</v>
       </c>
       <c r="C77" s="51"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2518</v>
       </c>
@@ -35839,7 +36113,7 @@
       </c>
       <c r="C78" s="13"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2519</v>
       </c>
@@ -35848,7 +36122,7 @@
       </c>
       <c r="C79" s="13"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2520</v>
       </c>
@@ -35856,6 +36130,10 @@
         <v>2775</v>
       </c>
       <c r="C80" s="13"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -36186,8 +36464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5AFE3-81A7-4C3F-8CA3-BDA6DC2D3CE2}">
   <dimension ref="A1:BA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:E87"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36563,7 +36841,10 @@
         <v>2671</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -36710,6 +36991,9 @@
         <v>2677</v>
       </c>
       <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -36776,8 +37060,10 @@
       <c r="C42" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -37126,6 +37412,10 @@
         <v>1329</v>
       </c>
       <c r="C76" s="51"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -37336,7 +37626,7 @@
       </c>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2649</v>
       </c>
@@ -37346,7 +37636,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2650</v>
       </c>
@@ -37355,7 +37645,7 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2651</v>
       </c>
@@ -37366,7 +37656,7 @@
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2652</v>
       </c>
@@ -37375,7 +37665,7 @@
       </c>
       <c r="C100" s="40"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2653</v>
       </c>
@@ -37385,7 +37675,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2654</v>
       </c>
@@ -37396,7 +37686,7 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2655</v>
       </c>
@@ -37407,7 +37697,7 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2656</v>
       </c>
@@ -37417,7 +37707,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2657</v>
       </c>
@@ -37426,7 +37716,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2658</v>
       </c>
@@ -37436,7 +37726,7 @@
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2659</v>
       </c>
@@ -37445,7 +37735,7 @@
       </c>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2660</v>
       </c>
@@ -37456,7 +37746,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2661</v>
       </c>
@@ -37465,7 +37755,7 @@
       </c>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2662</v>
       </c>
@@ -37475,7 +37765,7 @@
       <c r="C110" s="13"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2663</v>
       </c>
@@ -37483,8 +37773,11 @@
         <v>2725</v>
       </c>
       <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2664</v>
       </c>
@@ -37512,8 +37805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43077EF-62D2-44C0-916B-3EA4B8692A9F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E111" sqref="D111:E111"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37926,6 +38219,7 @@
         <v>2964</v>
       </c>
       <c r="C41" s="43"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -38154,7 +38448,7 @@
       </c>
       <c r="C64" s="49"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2900</v>
       </c>
@@ -38163,7 +38457,7 @@
       </c>
       <c r="C65" s="49"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2901</v>
       </c>
@@ -38172,7 +38466,7 @@
       </c>
       <c r="C66" s="49"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2902</v>
       </c>
@@ -38181,7 +38475,7 @@
       </c>
       <c r="C67" s="49"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2903</v>
       </c>
@@ -38190,7 +38484,7 @@
       </c>
       <c r="C68" s="49"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2904</v>
       </c>
@@ -38201,7 +38495,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2905</v>
       </c>
@@ -38210,7 +38504,7 @@
       </c>
       <c r="C70" s="49"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2906</v>
       </c>
@@ -38221,7 +38515,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2907</v>
       </c>
@@ -38230,7 +38524,7 @@
       </c>
       <c r="C72" s="49"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2908</v>
       </c>
@@ -38241,7 +38535,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2909</v>
       </c>
@@ -38250,7 +38544,7 @@
       </c>
       <c r="C74" s="23"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2910</v>
       </c>
@@ -38259,7 +38553,7 @@
       </c>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2911</v>
       </c>
@@ -38268,7 +38562,7 @@
       </c>
       <c r="C76" s="51"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2912</v>
       </c>
@@ -38276,8 +38570,10 @@
         <v>958</v>
       </c>
       <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2913</v>
       </c>
@@ -38286,7 +38582,7 @@
       </c>
       <c r="C78" s="51"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2914</v>
       </c>
@@ -38295,7 +38591,7 @@
       </c>
       <c r="C79" s="13"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2915</v>
       </c>
@@ -38622,8 +38918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42F967-E1F3-47EB-9301-1DFFD3817B8E}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:E101"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38950,7 +39246,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3629</v>
       </c>
@@ -38961,7 +39257,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3630</v>
       </c>
@@ -38970,7 +39266,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3631</v>
       </c>
@@ -38979,7 +39275,7 @@
       </c>
       <c r="C35" s="26"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3632</v>
       </c>
@@ -38990,7 +39286,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3633</v>
       </c>
@@ -38998,8 +39294,9 @@
         <v>167</v>
       </c>
       <c r="C37" s="26"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3634</v>
       </c>
@@ -39008,7 +39305,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3635</v>
       </c>
@@ -39017,7 +39314,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3636</v>
       </c>
@@ -39028,7 +39325,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3637</v>
       </c>
@@ -39039,7 +39336,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3638</v>
       </c>
@@ -39048,7 +39345,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3639</v>
       </c>
@@ -39059,7 +39356,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3640</v>
       </c>
@@ -39068,7 +39365,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3641</v>
       </c>
@@ -39077,7 +39374,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3642</v>
       </c>
@@ -39088,7 +39385,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3643</v>
       </c>
@@ -39097,7 +39394,7 @@
       </c>
       <c r="C47" s="45"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3644</v>
       </c>
@@ -39262,7 +39559,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3661</v>
       </c>
@@ -39273,7 +39570,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3662</v>
       </c>
@@ -39282,7 +39579,7 @@
       </c>
       <c r="C66" s="84"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3663</v>
       </c>
@@ -39292,7 +39589,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3664</v>
       </c>
@@ -39301,7 +39598,7 @@
       </c>
       <c r="C68" s="66"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3665</v>
       </c>
@@ -39312,7 +39609,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3666</v>
       </c>
@@ -39323,7 +39620,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3667</v>
       </c>
@@ -39334,7 +39631,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3668</v>
       </c>
@@ -39343,7 +39640,7 @@
       </c>
       <c r="C72" s="85"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3669</v>
       </c>
@@ -39353,7 +39650,7 @@
       <c r="C73" s="85"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3670</v>
       </c>
@@ -39364,7 +39661,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3671</v>
       </c>
@@ -39373,7 +39670,7 @@
       </c>
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3672</v>
       </c>
@@ -39382,7 +39679,7 @@
       </c>
       <c r="C76" s="33"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3673</v>
       </c>
@@ -39393,7 +39690,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3674</v>
       </c>
@@ -39402,7 +39699,7 @@
       </c>
       <c r="C78" s="33"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3675</v>
       </c>
@@ -39411,7 +39708,7 @@
       </c>
       <c r="C79" s="22"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3676</v>
       </c>
@@ -39419,8 +39716,12 @@
         <v>646</v>
       </c>
       <c r="C80" s="22"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3677</v>
       </c>
@@ -39429,7 +39730,7 @@
       </c>
       <c r="C81" s="22"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3678</v>
       </c>
@@ -39438,7 +39739,7 @@
       </c>
       <c r="C82" s="22"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3679</v>
       </c>
@@ -39447,7 +39748,7 @@
       </c>
       <c r="C83" s="57"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3680</v>
       </c>
@@ -39456,7 +39757,7 @@
       </c>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3681</v>
       </c>
@@ -39465,7 +39766,7 @@
       </c>
       <c r="C85" s="13"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3682</v>
       </c>
@@ -39473,8 +39774,12 @@
         <v>3733</v>
       </c>
       <c r="C86" s="37"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3683</v>
       </c>
@@ -39483,7 +39788,7 @@
       </c>
       <c r="C87" s="13"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3684</v>
       </c>
@@ -39492,7 +39797,7 @@
       </c>
       <c r="C88" s="13"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3685</v>
       </c>
@@ -39501,7 +39806,7 @@
       </c>
       <c r="C89" s="23"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3686</v>
       </c>
@@ -39510,7 +39815,7 @@
       </c>
       <c r="C90" s="13"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3687</v>
       </c>
@@ -39519,7 +39824,7 @@
       </c>
       <c r="C91" s="51"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3688</v>
       </c>
@@ -39528,7 +39833,7 @@
       </c>
       <c r="C92" s="13"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3689</v>
       </c>
@@ -39537,7 +39842,7 @@
       </c>
       <c r="C93" s="13"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3690</v>
       </c>
@@ -39546,7 +39851,7 @@
       </c>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3691</v>
       </c>
@@ -39555,7 +39860,7 @@
       </c>
       <c r="C95" s="86"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3692</v>
       </c>
@@ -39736,8 +40041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:E86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39813,6 +40118,10 @@
         <v>1294</v>
       </c>
       <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -40420,6 +40729,8 @@
       <c r="C69" s="85"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -40755,8 +41066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C58CEC-A591-498E-8A37-59AAA5BB4EB2}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41243,6 +41554,10 @@
         <v>4020</v>
       </c>
       <c r="C46" s="4"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -41300,6 +41615,10 @@
         <v>4024</v>
       </c>
       <c r="C52" s="35"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -41888,10 +42207,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6F437-4233-4565-A960-B028FA067CC9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41955,6 +42274,22 @@
       </c>
       <c r="B8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -43153,8 +43488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43947,6 +44282,7 @@
       <c r="C72" s="66" t="s">
         <v>938</v>
       </c>
+      <c r="D72" s="123"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -44275,6 +44611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45342,12 +45679,23 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2EF3FC-3697-4B41-BC25-3641E22A5B39}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -45550,7 +45898,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45591,6 +45939,10 @@
         <v>1497</v>
       </c>
       <c r="C2" s="55"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -45600,9 +45952,12 @@
         <v>3245</v>
       </c>
       <c r="C3" s="55"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>232</v>
       </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -45612,6 +45967,10 @@
         <v>146</v>
       </c>
       <c r="C4" s="55"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -45621,6 +45980,10 @@
         <v>2394</v>
       </c>
       <c r="C5" s="55"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -45630,6 +45993,10 @@
         <v>152</v>
       </c>
       <c r="C6" s="55"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -45639,6 +46006,8 @@
         <v>153</v>
       </c>
       <c r="C7" s="55"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -45648,6 +46017,10 @@
         <v>3246</v>
       </c>
       <c r="C8" s="55"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -45657,6 +46030,10 @@
         <v>157</v>
       </c>
       <c r="C9" s="55"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -45666,6 +46043,10 @@
         <v>158</v>
       </c>
       <c r="C10" s="55"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -45675,6 +46056,8 @@
         <v>808</v>
       </c>
       <c r="C11" s="55"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -45684,6 +46067,8 @@
         <v>161</v>
       </c>
       <c r="C12" s="55"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -45693,6 +46078,10 @@
         <v>203</v>
       </c>
       <c r="C13" s="55"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -45715,6 +46104,10 @@
         <v>3248</v>
       </c>
       <c r="C15" s="55"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -45724,6 +46117,8 @@
         <v>3249</v>
       </c>
       <c r="C16" s="55"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -45733,9 +46128,10 @@
         <v>3250</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K21" s="75"/>
@@ -45940,7 +46336,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46053,6 +46449,7 @@
         <v>3508</v>
       </c>
       <c r="C10" s="65"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -46693,8 +47090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G38" sqref="D38:G38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46725,13 +47122,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G74))/M1</f>
-        <v>0.27054794520547948</v>
+        <v>0.31164383561643838</v>
       </c>
       <c r="M1" s="96">
         <f>73*4</f>
@@ -46755,9 +47152,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -46770,6 +47167,9 @@
       <c r="D3" s="9">
         <v>1</v>
       </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -46884,6 +47284,12 @@
         <v>147</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -46927,6 +47333,9 @@
         <v>152</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -47095,6 +47504,9 @@
         <v>180</v>
       </c>
       <c r="C32" s="3"/>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -47152,6 +47564,18 @@
         <v>191</v>
       </c>
       <c r="C37" s="4"/>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -47566,6 +47990,9 @@
       <c r="D68" s="9">
         <v>1</v>
       </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -47626,6 +48053,12 @@
         <v>830</v>
       </c>
       <c r="C73" s="6"/>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -47844,7 +48277,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47903,6 +48336,10 @@
         <v>362</v>
       </c>
       <c r="C4" s="55"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -48022,6 +48459,9 @@
         <v>3597</v>
       </c>
       <c r="C16" s="47"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="82"/>
@@ -48036,7 +48476,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48140,6 +48580,8 @@
         <v>1351</v>
       </c>
       <c r="C8" s="22"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -48246,7 +48688,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48314,6 +48756,8 @@
         <v>637</v>
       </c>
       <c r="C5" s="63"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -48341,6 +48785,8 @@
         <v>2165</v>
       </c>
       <c r="C8" s="63"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -48350,6 +48796,8 @@
         <v>3571</v>
       </c>
       <c r="C9" s="63"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -48436,7 +48884,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48591,6 +49039,8 @@
         <v>1143</v>
       </c>
       <c r="C14" s="79"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -48662,11 +49112,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="124" t="s">
         <v>4049</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124">
+      <c r="K1" s="124"/>
+      <c r="L1" s="125">
         <f>(SUM(D2:G13))/M1</f>
         <v>0.77083333333333337</v>
       </c>
@@ -48695,9 +49145,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -48996,8 +49446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
   <dimension ref="A1:BB75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49818,6 +50268,7 @@
         <v>985</v>
       </c>
       <c r="C70" s="2"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -50350,7 +50801,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50408,6 +50859,7 @@
         <v>619</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -50949,6 +51401,7 @@
       <c r="C61" s="37" t="s">
         <v>1652</v>
       </c>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -51102,8 +51555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D72FC-F40B-467E-A79C-7C754C067D68}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51612,7 +52065,7 @@
       </c>
       <c r="C48" s="84"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4097</v>
       </c>
@@ -51623,7 +52076,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4098</v>
       </c>
@@ -51634,7 +52087,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4099</v>
       </c>
@@ -51645,7 +52098,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4100</v>
       </c>
@@ -51656,7 +52109,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4101</v>
       </c>
@@ -51665,7 +52118,7 @@
       </c>
       <c r="C53" s="58"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4102</v>
       </c>
@@ -51674,7 +52127,7 @@
       </c>
       <c r="C54" s="13"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4103</v>
       </c>
@@ -51685,7 +52138,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4104</v>
       </c>
@@ -51694,7 +52147,7 @@
       </c>
       <c r="C56" s="104"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4105</v>
       </c>
@@ -51702,8 +52155,12 @@
         <v>1324</v>
       </c>
       <c r="C57" s="104"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4106</v>
       </c>
@@ -51713,8 +52170,10 @@
       <c r="C58" s="104" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4107</v>
       </c>
@@ -51723,7 +52182,7 @@
       </c>
       <c r="C59" s="104"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4108</v>
       </c>
@@ -51734,7 +52193,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4109</v>
       </c>
@@ -51743,7 +52202,7 @@
       </c>
       <c r="C61" s="105"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4110</v>
       </c>
@@ -51754,7 +52213,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4111</v>
       </c>
@@ -51765,7 +52224,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4112</v>
       </c>

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2616F8F-E34B-482D-8500-CB06E50ACAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8CDD7-6C38-421F-9FF6-11ED85D1219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -15486,7 +15486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -15652,15 +15652,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16141,8 +16132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16180,7 +16171,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.1307471264367816</v>
+        <v>0.17816091954022989</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16195,8 +16186,8 @@
         <v>127</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="95">
-        <v>0</v>
+      <c r="D2" s="107">
+        <v>1</v>
       </c>
       <c r="E2" s="95">
         <v>0</v>
@@ -16219,8 +16210,8 @@
         <v>129</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="95">
-        <v>0</v>
+      <c r="D3" s="107">
+        <v>1</v>
       </c>
       <c r="E3" s="95">
         <v>0</v>
@@ -16282,8 +16273,8 @@
         <v>165</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="95">
-        <v>0</v>
+      <c r="D6" s="107">
+        <v>1</v>
       </c>
       <c r="E6" s="95">
         <v>0</v>
@@ -16303,8 +16294,8 @@
         <v>371</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="95">
-        <v>0</v>
+      <c r="D7" s="107">
+        <v>1</v>
       </c>
       <c r="E7" s="95">
         <v>0</v>
@@ -16324,17 +16315,17 @@
         <v>153</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="95">
-        <v>0</v>
-      </c>
-      <c r="E8" s="95">
-        <v>0</v>
-      </c>
-      <c r="F8" s="95">
-        <v>0</v>
-      </c>
-      <c r="G8" s="95">
-        <v>0</v>
+      <c r="D8" s="108">
+        <v>1</v>
+      </c>
+      <c r="E8" s="108">
+        <v>1</v>
+      </c>
+      <c r="F8" s="108">
+        <v>1</v>
+      </c>
+      <c r="G8" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -16345,8 +16336,8 @@
         <v>157</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="95">
-        <v>0</v>
+      <c r="D9" s="107">
+        <v>1</v>
       </c>
       <c r="E9" s="95">
         <v>0</v>
@@ -16639,8 +16630,8 @@
         <v>612</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="95">
-        <v>0</v>
+      <c r="D23" s="107">
+        <v>1</v>
       </c>
       <c r="E23" s="95">
         <v>0</v>
@@ -16660,8 +16651,8 @@
         <v>613</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="95">
-        <v>0</v>
+      <c r="D24" s="107">
+        <v>1</v>
       </c>
       <c r="E24" s="95">
         <v>0</v>
@@ -16702,8 +16693,8 @@
         <v>200</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="95">
-        <v>0</v>
+      <c r="D26" s="107">
+        <v>1</v>
       </c>
       <c r="E26" s="95">
         <v>0</v>
@@ -16912,17 +16903,17 @@
         <v>621</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="107">
-        <v>1</v>
-      </c>
-      <c r="E36" s="107">
-        <v>1</v>
-      </c>
-      <c r="F36" s="95">
-        <v>0</v>
-      </c>
-      <c r="G36" s="95">
-        <v>0</v>
+      <c r="D36" s="108">
+        <v>1</v>
+      </c>
+      <c r="E36" s="108">
+        <v>1</v>
+      </c>
+      <c r="F36" s="108">
+        <v>1</v>
+      </c>
+      <c r="G36" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16936,8 +16927,8 @@
       <c r="D37" s="97">
         <v>1</v>
       </c>
-      <c r="E37" s="95">
-        <v>0</v>
+      <c r="E37" s="107">
+        <v>1</v>
       </c>
       <c r="F37" s="95">
         <v>0</v>
@@ -16975,17 +16966,17 @@
         <v>623</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="97">
-        <v>1</v>
-      </c>
-      <c r="E39" s="107">
-        <v>1</v>
-      </c>
-      <c r="F39" s="107">
-        <v>1</v>
-      </c>
-      <c r="G39" s="95">
-        <v>0</v>
+      <c r="D39" s="103">
+        <v>1</v>
+      </c>
+      <c r="E39" s="108">
+        <v>1</v>
+      </c>
+      <c r="F39" s="108">
+        <v>1</v>
+      </c>
+      <c r="G39" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -16999,11 +16990,11 @@
       <c r="D40" s="107">
         <v>1</v>
       </c>
-      <c r="E40" s="95">
-        <v>0</v>
-      </c>
-      <c r="F40" s="95">
-        <v>0</v>
+      <c r="E40" s="107">
+        <v>1</v>
+      </c>
+      <c r="F40" s="107">
+        <v>1</v>
       </c>
       <c r="G40" s="95">
         <v>0</v>
@@ -17020,11 +17011,11 @@
       <c r="D41" s="107">
         <v>1</v>
       </c>
-      <c r="E41" s="95">
-        <v>0</v>
-      </c>
-      <c r="F41" s="95">
-        <v>0</v>
+      <c r="E41" s="107">
+        <v>1</v>
+      </c>
+      <c r="F41" s="107">
+        <v>1</v>
       </c>
       <c r="G41" s="95">
         <v>0</v>
@@ -17752,17 +17743,17 @@
         <v>194</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="95">
-        <v>0</v>
-      </c>
-      <c r="E76" s="95">
-        <v>0</v>
-      </c>
-      <c r="F76" s="95">
-        <v>0</v>
-      </c>
-      <c r="G76" s="95">
-        <v>0</v>
+      <c r="D76" s="108">
+        <v>1</v>
+      </c>
+      <c r="E76" s="108">
+        <v>1</v>
+      </c>
+      <c r="F76" s="108">
+        <v>1</v>
+      </c>
+      <c r="G76" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -18780,8 +18771,8 @@
         <v>686</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="95">
-        <v>0</v>
+      <c r="D124" s="107">
+        <v>1</v>
       </c>
       <c r="E124" s="95">
         <v>0</v>
@@ -19636,17 +19627,17 @@
         <v>722</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="107">
-        <v>1</v>
-      </c>
-      <c r="E164" s="95">
-        <v>0</v>
-      </c>
-      <c r="F164" s="95">
-        <v>0</v>
-      </c>
-      <c r="G164" s="95">
-        <v>0</v>
+      <c r="D164" s="108">
+        <v>1</v>
+      </c>
+      <c r="E164" s="108">
+        <v>1</v>
+      </c>
+      <c r="F164" s="108">
+        <v>1</v>
+      </c>
+      <c r="G164" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -19678,17 +19669,17 @@
         <v>696</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="107">
-        <v>1</v>
-      </c>
-      <c r="E166" s="95">
-        <v>0</v>
-      </c>
-      <c r="F166" s="95">
-        <v>0</v>
-      </c>
-      <c r="G166" s="95">
-        <v>0</v>
+      <c r="D166" s="108">
+        <v>1</v>
+      </c>
+      <c r="E166" s="108">
+        <v>1</v>
+      </c>
+      <c r="F166" s="108">
+        <v>1</v>
+      </c>
+      <c r="G166" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -19699,11 +19690,11 @@
         <v>693</v>
       </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="95">
-        <v>0</v>
-      </c>
-      <c r="E167" s="95">
-        <v>0</v>
+      <c r="D167" s="108">
+        <v>1</v>
+      </c>
+      <c r="E167" s="108">
+        <v>1</v>
       </c>
       <c r="F167" s="95">
         <v>0</v>
@@ -19903,8 +19894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20221,6 +20212,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -20647,8 +20639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21758,10 +21750,10 @@
         <v>2694</v>
       </c>
       <c r="C55" s="121"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -22140,8 +22132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16099350-61BB-4DD4-B9DE-2BCFF1F868CB}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22422,6 +22414,10 @@
         <v>4710</v>
       </c>
       <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -23381,10 +23377,10 @@
         <v>158</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -23734,7 +23730,6 @@
       <c r="F70" s="103">
         <v>1</v>
       </c>
-      <c r="G70" s="127"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -24363,8 +24358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA56804-6A9E-402F-B031-BA7253DC714A}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24401,7 +24396,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.2924107142857143</v>
+        <v>0.29464285714285715</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -24562,7 +24557,7 @@
       <c r="E11" s="97">
         <v>1</v>
       </c>
-      <c r="F11" s="126"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -25217,7 +25212,9 @@
         <v>379</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="69"/>
+      <c r="D52" s="70">
+        <v>1</v>
+      </c>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
@@ -26150,7 +26147,7 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26187,7 +26184,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.15401785714285715</v>
+        <v>0.16294642857142858</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -26770,6 +26767,18 @@
         <v>810</v>
       </c>
       <c r="C51" s="4"/>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -27584,7 +27593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBCD81-F172-48FD-BFD1-AB8B6468CB73}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
@@ -29342,9 +29351,6 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -30401,7 +30407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D111" sqref="D111:G111"/>
     </sheetView>
   </sheetViews>
@@ -32927,8 +32933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F8D3F-14FD-470C-AE18-07C3FEC41D51}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:G28"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34088,6 +34094,7 @@
         <v>2237</v>
       </c>
       <c r="C112" s="13"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -34108,8 +34115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDC2A0D-B05E-4A37-A9BB-06B7F5291BCE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34162,6 +34169,10 @@
         <v>2351</v>
       </c>
       <c r="C3" s="2"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -34171,6 +34182,10 @@
         <v>2352</v>
       </c>
       <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -40041,8 +40056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42210,7 +42225,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42257,7 +42272,7 @@
         <v>4843</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -42301,8 +42316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:E86"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42876,6 +42891,10 @@
       <c r="C52" s="35" t="s">
         <v>660</v>
       </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -44619,8 +44638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45057,6 +45076,7 @@
       <c r="C42" s="43" t="s">
         <v>2174</v>
       </c>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -45898,7 +45918,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46008,6 +46028,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -48476,7 +48497,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48557,6 +48578,8 @@
       <c r="C6" s="45" t="s">
         <v>660</v>
       </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -48629,6 +48652,8 @@
         <v>821</v>
       </c>
       <c r="C13" s="22"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -50332,10 +50357,13 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC4C873-C964-45CC-A7AD-6B2228E0A514}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50415,8 +50443,10 @@
         <v>692</v>
       </c>
       <c r="C5" s="47"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -50465,8 +50495,10 @@
         <v>693</v>
       </c>
       <c r="C9" s="47"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -50489,8 +50521,10 @@
         <v>4283</v>
       </c>
       <c r="C11" s="47"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -50513,8 +50547,10 @@
         <v>4284</v>
       </c>
       <c r="C13" s="47"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -50565,10 +50601,13 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533B971-FA12-4705-A035-659CC495F80D}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="D12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50635,8 +50674,10 @@
         <v>695</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -50698,8 +50739,10 @@
         <v>4321</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -50735,8 +50778,10 @@
         <v>3465</v>
       </c>
       <c r="C12" s="112"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -50746,8 +50791,10 @@
         <v>3467</v>
       </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -53114,8 +53161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC6F7C-F7C5-42D8-BFC6-9908DC86B231}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53726,6 +53773,7 @@
       <c r="C61" s="56" t="s">
         <v>1652</v>
       </c>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D8CDD7-6C38-421F-9FF6-11ED85D1219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8CB9F-4A4E-4DBD-A24A-DDDB907766E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="27" activeTab="44" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6661" uniqueCount="4850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6662" uniqueCount="4851">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15213,6 +15213,9 @@
   </si>
   <si>
     <t>ghostmon</t>
+  </si>
+  <si>
+    <t>garurumon</t>
   </si>
 </sst>
 </file>
@@ -16132,8 +16135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16171,7 +16174,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.17816091954022989</v>
+        <v>0.18103448275862069</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -18279,8 +18282,8 @@
       <c r="D101" s="107">
         <v>1</v>
       </c>
-      <c r="E101" s="95">
-        <v>0</v>
+      <c r="E101" s="107">
+        <v>1</v>
       </c>
       <c r="F101" s="95">
         <v>0</v>
@@ -19478,8 +19481,8 @@
         <v>715</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="95">
-        <v>0</v>
+      <c r="D157" s="107">
+        <v>1</v>
       </c>
       <c r="E157" s="95">
         <v>0</v>
@@ -22132,7 +22135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16099350-61BB-4DD4-B9DE-2BCFF1F868CB}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22:G22"/>
     </sheetView>
   </sheetViews>
@@ -22780,8 +22783,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22818,7 +22821,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.27173913043478259</v>
+        <v>0.28913043478260869</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -23217,7 +23220,9 @@
       <c r="E31" s="97">
         <v>1</v>
       </c>
-      <c r="F31" s="99"/>
+      <c r="F31" s="97">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -24048,7 +24053,9 @@
         <v>213</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="99"/>
+      <c r="D97" s="97">
+        <v>1</v>
+      </c>
       <c r="E97" s="99"/>
       <c r="F97" s="99"/>
       <c r="G97" s="99"/>
@@ -24061,10 +24068,18 @@
         <v>214</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="99"/>
+      <c r="D98" s="103">
+        <v>1</v>
+      </c>
+      <c r="E98" s="103">
+        <v>1</v>
+      </c>
+      <c r="F98" s="103">
+        <v>1</v>
+      </c>
+      <c r="G98" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -24087,8 +24102,12 @@
         <v>216</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
+      <c r="D100" s="97">
+        <v>1</v>
+      </c>
+      <c r="E100" s="97">
+        <v>1</v>
+      </c>
       <c r="F100" s="99"/>
       <c r="G100" s="99"/>
     </row>
@@ -24358,8 +24377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA56804-6A9E-402F-B031-BA7253DC714A}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G110" sqref="D110:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24396,7 +24415,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.29464285714285715</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -25362,8 +25381,12 @@
         <v>388</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
+      <c r="D62" s="97">
+        <v>1</v>
+      </c>
+      <c r="E62" s="97">
+        <v>1</v>
+      </c>
       <c r="F62" s="99"/>
       <c r="G62" s="99"/>
     </row>
@@ -25598,9 +25621,15 @@
       <c r="D77" s="97">
         <v>1</v>
       </c>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
+      <c r="E77" s="97">
+        <v>1</v>
+      </c>
+      <c r="F77" s="97">
+        <v>1</v>
+      </c>
+      <c r="G77" s="97">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -25845,10 +25874,18 @@
         <v>414</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
+      <c r="D95" s="103">
+        <v>1</v>
+      </c>
+      <c r="E95" s="103">
+        <v>1</v>
+      </c>
+      <c r="F95" s="103">
+        <v>1</v>
+      </c>
+      <c r="G95" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -25980,7 +26017,9 @@
         <v>423</v>
       </c>
       <c r="C104" s="10"/>
-      <c r="D104" s="69"/>
+      <c r="D104" s="109">
+        <v>1</v>
+      </c>
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
@@ -26073,14 +26112,18 @@
         <v>429</v>
       </c>
       <c r="C110" s="13"/>
-      <c r="D110" s="109">
-        <v>1</v>
-      </c>
-      <c r="E110" s="109">
-        <v>1</v>
-      </c>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
+      <c r="D110" s="70">
+        <v>1</v>
+      </c>
+      <c r="E110" s="70">
+        <v>1</v>
+      </c>
+      <c r="F110" s="70">
+        <v>1</v>
+      </c>
+      <c r="G110" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -26146,8 +26189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2665C-88A0-4C97-BC3C-CE855F56BE02}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G111" sqref="D111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26184,7 +26227,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.16294642857142858</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -26199,6 +26242,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
       <c r="L2" s="125"/>
@@ -26361,7 +26407,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1006</v>
       </c>
@@ -26370,7 +26416,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1007</v>
       </c>
@@ -26379,7 +26425,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1008</v>
       </c>
@@ -26388,7 +26434,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1009</v>
       </c>
@@ -26397,7 +26443,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1010</v>
       </c>
@@ -26405,8 +26451,14 @@
         <v>165</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1011</v>
       </c>
@@ -26415,7 +26467,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1012</v>
       </c>
@@ -26424,7 +26476,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1013</v>
       </c>
@@ -26433,7 +26485,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1014</v>
       </c>
@@ -26441,8 +26493,17 @@
         <v>1116</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1015</v>
       </c>
@@ -26454,7 +26515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1016</v>
       </c>
@@ -26463,7 +26524,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1017</v>
       </c>
@@ -26472,7 +26533,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1018</v>
       </c>
@@ -26481,7 +26542,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1019</v>
       </c>
@@ -26490,7 +26551,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1020</v>
       </c>
@@ -26499,7 +26560,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1021</v>
       </c>
@@ -27164,7 +27225,16 @@
         <v>1149</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8">
         <v>1</v>
       </c>
     </row>
@@ -27184,7 +27254,7 @@
       </c>
       <c r="F80" s="99"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1070</v>
       </c>
@@ -27196,7 +27266,7 @@
       <c r="E81" s="99"/>
       <c r="F81" s="99"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1071</v>
       </c>
@@ -27208,7 +27278,7 @@
       <c r="E82" s="99"/>
       <c r="F82" s="99"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1072</v>
       </c>
@@ -27217,7 +27287,7 @@
       </c>
       <c r="C83" s="13"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1073</v>
       </c>
@@ -27226,7 +27296,7 @@
       </c>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1074</v>
       </c>
@@ -27235,7 +27305,7 @@
       </c>
       <c r="C85" s="13"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1075</v>
       </c>
@@ -27244,7 +27314,7 @@
       </c>
       <c r="C86" s="13"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1076</v>
       </c>
@@ -27252,8 +27322,20 @@
         <v>1153</v>
       </c>
       <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="8">
+        <v>1</v>
+      </c>
+      <c r="E87" s="8">
+        <v>1</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1077</v>
       </c>
@@ -27261,8 +27343,20 @@
         <v>1154</v>
       </c>
       <c r="C88" s="13"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9">
+        <v>1</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1078</v>
       </c>
@@ -27271,7 +27365,7 @@
       </c>
       <c r="C89" s="13"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1079</v>
       </c>
@@ -27280,7 +27374,7 @@
       </c>
       <c r="C90" s="13"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1080</v>
       </c>
@@ -27289,7 +27383,7 @@
       </c>
       <c r="C91" s="13"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1081</v>
       </c>
@@ -27298,7 +27392,7 @@
       </c>
       <c r="C92" s="13"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1082</v>
       </c>
@@ -27312,7 +27406,7 @@
       <c r="E93" s="99"/>
       <c r="F93" s="99"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1083</v>
       </c>
@@ -27324,7 +27418,7 @@
       <c r="E94" s="99"/>
       <c r="F94" s="99"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1084</v>
       </c>
@@ -27336,7 +27430,7 @@
       <c r="E95" s="99"/>
       <c r="F95" s="99"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1085</v>
       </c>
@@ -27502,7 +27596,9 @@
         <v>1169</v>
       </c>
       <c r="C107" s="10"/>
-      <c r="D107" s="99"/>
+      <c r="D107" s="97">
+        <v>1</v>
+      </c>
       <c r="E107" s="99"/>
       <c r="F107" s="99"/>
     </row>
@@ -27550,13 +27646,16 @@
         <v>1173</v>
       </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="9">
-        <v>1</v>
-      </c>
-      <c r="E111" s="9">
-        <v>1</v>
-      </c>
-      <c r="F111" s="9">
+      <c r="D111" s="8">
+        <v>1</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="8">
         <v>1</v>
       </c>
     </row>
@@ -27594,7 +27693,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27631,7 +27730,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.19565217391304349</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -27711,7 +27810,12 @@
         <v>1294</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="99"/>
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -28595,9 +28699,18 @@
         <v>1343</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
+      <c r="D69" s="97">
+        <v>1</v>
+      </c>
+      <c r="E69" s="97">
+        <v>1</v>
+      </c>
+      <c r="F69" s="97">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -28625,6 +28738,15 @@
         <v>1346</v>
       </c>
       <c r="C72" s="10"/>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -28695,7 +28817,9 @@
         <v>1351</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="69"/>
+      <c r="D78" s="109">
+        <v>1</v>
+      </c>
       <c r="E78" s="69"/>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
@@ -28764,8 +28888,12 @@
         <v>958</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
+      <c r="D83" s="97">
+        <v>1</v>
+      </c>
+      <c r="E83" s="97">
+        <v>1</v>
+      </c>
       <c r="F83" s="99"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -28806,9 +28934,18 @@
         <v>1355</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
+      <c r="D86" s="97">
+        <v>1</v>
+      </c>
+      <c r="E86" s="97">
+        <v>1</v>
+      </c>
+      <c r="F86" s="97">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -29024,9 +29161,18 @@
         <v>1369</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
+      <c r="D102" s="103">
+        <v>1</v>
+      </c>
+      <c r="E102" s="103">
+        <v>1</v>
+      </c>
+      <c r="F102" s="103">
+        <v>1</v>
+      </c>
+      <c r="G102" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -29236,8 +29382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EADFA4-B03A-4A5C-BF19-C33CF1C28CA2}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G108" sqref="D108:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29942,11 +30088,12 @@
         <v>1536</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
         <v>232</v>
       </c>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -30006,6 +30153,10 @@
         <v>1538</v>
       </c>
       <c r="C73" s="13"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -30015,6 +30166,10 @@
         <v>1539</v>
       </c>
       <c r="C74" s="13"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -30073,7 +30228,7 @@
       </c>
       <c r="C80" s="13"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1464</v>
       </c>
@@ -30081,9 +30236,12 @@
         <v>1546</v>
       </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1465</v>
       </c>
@@ -30092,7 +30250,7 @@
       </c>
       <c r="C82" s="13"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1466</v>
       </c>
@@ -30101,7 +30259,7 @@
       </c>
       <c r="C83" s="13"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1467</v>
       </c>
@@ -30110,7 +30268,7 @@
       </c>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1468</v>
       </c>
@@ -30120,7 +30278,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1469</v>
       </c>
@@ -30129,7 +30287,7 @@
       </c>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1470</v>
       </c>
@@ -30138,7 +30296,7 @@
       </c>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1471</v>
       </c>
@@ -30147,7 +30305,7 @@
       </c>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1472</v>
       </c>
@@ -30158,7 +30316,7 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1473</v>
       </c>
@@ -30167,7 +30325,7 @@
       </c>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1474</v>
       </c>
@@ -30176,7 +30334,7 @@
       </c>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1475</v>
       </c>
@@ -30190,7 +30348,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1476</v>
       </c>
@@ -30203,7 +30361,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1477</v>
       </c>
@@ -30212,7 +30370,7 @@
       </c>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1478</v>
       </c>
@@ -30221,7 +30379,7 @@
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1479</v>
       </c>
@@ -30249,6 +30407,8 @@
         <v>1560</v>
       </c>
       <c r="C98" s="2"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -30338,7 +30498,10 @@
         <v>1569</v>
       </c>
       <c r="C107" s="13"/>
-      <c r="D107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -30348,8 +30511,10 @@
         <v>1570</v>
       </c>
       <c r="C108" s="13"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -30407,8 +30572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111:G111"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30811,6 +30976,8 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -31105,6 +31272,8 @@
         <v>1805</v>
       </c>
       <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -31114,9 +31283,10 @@
         <v>1806</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -31315,6 +31485,10 @@
         <v>1820</v>
       </c>
       <c r="C75" s="13"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -31335,6 +31509,10 @@
         <v>1822</v>
       </c>
       <c r="C77" s="13"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -31364,6 +31542,10 @@
         <v>1824</v>
       </c>
       <c r="C80" s="13"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -31559,6 +31741,7 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -31579,6 +31762,7 @@
         <v>1835</v>
       </c>
       <c r="C97" s="2"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -31654,6 +31838,7 @@
         <v>1844</v>
       </c>
       <c r="C105" s="10"/>
+      <c r="D105" s="9"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -31773,8 +31958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED9F24-D5F1-4918-913C-62878FD5AD90}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111:G111"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E79" sqref="D79:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31958,7 +32143,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1868</v>
       </c>
@@ -31967,7 +32152,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1869</v>
       </c>
@@ -31977,7 +32162,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1870</v>
       </c>
@@ -31986,7 +32171,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1871</v>
       </c>
@@ -31995,7 +32180,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1872</v>
       </c>
@@ -32005,7 +32190,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1873</v>
       </c>
@@ -32013,8 +32198,9 @@
         <v>1973</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1874</v>
       </c>
@@ -32023,7 +32209,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1875</v>
       </c>
@@ -32031,8 +32217,12 @@
         <v>1975</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1876</v>
       </c>
@@ -32041,7 +32231,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1877</v>
       </c>
@@ -32050,7 +32240,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1878</v>
       </c>
@@ -32059,7 +32249,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1879</v>
       </c>
@@ -32068,7 +32258,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1880</v>
       </c>
@@ -32077,7 +32267,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1881</v>
       </c>
@@ -32086,7 +32276,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1882</v>
       </c>
@@ -32095,7 +32285,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1883</v>
       </c>
@@ -32103,6 +32293,8 @@
         <v>639</v>
       </c>
       <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -32227,6 +32419,7 @@
         <v>362</v>
       </c>
       <c r="C45" s="4"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -32368,6 +32561,9 @@
         <v>1999</v>
       </c>
       <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -32561,6 +32757,8 @@
         <v>2013</v>
       </c>
       <c r="C79" s="22"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -32933,8 +33131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F8D3F-14FD-470C-AE18-07C3FEC41D51}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G74" sqref="D74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33258,6 +33456,8 @@
         <v>2177</v>
       </c>
       <c r="C30" s="2"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -33711,7 +33911,10 @@
         <v>182</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="9"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -34115,8 +34318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDC2A0D-B05E-4A37-A9BB-06B7F5291BCE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34678,6 +34881,7 @@
       <c r="C52" s="48" t="s">
         <v>1658</v>
       </c>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -34764,6 +34968,10 @@
         <v>2395</v>
       </c>
       <c r="C61" s="10"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -35261,6 +35469,7 @@
         <v>2438</v>
       </c>
       <c r="C110" s="6"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -35301,8 +35510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4CCD3-F266-4FA7-8C5C-BE1E474DC6DF}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:G80"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35977,6 +36186,9 @@
         <v>2764</v>
       </c>
       <c r="C62" s="49"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -36479,8 +36691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5AFE3-81A7-4C3F-8CA3-BDA6DC2D3CE2}">
   <dimension ref="A1:BA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111:F111"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36789,6 +37001,7 @@
         <v>1334</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -37006,9 +37219,10 @@
         <v>2677</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -37389,6 +37603,10 @@
       <c r="C72" s="33" t="s">
         <v>660</v>
       </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -37453,6 +37671,9 @@
         <v>1806</v>
       </c>
       <c r="C78" s="51"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -37641,7 +37862,7 @@
       </c>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2649</v>
       </c>
@@ -37651,7 +37872,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2650</v>
       </c>
@@ -37660,7 +37881,7 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2651</v>
       </c>
@@ -37671,7 +37892,7 @@
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2652</v>
       </c>
@@ -37680,7 +37901,7 @@
       </c>
       <c r="C100" s="40"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2653</v>
       </c>
@@ -37690,7 +37911,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2654</v>
       </c>
@@ -37701,7 +37922,7 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2655</v>
       </c>
@@ -37712,7 +37933,7 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2656</v>
       </c>
@@ -37722,7 +37943,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2657</v>
       </c>
@@ -37731,7 +37952,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2658</v>
       </c>
@@ -37741,7 +37962,7 @@
       <c r="C106" s="10"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2659</v>
       </c>
@@ -37749,8 +37970,12 @@
         <v>2721</v>
       </c>
       <c r="C107" s="10"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2660</v>
       </c>
@@ -37761,7 +37986,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2661</v>
       </c>
@@ -37770,7 +37995,7 @@
       </c>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2662</v>
       </c>
@@ -37780,7 +38005,7 @@
       <c r="C110" s="13"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2663</v>
       </c>
@@ -37792,7 +38017,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2664</v>
       </c>
@@ -37820,8 +38045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43077EF-62D2-44C0-916B-3EA4B8692A9F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37992,7 +38217,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2852</v>
       </c>
@@ -38001,7 +38226,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2853</v>
       </c>
@@ -38010,7 +38235,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2854</v>
       </c>
@@ -38019,7 +38244,7 @@
       </c>
       <c r="C19" s="53"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2855</v>
       </c>
@@ -38028,7 +38253,7 @@
       </c>
       <c r="C20" s="62"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2856</v>
       </c>
@@ -38036,8 +38261,12 @@
         <v>2952</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2857</v>
       </c>
@@ -38046,7 +38275,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2858</v>
       </c>
@@ -38055,7 +38284,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2859</v>
       </c>
@@ -38064,7 +38293,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2860</v>
       </c>
@@ -38073,7 +38302,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2861</v>
       </c>
@@ -38082,7 +38311,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2862</v>
       </c>
@@ -38091,7 +38320,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2863</v>
       </c>
@@ -38100,7 +38329,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2864</v>
       </c>
@@ -38111,7 +38340,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2865</v>
       </c>
@@ -38120,7 +38349,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2866</v>
       </c>
@@ -38131,7 +38360,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2867</v>
       </c>
@@ -38415,6 +38644,10 @@
         <v>2977</v>
       </c>
       <c r="C59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -38498,6 +38731,7 @@
         <v>2184</v>
       </c>
       <c r="C68" s="49"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -38615,7 +38849,7 @@
       </c>
       <c r="C80" s="13"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2916</v>
       </c>
@@ -38624,7 +38858,7 @@
       </c>
       <c r="C81" s="13"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2917</v>
       </c>
@@ -38633,7 +38867,7 @@
       </c>
       <c r="C82" s="13"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2918</v>
       </c>
@@ -38642,7 +38876,7 @@
       </c>
       <c r="C83" s="13"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2919</v>
       </c>
@@ -38651,7 +38885,7 @@
       </c>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2920</v>
       </c>
@@ -38660,7 +38894,7 @@
       </c>
       <c r="C85" s="51"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2921</v>
       </c>
@@ -38669,7 +38903,7 @@
       </c>
       <c r="C86" s="58"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2922</v>
       </c>
@@ -38678,7 +38912,7 @@
       </c>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2923</v>
       </c>
@@ -38687,7 +38921,7 @@
       </c>
       <c r="C88" s="63"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2924</v>
       </c>
@@ -38696,7 +38930,7 @@
       </c>
       <c r="C89" s="64"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2925</v>
       </c>
@@ -38705,7 +38939,7 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2926</v>
       </c>
@@ -38714,7 +38948,7 @@
       </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2927</v>
       </c>
@@ -38723,7 +38957,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2928</v>
       </c>
@@ -38734,7 +38968,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2929</v>
       </c>
@@ -38743,7 +38977,7 @@
       </c>
       <c r="C94" s="65"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2930</v>
       </c>
@@ -38751,8 +38985,9 @@
         <v>2786</v>
       </c>
       <c r="C95" s="66"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2931</v>
       </c>
@@ -38933,8 +39168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42F967-E1F3-47EB-9301-1DFFD3817B8E}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:G86"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39562,6 +39797,7 @@
         <v>1135</v>
       </c>
       <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -39693,6 +39929,7 @@
         <v>1851</v>
       </c>
       <c r="C76" s="33"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -39762,6 +39999,10 @@
         <v>3730</v>
       </c>
       <c r="C83" s="57"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -42316,8 +42557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42811,7 +43052,10 @@
         <v>3125</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -45725,7 +45969,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45802,6 +46046,7 @@
         <v>134</v>
       </c>
       <c r="C6" s="18"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -45830,6 +46075,7 @@
         <v>139</v>
       </c>
       <c r="C9" s="18"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -46742,7 +46988,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46823,6 +47069,8 @@
         <v>145</v>
       </c>
       <c r="C6" s="22"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -47111,8 +47359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47149,7 +47397,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G74))/M1</f>
-        <v>0.31164383561643838</v>
+        <v>0.3595890410958904</v>
       </c>
       <c r="M1" s="96">
         <f>73*4</f>
@@ -47311,6 +47559,12 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -47357,6 +47611,9 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -47483,7 +47740,16 @@
         <v>151</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
         <v>1</v>
       </c>
     </row>
@@ -47648,6 +47914,12 @@
       <c r="D41" s="9">
         <v>1</v>
       </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -47852,6 +48124,18 @@
         <v>394</v>
       </c>
       <c r="C56" s="13"/>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -47861,6 +48145,9 @@
         <v>392</v>
       </c>
       <c r="C57" s="13"/>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -47954,13 +48241,16 @@
         <v>140</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
         <v>1</v>
       </c>
     </row>
@@ -48497,7 +48787,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="G8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48603,8 +48893,10 @@
         <v>1351</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -48908,8 +49200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8369BA-B10C-407A-814D-EB228FD07681}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49035,6 +49327,10 @@
         <v>1519</v>
       </c>
       <c r="C11" s="79"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -49429,12 +49725,23 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D39B0-75AD-4DCF-8167-A515D15866AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49471,8 +49778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
   <dimension ref="A1:BB75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49785,7 +50092,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>854</v>
       </c>
@@ -49793,9 +50100,12 @@
         <v>154</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>856</v>
       </c>
@@ -49804,7 +50114,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>857</v>
       </c>
@@ -49815,7 +50125,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>859</v>
       </c>
@@ -49824,7 +50134,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>860</v>
       </c>
@@ -49833,7 +50143,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>862</v>
       </c>
@@ -49843,7 +50153,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>863</v>
       </c>
@@ -49852,7 +50162,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>865</v>
       </c>
@@ -49861,7 +50171,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>866</v>
       </c>
@@ -49872,7 +50182,7 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>868</v>
       </c>
@@ -49881,7 +50191,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>869</v>
       </c>
@@ -49890,7 +50200,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>871</v>
       </c>
@@ -49899,7 +50209,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>872</v>
       </c>
@@ -49908,7 +50218,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>874</v>
       </c>
@@ -49917,7 +50227,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>875</v>
       </c>
@@ -49926,7 +50236,7 @@
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>877</v>
       </c>
@@ -50847,8 +51157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388B2F6-0586-4EA8-9156-17C760219C92}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50897,6 +51207,7 @@
         <v>1294</v>
       </c>
       <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -51320,7 +51631,7 @@
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1599</v>
       </c>
@@ -51329,7 +51640,7 @@
       </c>
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1600</v>
       </c>
@@ -51338,7 +51649,7 @@
       </c>
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1601</v>
       </c>
@@ -51347,7 +51658,7 @@
       </c>
       <c r="C51" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1602</v>
       </c>
@@ -51356,7 +51667,7 @@
       </c>
       <c r="C52" s="10"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1603</v>
       </c>
@@ -51365,7 +51676,7 @@
       </c>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1604</v>
       </c>
@@ -51374,7 +51685,7 @@
       </c>
       <c r="C54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1605</v>
       </c>
@@ -51383,7 +51694,7 @@
       </c>
       <c r="C55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1606</v>
       </c>
@@ -51392,7 +51703,7 @@
       </c>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1607</v>
       </c>
@@ -51403,7 +51714,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1608</v>
       </c>
@@ -51414,7 +51725,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1609</v>
       </c>
@@ -51424,7 +51735,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1610</v>
       </c>
@@ -51438,7 +51749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1611</v>
       </c>
@@ -51449,8 +51760,9 @@
         <v>1652</v>
       </c>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1612</v>
       </c>
@@ -51461,7 +51773,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1613</v>
       </c>
@@ -51472,7 +51784,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1614</v>
       </c>
@@ -51602,8 +51914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D72FC-F40B-467E-A79C-7C754C067D68}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52184,6 +52496,9 @@
       <c r="C55" s="104" t="s">
         <v>1652</v>
       </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -52219,6 +52534,7 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8CB9F-4A4E-4DBD-A24A-DDDB907766E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C2B0C-7331-46A9-8988-2822A88892D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="27" activeTab="44" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="29" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6662" uniqueCount="4851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="4854">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15216,6 +15216,15 @@
   </si>
   <si>
     <t>garurumon</t>
+  </si>
+  <si>
+    <t>kosuke</t>
+  </si>
+  <si>
+    <t>the deamon wolf of the castle of nine aveniu</t>
+  </si>
+  <si>
+    <t>shine of bee</t>
   </si>
 </sst>
 </file>
@@ -16135,8 +16144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16174,7 +16183,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.18103448275862069</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16486,11 +16495,11 @@
         <v>610</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="95">
-        <v>0</v>
-      </c>
-      <c r="E16" s="95">
-        <v>0</v>
+      <c r="D16" s="107">
+        <v>1</v>
+      </c>
+      <c r="E16" s="107">
+        <v>1</v>
       </c>
       <c r="F16" s="95">
         <v>0</v>
@@ -16534,8 +16543,8 @@
       <c r="E18" s="97">
         <v>1</v>
       </c>
-      <c r="F18" s="95">
-        <v>0</v>
+      <c r="F18" s="107">
+        <v>1</v>
       </c>
       <c r="G18" s="95">
         <v>0</v>
@@ -16549,8 +16558,8 @@
         <v>397</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="95">
-        <v>0</v>
+      <c r="D19" s="107">
+        <v>1</v>
       </c>
       <c r="E19" s="95">
         <v>0</v>
@@ -17856,8 +17865,8 @@
       <c r="D81" s="97">
         <v>1</v>
       </c>
-      <c r="E81" s="95">
-        <v>0</v>
+      <c r="E81" s="107">
+        <v>1</v>
       </c>
       <c r="F81" s="95">
         <v>0</v>
@@ -17898,11 +17907,11 @@
       <c r="D83" s="97">
         <v>1</v>
       </c>
-      <c r="E83" s="95">
-        <v>0</v>
-      </c>
-      <c r="F83" s="95">
-        <v>0</v>
+      <c r="E83" s="107">
+        <v>1</v>
+      </c>
+      <c r="F83" s="107">
+        <v>1</v>
       </c>
       <c r="G83" s="95">
         <v>0</v>
@@ -17961,8 +17970,8 @@
       <c r="D86" s="97">
         <v>1</v>
       </c>
-      <c r="E86" s="95">
-        <v>0</v>
+      <c r="E86" s="107">
+        <v>1</v>
       </c>
       <c r="F86" s="95">
         <v>0</v>
@@ -19204,11 +19213,11 @@
         <v>702</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="95">
-        <v>0</v>
-      </c>
-      <c r="E144" s="95">
-        <v>0</v>
+      <c r="D144" s="107">
+        <v>1</v>
+      </c>
+      <c r="E144" s="107">
+        <v>1</v>
       </c>
       <c r="F144" s="95">
         <v>0</v>
@@ -19225,11 +19234,11 @@
         <v>703</v>
       </c>
       <c r="C145" s="10"/>
-      <c r="D145" s="95">
-        <v>0</v>
-      </c>
-      <c r="E145" s="95">
-        <v>0</v>
+      <c r="D145" s="107">
+        <v>1</v>
+      </c>
+      <c r="E145" s="107">
+        <v>1</v>
       </c>
       <c r="F145" s="95">
         <v>0</v>
@@ -19372,11 +19381,11 @@
         <v>709</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="95">
-        <v>0</v>
-      </c>
-      <c r="E152" s="95">
-        <v>0</v>
+      <c r="D152" s="107">
+        <v>1</v>
+      </c>
+      <c r="E152" s="107">
+        <v>1</v>
       </c>
       <c r="F152" s="95">
         <v>0</v>
@@ -19651,11 +19660,11 @@
         <v>723</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="95">
-        <v>0</v>
-      </c>
-      <c r="E165" s="95">
-        <v>0</v>
+      <c r="D165" s="107">
+        <v>1</v>
+      </c>
+      <c r="E165" s="107">
+        <v>1</v>
       </c>
       <c r="F165" s="95">
         <v>0</v>
@@ -19756,14 +19765,14 @@
         <v>726</v>
       </c>
       <c r="C170" s="10"/>
-      <c r="D170" s="95">
-        <v>0</v>
-      </c>
-      <c r="E170" s="95">
-        <v>0</v>
-      </c>
-      <c r="F170" s="95">
-        <v>0</v>
+      <c r="D170" s="107">
+        <v>1</v>
+      </c>
+      <c r="E170" s="107">
+        <v>1</v>
+      </c>
+      <c r="F170" s="107">
+        <v>1</v>
       </c>
       <c r="G170" s="95">
         <v>0</v>
@@ -19897,8 +19906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G65" sqref="D65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20535,6 +20544,10 @@
         <v>694</v>
       </c>
       <c r="C65" s="65"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -20642,8 +20655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2EFC-6826-4ABA-8BDC-42A29365876E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:G55"/>
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21587,8 +21600,8 @@
       <c r="D46" s="97">
         <v>1</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="99"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -21936,8 +21949,8 @@
       <c r="D65" s="97">
         <v>1</v>
       </c>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
       <c r="G65" s="99"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -40297,8 +40310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40788,6 +40801,7 @@
         <v>3877</v>
       </c>
       <c r="C50" s="35"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -41156,6 +41170,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -42463,13 +42478,16 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6F437-4233-4565-A960-B028FA067CC9}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -42546,6 +42564,30 @@
       </c>
       <c r="B10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -42557,8 +42599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43562,7 +43604,10 @@
         <v>3144</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -43751,8 +43796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44631,7 +44676,7 @@
       </c>
       <c r="C80" s="51"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4405</v>
       </c>
@@ -44640,7 +44685,7 @@
       </c>
       <c r="C81" s="51"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4406</v>
       </c>
@@ -44651,7 +44696,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4407</v>
       </c>
@@ -44662,7 +44707,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4408</v>
       </c>
@@ -44673,7 +44718,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4409</v>
       </c>
@@ -44684,7 +44729,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4410</v>
       </c>
@@ -44694,7 +44739,7 @@
       <c r="C86" s="51"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4411</v>
       </c>
@@ -44703,7 +44748,7 @@
       </c>
       <c r="C87" s="67"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4412</v>
       </c>
@@ -44712,7 +44757,7 @@
       </c>
       <c r="C88" s="24"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4413</v>
       </c>
@@ -44723,7 +44768,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4414</v>
       </c>
@@ -44734,7 +44779,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4415</v>
       </c>
@@ -44745,7 +44790,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4416</v>
       </c>
@@ -44756,7 +44801,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4417</v>
       </c>
@@ -44765,7 +44810,7 @@
       </c>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4418</v>
       </c>
@@ -44773,8 +44818,12 @@
         <v>4464</v>
       </c>
       <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4419</v>
       </c>
@@ -44783,7 +44832,7 @@
       </c>
       <c r="C95" s="51"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4420</v>
       </c>
@@ -44882,8 +44931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45557,7 +45606,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4538</v>
       </c>
@@ -45566,7 +45615,7 @@
       </c>
       <c r="C65" s="33"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4539</v>
       </c>
@@ -45578,7 +45627,7 @@
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4540</v>
       </c>
@@ -45589,7 +45638,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4541</v>
       </c>
@@ -45597,8 +45646,12 @@
         <v>393</v>
       </c>
       <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4542</v>
       </c>
@@ -45609,7 +45662,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4543</v>
       </c>
@@ -45622,7 +45675,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4544</v>
       </c>
@@ -45633,7 +45686,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4545</v>
       </c>
@@ -45642,7 +45695,7 @@
       </c>
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4546</v>
       </c>
@@ -45653,7 +45706,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4547</v>
       </c>
@@ -45662,7 +45715,7 @@
       </c>
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4548</v>
       </c>
@@ -45670,8 +45723,10 @@
         <v>4602</v>
       </c>
       <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4549</v>
       </c>
@@ -45680,7 +45735,7 @@
       </c>
       <c r="C76" s="13"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4550</v>
       </c>
@@ -45689,7 +45744,7 @@
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4551</v>
       </c>
@@ -45698,7 +45753,7 @@
       </c>
       <c r="C78" s="67"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4552</v>
       </c>
@@ -45707,7 +45762,7 @@
       </c>
       <c r="C79" s="67"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4553</v>
       </c>
@@ -45716,7 +45771,7 @@
       </c>
       <c r="C80" s="30"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4554</v>
       </c>
@@ -45725,7 +45780,7 @@
       </c>
       <c r="C81" s="30"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4555</v>
       </c>
@@ -45734,7 +45789,7 @@
       </c>
       <c r="C82" s="36"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4556</v>
       </c>
@@ -45744,7 +45799,7 @@
       <c r="C83" s="36"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4557</v>
       </c>
@@ -45753,7 +45808,7 @@
       </c>
       <c r="C84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4558</v>
       </c>
@@ -45762,7 +45817,7 @@
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4559</v>
       </c>
@@ -45771,7 +45826,7 @@
       </c>
       <c r="C86" s="59"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4560</v>
       </c>
@@ -45780,7 +45835,7 @@
       </c>
       <c r="C87" s="66"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4561</v>
       </c>
@@ -45789,7 +45844,7 @@
       </c>
       <c r="C88" s="49"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4562</v>
       </c>
@@ -45797,8 +45852,12 @@
         <v>981</v>
       </c>
       <c r="C89" s="50"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4563</v>
       </c>
@@ -45807,7 +45866,7 @@
       </c>
       <c r="C90" s="24"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4564</v>
       </c>
@@ -45816,7 +45875,7 @@
       </c>
       <c r="C91" s="24"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4565</v>
       </c>
@@ -45827,7 +45886,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4566</v>
       </c>
@@ -45837,7 +45896,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4567</v>
       </c>
@@ -45846,7 +45905,7 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4568</v>
       </c>
@@ -45856,8 +45915,9 @@
       <c r="C95" s="45" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4569</v>
       </c>
@@ -45866,7 +45926,7 @@
       </c>
       <c r="C96" s="80"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4570</v>
       </c>
@@ -45878,7 +45938,7 @@
       </c>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4571</v>
       </c>
@@ -45886,8 +45946,12 @@
         <v>4619</v>
       </c>
       <c r="C98" s="22"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4572</v>
       </c>
@@ -45896,7 +45960,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4573</v>
       </c>
@@ -45907,7 +45971,7 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4574</v>
       </c>
@@ -45916,7 +45980,7 @@
       </c>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4575</v>
       </c>
@@ -45927,7 +45991,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4576</v>
       </c>
@@ -47359,8 +47423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47397,7 +47461,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G74))/M1</f>
-        <v>0.3595890410958904</v>
+        <v>0.36301369863013699</v>
       </c>
       <c r="M1" s="96">
         <f>73*4</f>
@@ -47466,6 +47530,9 @@
         <v>805</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -49200,7 +49267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8369BA-B10C-407A-814D-EB228FD07681}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
@@ -49399,10 +49466,13 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E0C903-B663-409B-9A59-B0D46CD8BDF5}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49439,7 +49509,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G13))/M1</f>
-        <v>0.77083333333333337</v>
+        <v>1</v>
       </c>
       <c r="M1" s="96">
         <f>12*4</f>
@@ -49478,17 +49548,17 @@
         <v>393</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="95">
-        <v>0</v>
-      </c>
-      <c r="E3" s="95">
-        <v>0</v>
-      </c>
-      <c r="F3" s="95">
-        <v>0</v>
-      </c>
-      <c r="G3" s="95">
-        <v>0</v>
+      <c r="D3" s="108">
+        <v>1</v>
+      </c>
+      <c r="E3" s="108">
+        <v>1</v>
+      </c>
+      <c r="F3" s="108">
+        <v>1</v>
+      </c>
+      <c r="G3" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -49604,17 +49674,17 @@
         <v>430</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="97">
-        <v>1</v>
-      </c>
-      <c r="E9" s="95">
-        <v>0</v>
-      </c>
-      <c r="F9" s="95">
-        <v>0</v>
-      </c>
-      <c r="G9" s="95">
-        <v>0</v>
+      <c r="D9" s="103">
+        <v>1</v>
+      </c>
+      <c r="E9" s="108">
+        <v>1</v>
+      </c>
+      <c r="F9" s="108">
+        <v>1</v>
+      </c>
+      <c r="G9" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -49625,17 +49695,17 @@
         <v>1852</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="97">
-        <v>1</v>
-      </c>
-      <c r="E10" s="97">
-        <v>1</v>
-      </c>
-      <c r="F10" s="95">
-        <v>0</v>
-      </c>
-      <c r="G10" s="95">
-        <v>0</v>
+      <c r="D10" s="103">
+        <v>1</v>
+      </c>
+      <c r="E10" s="103">
+        <v>1</v>
+      </c>
+      <c r="F10" s="108">
+        <v>1</v>
+      </c>
+      <c r="G10" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -49646,17 +49716,17 @@
         <v>2821</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="97">
-        <v>1</v>
-      </c>
-      <c r="E11" s="97">
-        <v>1</v>
-      </c>
-      <c r="F11" s="95">
-        <v>0</v>
-      </c>
-      <c r="G11" s="95">
-        <v>0</v>
+      <c r="D11" s="103">
+        <v>1</v>
+      </c>
+      <c r="E11" s="103">
+        <v>1</v>
+      </c>
+      <c r="F11" s="108">
+        <v>1</v>
+      </c>
+      <c r="G11" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -49778,8 +49848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
   <dimension ref="A1:BB75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50245,7 +50315,7 @@
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>878</v>
       </c>
@@ -50254,7 +50324,7 @@
       </c>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>880</v>
       </c>
@@ -50264,7 +50334,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>881</v>
       </c>
@@ -50273,7 +50343,7 @@
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>883</v>
       </c>
@@ -50282,7 +50352,7 @@
       </c>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>884</v>
       </c>
@@ -50291,7 +50361,7 @@
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>886</v>
       </c>
@@ -50300,7 +50370,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>887</v>
       </c>
@@ -50309,7 +50379,7 @@
       </c>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>889</v>
       </c>
@@ -50320,7 +50390,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>890</v>
       </c>
@@ -50329,7 +50399,7 @@
       </c>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>892</v>
       </c>
@@ -50337,10 +50407,20 @@
         <v>958</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
+      <c r="G42" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>893</v>
       </c>
@@ -50350,7 +50430,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>895</v>
       </c>
@@ -50359,7 +50439,7 @@
       </c>
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>896</v>
       </c>
@@ -50368,7 +50448,7 @@
       </c>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>898</v>
       </c>
@@ -50377,7 +50457,7 @@
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>899</v>
       </c>
@@ -50386,7 +50466,7 @@
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C2B0C-7331-46A9-8988-2822A88892D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A8DF5-892E-4028-B900-211BA8A40144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="29" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="31" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="4854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="4855">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15225,6 +15225,9 @@
   </si>
   <si>
     <t>shine of bee</t>
+  </si>
+  <si>
+    <t>bibimon</t>
   </si>
 </sst>
 </file>
@@ -16145,7 +16148,7 @@
   <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16183,7 +16186,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.20833333333333334</v>
+        <v>0.21839080459770116</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -16243,8 +16246,8 @@
         <v>146</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="95">
-        <v>0</v>
+      <c r="D4" s="107">
+        <v>1</v>
       </c>
       <c r="E4" s="95">
         <v>0</v>
@@ -16351,11 +16354,11 @@
       <c r="D9" s="107">
         <v>1</v>
       </c>
-      <c r="E9" s="95">
-        <v>0</v>
-      </c>
-      <c r="F9" s="95">
-        <v>0</v>
+      <c r="E9" s="107">
+        <v>1</v>
+      </c>
+      <c r="F9" s="107">
+        <v>1</v>
       </c>
       <c r="G9" s="95">
         <v>0</v>
@@ -18483,11 +18486,11 @@
       <c r="C110" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D110" s="95">
-        <v>0</v>
-      </c>
-      <c r="E110" s="95">
-        <v>0</v>
+      <c r="D110" s="107">
+        <v>1</v>
+      </c>
+      <c r="E110" s="107">
+        <v>1</v>
       </c>
       <c r="F110" s="95">
         <v>0</v>
@@ -18506,11 +18509,11 @@
       <c r="C111" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="D111" s="95">
-        <v>0</v>
-      </c>
-      <c r="E111" s="95">
-        <v>0</v>
+      <c r="D111" s="107">
+        <v>1</v>
+      </c>
+      <c r="E111" s="107">
+        <v>1</v>
       </c>
       <c r="F111" s="95">
         <v>0</v>
@@ -19906,8 +19909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="D65:G65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20076,6 +20079,7 @@
         <v>1296</v>
       </c>
       <c r="C16" s="2"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -20185,6 +20189,7 @@
         <v>3465</v>
       </c>
       <c r="C28" s="43"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -20256,6 +20261,7 @@
         <v>3468</v>
       </c>
       <c r="C35" s="4"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -22796,8 +22802,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22834,7 +22840,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.28913043478260869</v>
+        <v>0.34347826086956523</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -22861,6 +22867,18 @@
         <v>115</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" s="70">
+        <v>1</v>
+      </c>
+      <c r="E3" s="70">
+        <v>1</v>
+      </c>
+      <c r="F3" s="70">
+        <v>1</v>
+      </c>
+      <c r="G3" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -23513,6 +23531,18 @@
         <v>168</v>
       </c>
       <c r="C52" s="3"/>
+      <c r="D52" s="70">
+        <v>1</v>
+      </c>
+      <c r="E52" s="70">
+        <v>1</v>
+      </c>
+      <c r="F52" s="70">
+        <v>1</v>
+      </c>
+      <c r="G52" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -23552,6 +23582,18 @@
         <v>171</v>
       </c>
       <c r="C55" s="3"/>
+      <c r="D55" s="70">
+        <v>1</v>
+      </c>
+      <c r="E55" s="70">
+        <v>1</v>
+      </c>
+      <c r="F55" s="70">
+        <v>1</v>
+      </c>
+      <c r="G55" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -23615,6 +23657,18 @@
         <v>176</v>
       </c>
       <c r="C60" s="3"/>
+      <c r="D60" s="70">
+        <v>1</v>
+      </c>
+      <c r="E60" s="70">
+        <v>1</v>
+      </c>
+      <c r="F60" s="70">
+        <v>1</v>
+      </c>
+      <c r="G60" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -23633,6 +23687,9 @@
         <v>178</v>
       </c>
       <c r="C62" s="3"/>
+      <c r="D62" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -24009,6 +24066,12 @@
         <v>208</v>
       </c>
       <c r="C92" s="1"/>
+      <c r="D92" s="70">
+        <v>1</v>
+      </c>
+      <c r="E92" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -24220,8 +24283,12 @@
       <c r="E107" s="103">
         <v>1</v>
       </c>
-      <c r="F107" s="99"/>
-      <c r="G107" s="99"/>
+      <c r="F107" s="103">
+        <v>1</v>
+      </c>
+      <c r="G107" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -24276,10 +24343,18 @@
         <v>227</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
+      <c r="D111" s="103">
+        <v>1</v>
+      </c>
+      <c r="E111" s="103">
+        <v>1</v>
+      </c>
+      <c r="F111" s="103">
+        <v>1</v>
+      </c>
+      <c r="G111" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -24390,8 +24465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA56804-6A9E-402F-B031-BA7253DC714A}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G110" sqref="D110:G110"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24428,7 +24503,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.32142857142857145</v>
+        <v>0.34375</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -24600,10 +24675,18 @@
         <v>353</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
+      <c r="D12" s="103">
+        <v>1</v>
+      </c>
+      <c r="E12" s="103">
+        <v>1</v>
+      </c>
+      <c r="F12" s="103">
+        <v>1</v>
+      </c>
+      <c r="G12" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -24639,8 +24722,12 @@
         <v>355</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
+      <c r="D15" s="97">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
       <c r="F15" s="99"/>
       <c r="G15" s="99"/>
     </row>
@@ -24934,8 +25021,12 @@
         <v>127</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
+      <c r="D34" s="109">
+        <v>1</v>
+      </c>
+      <c r="E34" s="109">
+        <v>1</v>
+      </c>
       <c r="F34" s="69"/>
       <c r="G34" s="69"/>
     </row>
@@ -25736,7 +25827,9 @@
         <v>405</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="99"/>
+      <c r="D84" s="97">
+        <v>1</v>
+      </c>
       <c r="E84" s="99"/>
       <c r="F84" s="99"/>
       <c r="G84" s="99"/>
@@ -26170,7 +26263,9 @@
       <c r="D112" s="97">
         <v>1</v>
       </c>
-      <c r="E112" s="99"/>
+      <c r="E112" s="97">
+        <v>1</v>
+      </c>
       <c r="F112" s="99"/>
       <c r="G112" s="99"/>
     </row>
@@ -26202,8 +26297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2665C-88A0-4C97-BC3C-CE855F56BE02}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G111" sqref="D111:G111"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26240,7 +26335,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G113))/M1</f>
-        <v>0.20535714285714285</v>
+        <v>0.21651785714285715</v>
       </c>
       <c r="M1" s="96">
         <f>112*4</f>
@@ -26258,6 +26353,12 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
       <c r="J2" s="124"/>
       <c r="K2" s="124"/>
       <c r="L2" s="125"/>
@@ -26581,6 +26682,9 @@
         <v>1119</v>
       </c>
       <c r="C32" s="2"/>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -26975,7 +27079,9 @@
         <v>1134</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="99"/>
+      <c r="D61" s="97">
+        <v>1</v>
+      </c>
       <c r="E61" s="99"/>
       <c r="F61" s="99"/>
       <c r="G61" s="99"/>
@@ -27072,7 +27178,9 @@
         <v>1141</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="99"/>
+      <c r="D68" s="97">
+        <v>1</v>
+      </c>
       <c r="E68" s="99"/>
       <c r="F68" s="99"/>
       <c r="G68" s="99"/>
@@ -27705,8 +27813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBCD81-F172-48FD-BFD1-AB8B6468CB73}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27743,7 +27851,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.2391304347826087</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -28273,10 +28381,18 @@
         <v>646</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
+      <c r="D37" s="103">
+        <v>1</v>
+      </c>
+      <c r="E37" s="103">
+        <v>1</v>
+      </c>
+      <c r="F37" s="103">
+        <v>1</v>
+      </c>
+      <c r="G37" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -28286,10 +28402,18 @@
         <v>163</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
+      <c r="D38" s="103">
+        <v>1</v>
+      </c>
+      <c r="E38" s="103">
+        <v>1</v>
+      </c>
+      <c r="F38" s="103">
+        <v>1</v>
+      </c>
+      <c r="G38" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -29395,8 +29519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EADFA4-B03A-4A5C-BF19-C33CF1C28CA2}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G108" sqref="D108:G108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29810,6 +29934,10 @@
         <v>1519</v>
       </c>
       <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -29828,6 +29956,10 @@
         <v>1520</v>
       </c>
       <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -29837,6 +29969,10 @@
         <v>1521</v>
       </c>
       <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -29855,6 +29991,9 @@
         <v>678</v>
       </c>
       <c r="C43" s="3"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -29864,6 +30003,8 @@
         <v>1522</v>
       </c>
       <c r="C44" s="3"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -30585,8 +30726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31124,6 +31265,10 @@
         <v>1794</v>
       </c>
       <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -31160,6 +31305,10 @@
         <v>1797</v>
       </c>
       <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -31568,6 +31717,10 @@
         <v>1825</v>
       </c>
       <c r="C81" s="13"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -31971,8 +32124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED9F24-D5F1-4918-913C-62878FD5AD90}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="D79:E79"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G60" sqref="D60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32012,6 +32165,10 @@
         <v>348</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -32082,6 +32239,10 @@
         <v>1967</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -32127,7 +32288,10 @@
         <v>1969</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -32326,7 +32490,10 @@
         <v>1793</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -32369,6 +32536,10 @@
         <v>643</v>
       </c>
       <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -32574,9 +32745,10 @@
         <v>1999</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -33144,8 +33316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F8D3F-14FD-470C-AE18-07C3FEC41D51}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G74" sqref="D74:G74"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33353,6 +33525,7 @@
         <v>2169</v>
       </c>
       <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -33491,7 +33664,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2078</v>
       </c>
@@ -33502,7 +33675,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2079</v>
       </c>
@@ -33511,7 +33684,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2080</v>
       </c>
@@ -33522,7 +33695,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2081</v>
       </c>
@@ -33531,7 +33704,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2082</v>
       </c>
@@ -33540,7 +33713,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2083</v>
       </c>
@@ -33551,7 +33724,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2084</v>
       </c>
@@ -33562,7 +33735,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2085</v>
       </c>
@@ -33573,7 +33746,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2086</v>
       </c>
@@ -33581,8 +33754,12 @@
         <v>2184</v>
       </c>
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2087</v>
       </c>
@@ -33592,8 +33769,12 @@
       <c r="C42" s="45" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2088</v>
       </c>
@@ -33604,7 +33785,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2089</v>
       </c>
@@ -33613,7 +33794,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2090</v>
       </c>
@@ -33624,7 +33805,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2091</v>
       </c>
@@ -33633,7 +33814,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2092</v>
       </c>
@@ -33642,7 +33823,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2093</v>
       </c>
@@ -33770,6 +33951,7 @@
         <v>2196</v>
       </c>
       <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -33804,6 +33986,7 @@
         <v>2199</v>
       </c>
       <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -34331,8 +34514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDC2A0D-B05E-4A37-A9BB-06B7F5291BCE}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34438,6 +34621,10 @@
         <v>2355</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -34465,6 +34652,10 @@
         <v>2358</v>
       </c>
       <c r="C11" s="1"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -34716,6 +34907,10 @@
         <v>1517</v>
       </c>
       <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -34760,6 +34955,10 @@
       <c r="C40" s="3" t="s">
         <v>729</v>
       </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -34952,6 +35151,10 @@
         <v>2394</v>
       </c>
       <c r="C58" s="10"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -35524,7 +35727,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35794,6 +35997,7 @@
         <v>138</v>
       </c>
       <c r="C25" s="2"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -36704,8 +36908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5AFE3-81A7-4C3F-8CA3-BDA6DC2D3CE2}">
   <dimension ref="A1:BA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:G107"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36950,6 +37154,9 @@
         <v>2394</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -36972,7 +37179,10 @@
         <v>2668</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -37501,6 +37711,7 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -37893,6 +38104,8 @@
         <v>2712</v>
       </c>
       <c r="C98" s="1"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -38058,8 +38271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43077EF-62D2-44C0-916B-3EA4B8692A9F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38401,6 +38614,10 @@
         <v>1539</v>
       </c>
       <c r="C34" s="52"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -38432,6 +38649,8 @@
       <c r="C37" s="26" t="s">
         <v>1652</v>
       </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -38476,7 +38695,10 @@
         <v>2964</v>
       </c>
       <c r="C41" s="43"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -38517,6 +38739,7 @@
         <v>2967</v>
       </c>
       <c r="C45" s="20"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -38745,6 +38968,7 @@
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -39182,7 +39406,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D75" sqref="D75:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39587,6 +39811,7 @@
       <c r="C40" s="3" t="s">
         <v>729</v>
       </c>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -39933,6 +40158,8 @@
         <v>3727</v>
       </c>
       <c r="C75" s="10"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -40310,8 +40537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0013C3EA-231A-46C3-A58D-E3C8D9F8CC49}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40431,6 +40658,7 @@
         <v>382</v>
       </c>
       <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -43796,8 +44024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94:G94"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44695,6 +44923,7 @@
       <c r="C82" s="51" t="s">
         <v>938</v>
       </c>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -44931,8 +45160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45044,6 +45273,7 @@
       <c r="C9" s="30" t="s">
         <v>938</v>
       </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -45267,7 +45497,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4506</v>
       </c>
@@ -45278,7 +45508,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4507</v>
       </c>
@@ -45289,7 +45519,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4508</v>
       </c>
@@ -45298,7 +45528,7 @@
       </c>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4509</v>
       </c>
@@ -45309,7 +45539,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4510</v>
       </c>
@@ -45318,7 +45548,7 @@
       </c>
       <c r="C37" s="26"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4511</v>
       </c>
@@ -45327,7 +45557,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4512</v>
       </c>
@@ -45338,7 +45568,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4513</v>
       </c>
@@ -45350,7 +45580,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4514</v>
       </c>
@@ -45359,7 +45589,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4515</v>
       </c>
@@ -45371,7 +45601,7 @@
       </c>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4516</v>
       </c>
@@ -45382,7 +45612,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4517</v>
       </c>
@@ -45390,8 +45620,12 @@
         <v>4592</v>
       </c>
       <c r="C44" s="43"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4518</v>
       </c>
@@ -45400,7 +45634,7 @@
       </c>
       <c r="C45" s="47"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4519</v>
       </c>
@@ -45411,7 +45645,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4520</v>
       </c>
@@ -45421,7 +45655,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4521</v>
       </c>
@@ -46007,10 +46241,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2EF3FC-3697-4B41-BC25-3641E22A5B39}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46020,6 +46254,14 @@
         <v>4849</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
@@ -46033,7 +46275,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46083,6 +46325,8 @@
         <v>129</v>
       </c>
       <c r="C3" s="18"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -46101,6 +46345,9 @@
         <v>650</v>
       </c>
       <c r="C5" s="18"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -46228,7 +46475,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46450,6 +46697,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -47423,8 +47671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8531ADC-7578-45E2-8DC7-4E5BA0724B67}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47461,7 +47709,7 @@
       <c r="K1" s="124"/>
       <c r="L1" s="125">
         <f>(SUM(D2:G74))/M1</f>
-        <v>0.36301369863013699</v>
+        <v>0.36643835616438358</v>
       </c>
       <c r="M1" s="96">
         <f>73*4</f>
@@ -48057,6 +48305,9 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
         <v>1</v>
       </c>
     </row>
@@ -48655,7 +48906,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G16" sqref="D16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48696,6 +48947,10 @@
         <v>716</v>
       </c>
       <c r="C2" s="47"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -48705,6 +48960,8 @@
         <v>361</v>
       </c>
       <c r="C3" s="55"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -48727,6 +48984,10 @@
         <v>806</v>
       </c>
       <c r="C5" s="55"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -48738,6 +48999,8 @@
       <c r="C6" s="42" t="s">
         <v>1652</v>
       </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -48749,6 +49012,8 @@
       <c r="C7" s="42" t="s">
         <v>1652</v>
       </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -48758,6 +49023,10 @@
         <v>3592</v>
       </c>
       <c r="C8" s="47"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -48767,6 +49036,10 @@
         <v>3593</v>
       </c>
       <c r="C9" s="47"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -48776,6 +49049,10 @@
         <v>810</v>
       </c>
       <c r="C10" s="47"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -48785,9 +49062,10 @@
         <v>3594</v>
       </c>
       <c r="C11" s="47"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -48799,6 +49077,10 @@
       <c r="C12" s="80" t="s">
         <v>1658</v>
       </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -48808,6 +49090,10 @@
         <v>3595</v>
       </c>
       <c r="C13" s="47"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -48817,6 +49103,10 @@
         <v>200</v>
       </c>
       <c r="C14" s="47"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -48828,6 +49118,8 @@
       <c r="C15" s="42" t="s">
         <v>1652</v>
       </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -48837,9 +49129,10 @@
         <v>3597</v>
       </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="82"/>
@@ -49072,7 +49365,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49122,6 +49415,10 @@
         <v>1147</v>
       </c>
       <c r="C3" s="63"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -49151,6 +49448,10 @@
         <v>1151</v>
       </c>
       <c r="C6" s="63"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -49268,7 +49569,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G11"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49418,6 +49719,9 @@
       <c r="C13" s="49" t="s">
         <v>2174</v>
       </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -49848,8 +50152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580CB234-ECF5-471B-8773-B00147CB61EE}">
   <dimension ref="A1:BB75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50077,6 +50381,8 @@
         <v>351</v>
       </c>
       <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0F4A50-9AED-4B5B-B52D-DC754D6F2A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF921A09-EA55-4B09-8026-779BE4903A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="23" activeTab="32" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -40,30 +40,31 @@
     <sheet name="BT13" sheetId="17" r:id="rId25"/>
     <sheet name="BT14" sheetId="18" r:id="rId26"/>
     <sheet name="BT15" sheetId="19" r:id="rId27"/>
-    <sheet name="BT16" sheetId="20" r:id="rId28"/>
-    <sheet name="BT17" sheetId="21" r:id="rId29"/>
+    <sheet name="BT17" sheetId="21" r:id="rId28"/>
+    <sheet name="BT16" sheetId="20" r:id="rId29"/>
     <sheet name="BT18" sheetId="22" r:id="rId30"/>
     <sheet name="BT19" sheetId="23" r:id="rId31"/>
     <sheet name="BT20" sheetId="24" r:id="rId32"/>
-    <sheet name="ST1" sheetId="31" r:id="rId33"/>
-    <sheet name="ST2" sheetId="32" r:id="rId34"/>
-    <sheet name="ST3" sheetId="33" r:id="rId35"/>
-    <sheet name="ST4" sheetId="34" r:id="rId36"/>
-    <sheet name="ST5" sheetId="35" r:id="rId37"/>
-    <sheet name="ST6" sheetId="36" r:id="rId38"/>
-    <sheet name="ST7" sheetId="37" r:id="rId39"/>
-    <sheet name="ST8" sheetId="38" r:id="rId40"/>
-    <sheet name="ST9" sheetId="39" r:id="rId41"/>
-    <sheet name="ST10" sheetId="40" r:id="rId42"/>
-    <sheet name="ST11" sheetId="41" r:id="rId43"/>
-    <sheet name="ST12" sheetId="42" r:id="rId44"/>
-    <sheet name="ST13" sheetId="43" r:id="rId45"/>
-    <sheet name="ST14" sheetId="44" r:id="rId46"/>
-    <sheet name="ST15" sheetId="45" r:id="rId47"/>
-    <sheet name="ST16" sheetId="46" r:id="rId48"/>
-    <sheet name="ST17" sheetId="47" r:id="rId49"/>
-    <sheet name="ST18" sheetId="48" r:id="rId50"/>
-    <sheet name="ST19" sheetId="49" r:id="rId51"/>
+    <sheet name="BT21" sheetId="52" r:id="rId33"/>
+    <sheet name="ST1" sheetId="31" r:id="rId34"/>
+    <sheet name="ST2" sheetId="32" r:id="rId35"/>
+    <sheet name="ST3" sheetId="33" r:id="rId36"/>
+    <sheet name="ST4" sheetId="34" r:id="rId37"/>
+    <sheet name="ST5" sheetId="35" r:id="rId38"/>
+    <sheet name="ST6" sheetId="36" r:id="rId39"/>
+    <sheet name="ST7" sheetId="37" r:id="rId40"/>
+    <sheet name="ST8" sheetId="38" r:id="rId41"/>
+    <sheet name="ST9" sheetId="39" r:id="rId42"/>
+    <sheet name="ST10" sheetId="40" r:id="rId43"/>
+    <sheet name="ST11" sheetId="41" r:id="rId44"/>
+    <sheet name="ST12" sheetId="42" r:id="rId45"/>
+    <sheet name="ST13" sheetId="43" r:id="rId46"/>
+    <sheet name="ST14" sheetId="44" r:id="rId47"/>
+    <sheet name="ST15" sheetId="45" r:id="rId48"/>
+    <sheet name="ST16" sheetId="46" r:id="rId49"/>
+    <sheet name="ST17" sheetId="47" r:id="rId50"/>
+    <sheet name="ST18" sheetId="48" r:id="rId51"/>
+    <sheet name="ST19" sheetId="49" r:id="rId52"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Promos!$A$1:$M$175</definedName>
@@ -404,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6683" uniqueCount="4872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="5026">
   <si>
     <t>bt1-001</t>
   </si>
@@ -15279,6 +15280,487 @@
   </si>
   <si>
     <t>baldy blow</t>
+  </si>
+  <si>
+    <t>Darkdramon ACE</t>
+  </si>
+  <si>
+    <t>Ghoulmon ACE</t>
+  </si>
+  <si>
+    <t>bt21-001</t>
+  </si>
+  <si>
+    <t>bt21-002</t>
+  </si>
+  <si>
+    <t>bt21-003</t>
+  </si>
+  <si>
+    <t>bt21-004</t>
+  </si>
+  <si>
+    <t>bt21-005</t>
+  </si>
+  <si>
+    <t>bt21-006</t>
+  </si>
+  <si>
+    <t>bt21-007</t>
+  </si>
+  <si>
+    <t>bt21-008</t>
+  </si>
+  <si>
+    <t>bt21-009</t>
+  </si>
+  <si>
+    <t>bt21-010</t>
+  </si>
+  <si>
+    <t>bt21-011</t>
+  </si>
+  <si>
+    <t>bt21-012</t>
+  </si>
+  <si>
+    <t>bt21-013</t>
+  </si>
+  <si>
+    <t>bt21-014</t>
+  </si>
+  <si>
+    <t>bt21-015</t>
+  </si>
+  <si>
+    <t>bt21-016</t>
+  </si>
+  <si>
+    <t>bt21-017</t>
+  </si>
+  <si>
+    <t>bt21-018</t>
+  </si>
+  <si>
+    <t>bt21-019</t>
+  </si>
+  <si>
+    <t>bt21-020</t>
+  </si>
+  <si>
+    <t>bt21-021</t>
+  </si>
+  <si>
+    <t>bt21-022</t>
+  </si>
+  <si>
+    <t>bt21-023</t>
+  </si>
+  <si>
+    <t>bt21-024</t>
+  </si>
+  <si>
+    <t>bt21-025</t>
+  </si>
+  <si>
+    <t>bt21-026</t>
+  </si>
+  <si>
+    <t>bt21-027</t>
+  </si>
+  <si>
+    <t>bt21-028</t>
+  </si>
+  <si>
+    <t>bt21-029</t>
+  </si>
+  <si>
+    <t>bt21-030</t>
+  </si>
+  <si>
+    <t>bt21-031</t>
+  </si>
+  <si>
+    <t>bt21-032</t>
+  </si>
+  <si>
+    <t>bt21-033</t>
+  </si>
+  <si>
+    <t>bt21-034</t>
+  </si>
+  <si>
+    <t>bt21-035</t>
+  </si>
+  <si>
+    <t>bt21-036</t>
+  </si>
+  <si>
+    <t>bt21-037</t>
+  </si>
+  <si>
+    <t>bt21-038</t>
+  </si>
+  <si>
+    <t>bt21-039</t>
+  </si>
+  <si>
+    <t>bt21-040</t>
+  </si>
+  <si>
+    <t>bt21-041</t>
+  </si>
+  <si>
+    <t>bt21-042</t>
+  </si>
+  <si>
+    <t>bt21-043</t>
+  </si>
+  <si>
+    <t>bt21-044</t>
+  </si>
+  <si>
+    <t>bt21-045</t>
+  </si>
+  <si>
+    <t>bt21-046</t>
+  </si>
+  <si>
+    <t>bt21-047</t>
+  </si>
+  <si>
+    <t>bt21-048</t>
+  </si>
+  <si>
+    <t>bt21-049</t>
+  </si>
+  <si>
+    <t>bt21-050</t>
+  </si>
+  <si>
+    <t>bt21-051</t>
+  </si>
+  <si>
+    <t>bt21-052</t>
+  </si>
+  <si>
+    <t>bt21-053</t>
+  </si>
+  <si>
+    <t>bt21-054</t>
+  </si>
+  <si>
+    <t>bt21-055</t>
+  </si>
+  <si>
+    <t>bt21-056</t>
+  </si>
+  <si>
+    <t>bt21-057</t>
+  </si>
+  <si>
+    <t>bt21-058</t>
+  </si>
+  <si>
+    <t>bt21-059</t>
+  </si>
+  <si>
+    <t>bt21-060</t>
+  </si>
+  <si>
+    <t>bt21-061</t>
+  </si>
+  <si>
+    <t>bt21-062</t>
+  </si>
+  <si>
+    <t>bt21-063</t>
+  </si>
+  <si>
+    <t>bt21-064</t>
+  </si>
+  <si>
+    <t>bt21-065</t>
+  </si>
+  <si>
+    <t>bt21-066</t>
+  </si>
+  <si>
+    <t>bt21-067</t>
+  </si>
+  <si>
+    <t>bt21-068</t>
+  </si>
+  <si>
+    <t>bt21-069</t>
+  </si>
+  <si>
+    <t>bt21-070</t>
+  </si>
+  <si>
+    <t>bt21-071</t>
+  </si>
+  <si>
+    <t>bt21-072</t>
+  </si>
+  <si>
+    <t>bt21-073</t>
+  </si>
+  <si>
+    <t>bt21-074</t>
+  </si>
+  <si>
+    <t>bt21-075</t>
+  </si>
+  <si>
+    <t>bt21-076</t>
+  </si>
+  <si>
+    <t>bt21-077</t>
+  </si>
+  <si>
+    <t>bt21-078</t>
+  </si>
+  <si>
+    <t>bt21-079</t>
+  </si>
+  <si>
+    <t>bt21-080</t>
+  </si>
+  <si>
+    <t>bt21-081</t>
+  </si>
+  <si>
+    <t>bt21-082</t>
+  </si>
+  <si>
+    <t>bt21-083</t>
+  </si>
+  <si>
+    <t>bt21-084</t>
+  </si>
+  <si>
+    <t>bt21-085</t>
+  </si>
+  <si>
+    <t>bt21-086</t>
+  </si>
+  <si>
+    <t>bt21-087</t>
+  </si>
+  <si>
+    <t>bt21-088</t>
+  </si>
+  <si>
+    <t>bt21-089</t>
+  </si>
+  <si>
+    <t>bt21-090</t>
+  </si>
+  <si>
+    <t>bt21-091</t>
+  </si>
+  <si>
+    <t>bt21-092</t>
+  </si>
+  <si>
+    <t>bt21-093</t>
+  </si>
+  <si>
+    <t>bt21-094</t>
+  </si>
+  <si>
+    <t>bt21-095</t>
+  </si>
+  <si>
+    <t>bt21-096</t>
+  </si>
+  <si>
+    <t>bt21-097</t>
+  </si>
+  <si>
+    <t>bt21-098</t>
+  </si>
+  <si>
+    <t>bt21-099</t>
+  </si>
+  <si>
+    <t>bt21-100</t>
+  </si>
+  <si>
+    <t>bt21-101</t>
+  </si>
+  <si>
+    <t>bt21-102</t>
+  </si>
+  <si>
+    <t>Swipemon</t>
+  </si>
+  <si>
+    <t>Elizamon</t>
+  </si>
+  <si>
+    <t>Gatchmon</t>
+  </si>
+  <si>
+    <t>Cyclonemon</t>
+  </si>
+  <si>
+    <t>Dimetromon</t>
+  </si>
+  <si>
+    <t>Dogatchmon</t>
+  </si>
+  <si>
+    <t>Canonweissmon</t>
+  </si>
+  <si>
+    <t>Globemon</t>
+  </si>
+  <si>
+    <t>Lamiamon</t>
+  </si>
+  <si>
+    <t>shoutmon DX</t>
+  </si>
+  <si>
+    <t>Medusamon</t>
+  </si>
+  <si>
+    <t>Shoutmon X7 Superior Mode</t>
+  </si>
+  <si>
+    <t>Lighdramon</t>
+  </si>
+  <si>
+    <t>Gryphonmon</t>
+  </si>
+  <si>
+    <t>Calendamon</t>
+  </si>
+  <si>
+    <t>Sociamon</t>
+  </si>
+  <si>
+    <t>Dracomon (x antybody)</t>
+  </si>
+  <si>
+    <t>Navimon</t>
+  </si>
+  <si>
+    <t>Puppetmon ACE</t>
+  </si>
+  <si>
+    <t>Examon (X antibody)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rojo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> azul</t>
+    </r>
+  </si>
+  <si>
+    <t>Watchmon</t>
+  </si>
+  <si>
+    <t>shotmon</t>
+  </si>
+  <si>
+    <t>sunarizamon</t>
+  </si>
+  <si>
+    <t>Timemon</t>
+  </si>
+  <si>
+    <t>GulusGammamon</t>
+  </si>
+  <si>
+    <t>Gossipmon</t>
+  </si>
+  <si>
+    <t>Scopemon</t>
+  </si>
+  <si>
+    <t>Arresterdramon  Superior Mode</t>
+  </si>
+  <si>
+    <t>Charismon</t>
+  </si>
+  <si>
+    <t>satellamon</t>
+  </si>
+  <si>
+    <t>SkullGreymon</t>
+  </si>
+  <si>
+    <t>Regulusmon</t>
+  </si>
+  <si>
+    <t>Takuya kanbara</t>
+  </si>
+  <si>
+    <t>Haru Shinkai</t>
+  </si>
+  <si>
+    <t>Davis motomiya</t>
+  </si>
+  <si>
+    <t>Tagiru Akashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takato Matsuki </t>
+  </si>
+  <si>
+    <t>The Strongest of Brothers</t>
+  </si>
+  <si>
+    <t>Spirit Evolution!</t>
+  </si>
+  <si>
+    <t>Can't Turn My Back!</t>
+  </si>
+  <si>
+    <t>Raging Serpentine</t>
+  </si>
+  <si>
+    <t>Armor Digivolution</t>
+  </si>
+  <si>
+    <t>Wind Guardians</t>
+  </si>
+  <si>
+    <t>The Champion Ultimate Fighter!</t>
+  </si>
+  <si>
+    <t>App Link</t>
+  </si>
+  <si>
+    <t>Ragnarok Cannon</t>
+  </si>
+  <si>
+    <t>Xros Up</t>
+  </si>
+  <si>
+    <t>The Digimon I Designed</t>
+  </si>
+  <si>
+    <t>Gaiamon</t>
   </si>
 </sst>
 </file>
@@ -15559,7 +16041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -15729,12 +16211,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16214,7 +16693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
   <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
@@ -18428,7 +18907,7 @@
       <c r="D104" s="107">
         <v>1</v>
       </c>
-      <c r="E104" s="127">
+      <c r="E104" s="95">
         <v>0</v>
       </c>
       <c r="F104" s="95">
@@ -19587,7 +20066,7 @@
       <c r="E158" s="107">
         <v>1</v>
       </c>
-      <c r="F158" s="127">
+      <c r="F158" s="95">
         <v>0</v>
       </c>
       <c r="G158" s="95">
@@ -22244,8 +22723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16099350-61BB-4DD4-B9DE-2BCFF1F868CB}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="F22:G22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22528,8 +23007,6 @@
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -22625,8 +23102,9 @@
         <v>4719</v>
       </c>
       <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32" s="102"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4656</v>
       </c>
@@ -22635,7 +23113,7 @@
       </c>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4657</v>
       </c>
@@ -22644,7 +23122,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4658</v>
       </c>
@@ -22653,7 +23131,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4659</v>
       </c>
@@ -22662,7 +23140,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4660</v>
       </c>
@@ -22671,7 +23149,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4661</v>
       </c>
@@ -22680,7 +23158,7 @@
       </c>
       <c r="C38" s="49"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4662</v>
       </c>
@@ -22689,47 +23167,87 @@
       </c>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4663</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4664</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4665</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4666</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4667</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4668</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4669</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4670</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4671</v>
       </c>
@@ -43760,157 +44278,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6F437-4233-4565-A960-B028FA067CC9}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4836</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4837</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4839</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4841</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4842</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4843</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4844</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4846</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4847</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4850</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4851</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4852</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4858</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>4859</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4860</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4861</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -45055,6 +45422,160 @@
         <v>132</v>
       </c>
       <c r="C103" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6F437-4233-4565-A960-B028FA067CC9}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46250,8 +46771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46930,7 +47451,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4537</v>
       </c>
@@ -46939,7 +47460,7 @@
       </c>
       <c r="C65" s="33"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4538</v>
       </c>
@@ -46953,7 +47474,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4539</v>
       </c>
@@ -46964,7 +47485,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4540</v>
       </c>
@@ -46974,10 +47495,8 @@
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4541</v>
       </c>
@@ -46988,7 +47507,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4542</v>
       </c>
@@ -47001,7 +47520,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4543</v>
       </c>
@@ -47012,7 +47531,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4544</v>
       </c>
@@ -47021,7 +47540,7 @@
       </c>
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4545</v>
       </c>
@@ -47032,7 +47551,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4546</v>
       </c>
@@ -47041,7 +47560,7 @@
       </c>
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4547</v>
       </c>
@@ -47050,9 +47569,8 @@
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="128"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4548</v>
       </c>
@@ -47061,7 +47579,7 @@
       </c>
       <c r="C76" s="13"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4549</v>
       </c>
@@ -47070,7 +47588,7 @@
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4550</v>
       </c>
@@ -47079,7 +47597,7 @@
       </c>
       <c r="C78" s="67"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4551</v>
       </c>
@@ -47088,7 +47606,7 @@
       </c>
       <c r="C79" s="67"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4552</v>
       </c>
@@ -47252,7 +47770,7 @@
       </c>
       <c r="C96" s="80"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4569</v>
       </c>
@@ -47264,7 +47782,7 @@
       </c>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4570</v>
       </c>
@@ -47274,10 +47792,8 @@
       <c r="C98" s="22"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4571</v>
       </c>
@@ -47286,7 +47802,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4572</v>
       </c>
@@ -47297,7 +47813,7 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4573</v>
       </c>
@@ -47306,7 +47822,7 @@
       </c>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4574</v>
       </c>
@@ -47317,7 +47833,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4575</v>
       </c>
@@ -47371,6 +47887,1241 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261365B9-8F14-409C-B66C-D55B588124D4}">
+  <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66:G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4976</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4880</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="128"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4980</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4981</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4892</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4982</v>
+      </c>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B25" t="s">
+        <v>952</v>
+      </c>
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4984</v>
+      </c>
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4985</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B29" t="s">
+        <v>654</v>
+      </c>
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4986</v>
+      </c>
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B36" t="s">
+        <v>698</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4988</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C39" s="73"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B43" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B45" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4994</v>
+      </c>
+      <c r="C52" s="127" t="s">
+        <v>729</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="33"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4932</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5000</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B61" t="s">
+        <v>662</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="33"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B65" t="s">
+        <v>626</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4940</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5001</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5002</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5004</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5005</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4948</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B77" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B80" t="s">
+        <v>935</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B81" t="s">
+        <v>634</v>
+      </c>
+      <c r="C81" s="30"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C82" s="30"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5009</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C88" s="66"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C92" s="86"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C94" s="24"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C99" s="90"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="E100" s="75"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C101" s="22"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5025</v>
+      </c>
+      <c r="C102" s="60" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="128"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="129"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E1525-1541-42D8-9206-484D6714F6FC}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -47570,7 +49321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697FC071-9C76-46DF-AC92-9A8FC4C10E21}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -47822,7 +49573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A759D-EE31-48A1-99D6-BC4068F83D22}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48011,7 +49762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE5EDF-54E0-4DD6-9142-209914D3DB37}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48208,7 +49959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6A15D-042A-415D-89C4-998B7BF77056}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48397,7 +50148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4045B-6CEA-41C3-A52A-FF388B919F40}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -48595,176 +50346,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1811A8-9DDC-4D2E-8222-522E9D19BEA0}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>626</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49812,6 +51393,176 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1811A8-9DDC-4D2E-8222-522E9D19BEA0}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A06971-D0A9-404A-B062-7F231660A129}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -50003,7 +51754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F54082-4295-4C20-BA52-1FA4DC05466A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -50244,7 +51995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C86F5B-A06A-4B63-8050-4ED95BDC44B9}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -50450,7 +52201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766049D7-8805-45E7-AD18-9BBCB3727F81}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -50462,7 +52213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211BD086-A7EC-4083-B462-B3F1AA4F74A3}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -50666,7 +52417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8369BA-B10C-407A-814D-EB228FD07681}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -50870,7 +52621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E0C903-B663-409B-9A59-B0D46CD8BDF5}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -51187,7 +52938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5679FC6-9ED7-4D7E-A17E-CB720602743F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -51218,7 +52969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D39B0-75AD-4DCF-8167-A515D15866AD}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -51303,45 +53054,6 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4871</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35017152-91B9-4063-9B5D-BA10FB00F6EF}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4840</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4862</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -52253,6 +53965,45 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35017152-91B9-4063-9B5D-BA10FB00F6EF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC4C873-C964-45CC-A7AD-6B2228E0A514}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -52496,7 +54247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533B971-FA12-4705-A035-659CC495F80D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ECEA9F-B7FD-44E5-BD0C-7F36DFBA647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D4A7B-4434-458F-A769-FC2977704334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="24" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="25" activeTab="32" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -16484,7 +16484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -16645,27 +16645,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17146,7 +17139,7 @@
   <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17178,13 +17171,13 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G175))/M1</f>
-        <v>0.25287356321839083</v>
+        <v>0.25862068965517243</v>
       </c>
       <c r="M1" s="96">
         <f>174*4</f>
@@ -17211,9 +17204,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -20319,17 +20312,17 @@
         <v>121</v>
       </c>
       <c r="C149" s="2"/>
-      <c r="D149" s="95">
-        <v>0</v>
-      </c>
-      <c r="E149" s="95">
-        <v>0</v>
-      </c>
-      <c r="F149" s="95">
-        <v>0</v>
-      </c>
-      <c r="G149" s="95">
-        <v>0</v>
+      <c r="D149" s="108">
+        <v>1</v>
+      </c>
+      <c r="E149" s="108">
+        <v>1</v>
+      </c>
+      <c r="F149" s="108">
+        <v>1</v>
+      </c>
+      <c r="G149" s="108">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -21712,11 +21705,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G75))/M1</f>
         <v>0.70945945945945943</v>
       </c>
@@ -21743,9 +21736,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="99"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23864,7 +23857,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23895,13 +23888,13 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.66304347826086951</v>
+        <v>0.66739130434782612</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -23922,9 +23915,9 @@
       <c r="E2" s="109">
         <v>1</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23955,6 +23948,12 @@
         <v>120</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" s="109">
+        <v>1</v>
+      </c>
+      <c r="E4" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -25204,7 +25203,7 @@
         <v>193</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="126">
+      <c r="D77" s="124">
         <v>1</v>
       </c>
       <c r="E77" s="70">
@@ -25960,11 +25959,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.5267857142857143</v>
       </c>
@@ -25985,9 +25984,9 @@
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -27956,11 +27955,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.5022321428571429</v>
       </c>
@@ -27986,9 +27985,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -29798,11 +29797,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.38043478260869568</v>
       </c>
@@ -29831,9 +29830,9 @@
       <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -41782,7 +41781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42F967-E1F3-47EB-9301-1DFFD3817B8E}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D108" sqref="D108:E108"/>
     </sheetView>
   </sheetViews>
@@ -46366,11 +46365,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G103))/M1</f>
         <v>0.20833333333333334</v>
       </c>
@@ -46387,13 +46386,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -46403,10 +46398,6 @@
         <v>345</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -46416,10 +46407,6 @@
         <v>120</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -46450,10 +46437,6 @@
         <v>1964</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -46463,10 +46446,6 @@
         <v>123</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -46478,10 +46457,9 @@
       <c r="C8" s="88" t="s">
         <v>1651</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="127"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -46493,10 +46471,6 @@
       <c r="C9" s="88" t="s">
         <v>1651</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -46508,10 +46482,6 @@
       <c r="C10" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -46523,10 +46493,9 @@
       <c r="C11" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="127"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -46536,10 +46505,6 @@
         <v>5113</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -46551,10 +46516,6 @@
       <c r="C13" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -46566,10 +46527,6 @@
       <c r="C14" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -46581,10 +46538,6 @@
       <c r="C15" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -46594,12 +46547,8 @@
         <v>5115</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5024</v>
       </c>
@@ -46609,12 +46558,8 @@
       <c r="C17" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5025</v>
       </c>
@@ -46624,12 +46569,8 @@
       <c r="C18" s="40" t="s">
         <v>2173</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5026</v>
       </c>
@@ -46639,12 +46580,8 @@
       <c r="C19" s="36" t="s">
         <v>2173</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5027</v>
       </c>
@@ -46654,12 +46591,8 @@
       <c r="C20" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5028</v>
       </c>
@@ -46667,27 +46600,21 @@
         <v>1311</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5029</v>
       </c>
       <c r="B22" t="s">
         <v>5116</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5030</v>
       </c>
@@ -46697,12 +46624,8 @@
       <c r="C23" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5031</v>
       </c>
@@ -46710,12 +46633,8 @@
         <v>5118</v>
       </c>
       <c r="C24" s="36"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5032</v>
       </c>
@@ -46725,27 +46644,19 @@
       <c r="C25" s="36" t="s">
         <v>938</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5033</v>
       </c>
       <c r="B26" t="s">
         <v>807</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5034</v>
       </c>
@@ -46755,42 +46666,30 @@
       <c r="C27" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5035</v>
       </c>
       <c r="B28" t="s">
         <v>5120</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5036</v>
       </c>
       <c r="B29" t="s">
         <v>5121</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5037</v>
       </c>
@@ -46798,12 +46697,11 @@
         <v>127</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="127"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5038</v>
       </c>
@@ -46813,12 +46711,11 @@
       <c r="C31" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="127"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5039</v>
       </c>
@@ -46828,10 +46725,9 @@
       <c r="C32" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="127"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -46866,10 +46762,9 @@
       <c r="C34" s="43" t="s">
         <v>2173</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="127"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -46881,10 +46776,9 @@
       <c r="C35" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="127"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -46896,10 +46790,9 @@
       <c r="C36" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="127"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -46909,10 +46802,9 @@
         <v>1359</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="127"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -46996,7 +46888,7 @@
       <c r="F41" s="97">
         <v>1</v>
       </c>
-      <c r="G41" s="128"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -47180,10 +47072,6 @@
       <c r="C50" s="66" t="s">
         <v>938</v>
       </c>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -47202,7 +47090,6 @@
       <c r="F51" s="109">
         <v>1</v>
       </c>
-      <c r="G51" s="127"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -47214,10 +47101,6 @@
       <c r="C52" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -47227,10 +47110,6 @@
         <v>5132</v>
       </c>
       <c r="C53" s="71"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -47284,10 +47163,6 @@
         <v>5133</v>
       </c>
       <c r="C56" s="71"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -47297,10 +47172,8 @@
         <v>4701</v>
       </c>
       <c r="C57" s="71"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -47310,10 +47183,6 @@
         <v>1532</v>
       </c>
       <c r="C58" s="33"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -47325,10 +47194,6 @@
       <c r="C59" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
       <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -47339,10 +47204,6 @@
         <v>5134</v>
       </c>
       <c r="C60" s="33"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="127"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -47358,8 +47219,6 @@
       <c r="E61" s="109">
         <v>1</v>
       </c>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -47371,10 +47230,6 @@
       <c r="C62" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -47384,10 +47239,6 @@
         <v>5135</v>
       </c>
       <c r="C63" s="71"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -47399,12 +47250,8 @@
       <c r="C64" s="66" t="s">
         <v>938</v>
       </c>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5072</v>
       </c>
@@ -47414,12 +47261,8 @@
       <c r="C65" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5073</v>
       </c>
@@ -47427,12 +47270,8 @@
         <v>1348</v>
       </c>
       <c r="C66" s="71"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5074</v>
       </c>
@@ -47442,12 +47281,11 @@
       <c r="C67" s="58" t="s">
         <v>1657</v>
       </c>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="127"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5075</v>
       </c>
@@ -47457,12 +47295,11 @@
       <c r="C68" s="56" t="s">
         <v>1651</v>
       </c>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="127"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5076</v>
       </c>
@@ -47470,12 +47307,11 @@
         <v>958</v>
       </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="127"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5077</v>
       </c>
@@ -47485,12 +47321,11 @@
       <c r="C70" s="58" t="s">
         <v>1657</v>
       </c>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="127"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5078</v>
       </c>
@@ -47500,12 +47335,8 @@
       <c r="C71" s="23" t="s">
         <v>2173</v>
       </c>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="127"/>
-      <c r="G71" s="127"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5079</v>
       </c>
@@ -47515,12 +47346,8 @@
       <c r="C72" s="56" t="s">
         <v>1651</v>
       </c>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="127"/>
-      <c r="G72" s="127"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5080</v>
       </c>
@@ -47528,12 +47355,9 @@
         <v>5140</v>
       </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="99"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5081</v>
       </c>
@@ -47541,12 +47365,8 @@
         <v>1154</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="127"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5082</v>
       </c>
@@ -47554,12 +47374,9 @@
         <v>2192</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="99"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5083</v>
       </c>
@@ -47567,12 +47384,8 @@
         <v>156</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5084</v>
       </c>
@@ -47582,12 +47395,9 @@
       <c r="C77" s="23" t="s">
         <v>2173</v>
       </c>
-      <c r="D77" s="129"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="125"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5085</v>
       </c>
@@ -47597,12 +47407,8 @@
       <c r="C78" s="23" t="s">
         <v>2173</v>
       </c>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5086</v>
       </c>
@@ -47610,12 +47416,8 @@
         <v>5142</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5087</v>
       </c>
@@ -47625,10 +47427,6 @@
       <c r="C80" s="56" t="s">
         <v>1651</v>
       </c>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="127"/>
-      <c r="G80" s="127"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -47640,10 +47438,6 @@
       <c r="C81" s="51" t="s">
         <v>938</v>
       </c>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -47653,10 +47447,6 @@
         <v>2214</v>
       </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -47672,8 +47462,6 @@
       <c r="E83" s="109">
         <v>1</v>
       </c>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -47683,10 +47471,6 @@
         <v>5145</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -47704,8 +47488,6 @@
       <c r="E85" s="109">
         <v>1</v>
       </c>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -47714,13 +47496,9 @@
       <c r="B86" t="s">
         <v>5147</v>
       </c>
-      <c r="C86" s="131" t="s">
+      <c r="C86" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -47730,10 +47508,6 @@
         <v>5148</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -47749,8 +47523,6 @@
       <c r="E88" s="109">
         <v>1</v>
       </c>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -47762,10 +47534,6 @@
       <c r="C89" s="66" t="s">
         <v>938</v>
       </c>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -47775,10 +47543,7 @@
         <v>5151</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
+      <c r="D90" s="99"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -47788,10 +47553,6 @@
         <v>691</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="127"/>
-      <c r="G91" s="127"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -47803,10 +47564,6 @@
       <c r="C92" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -47815,13 +47572,9 @@
       <c r="B93" t="s">
         <v>5153</v>
       </c>
-      <c r="C93" s="131" t="s">
+      <c r="C93" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="127"/>
-      <c r="G93" s="127"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -47831,10 +47584,10 @@
         <v>5154</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -47844,10 +47597,10 @@
         <v>5155</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="128"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -47904,9 +47657,9 @@
       <c r="D98" s="97">
         <v>1</v>
       </c>
-      <c r="E98" s="128"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -47916,10 +47669,10 @@
         <v>5159</v>
       </c>
       <c r="C99" s="10"/>
-      <c r="D99" s="128"/>
-      <c r="E99" s="128"/>
-      <c r="F99" s="128"/>
-      <c r="G99" s="128"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -47935,8 +47688,8 @@
       <c r="E100" s="97">
         <v>1</v>
       </c>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -47948,10 +47701,10 @@
       <c r="C101" s="51" t="s">
         <v>938</v>
       </c>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -47960,13 +47713,13 @@
       <c r="B102" t="s">
         <v>5162</v>
       </c>
-      <c r="C102" s="132" t="s">
+      <c r="C102" s="127" t="s">
         <v>1651</v>
       </c>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="128"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -47978,101 +47731,88 @@
       <c r="C103" s="3" t="s">
         <v>5164</v>
       </c>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="130"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
-      <c r="F104" s="128"/>
-      <c r="G104" s="128"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="130"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="130"/>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
-      <c r="F106" s="128"/>
-      <c r="G106" s="128"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="130"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
-      <c r="F107" s="128"/>
-      <c r="G107" s="128"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="130"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="128"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="130"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="128"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="130"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="128"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="130"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="128"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="130"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="128"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="130"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="128"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="130"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="130"/>
-      <c r="D115" s="128"/>
-      <c r="E115" s="128"/>
-      <c r="F115" s="128"/>
-      <c r="G115" s="128"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="130"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="128"/>
-      <c r="G116" s="128"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -50391,8 +50131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261365B9-8F14-409C-B66C-D55B588124D4}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66:G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50516,8 +50256,10 @@
         <v>4960</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -51056,9 +50798,10 @@
         <v>4980</v>
       </c>
       <c r="C55" s="49"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -51293,9 +51036,10 @@
       <c r="C75" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -52880,11 +52624,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G74))/M1</f>
         <v>0.44863013698630139</v>
       </c>
@@ -52910,9 +52654,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -55226,11 +54970,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="128" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125">
+      <c r="K1" s="128"/>
+      <c r="L1" s="129">
         <f>(SUM(D2:G13))/M1</f>
         <v>1</v>
       </c>
@@ -55259,9 +55003,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -58689,8 +58433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9559E2-63E0-4D06-AE93-851D7E102422}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58864,6 +58608,7 @@
       <c r="C16" s="68" t="s">
         <v>660</v>
       </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -59238,6 +58983,7 @@
       <c r="C54" s="66" t="s">
         <v>938</v>
       </c>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636912C-3EBC-46D4-9701-D93E136A83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566D3D-78C0-41DA-BE57-5BA500977A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="30" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7302" uniqueCount="5223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="5245">
   <si>
     <t>bt1-001</t>
   </si>
@@ -16374,12 +16374,107 @@
   <si>
     <t>Proximamon</t>
   </si>
+  <si>
+    <t>P-175</t>
+  </si>
+  <si>
+    <t>P-176</t>
+  </si>
+  <si>
+    <t>P-177</t>
+  </si>
+  <si>
+    <t>P-178</t>
+  </si>
+  <si>
+    <t>P-179</t>
+  </si>
+  <si>
+    <t>P-180</t>
+  </si>
+  <si>
+    <t>P-181</t>
+  </si>
+  <si>
+    <t>P-182</t>
+  </si>
+  <si>
+    <t>P-183</t>
+  </si>
+  <si>
+    <t>P-184</t>
+  </si>
+  <si>
+    <t>P-185</t>
+  </si>
+  <si>
+    <t>P-186</t>
+  </si>
+  <si>
+    <t>P-187</t>
+  </si>
+  <si>
+    <t>P-188</t>
+  </si>
+  <si>
+    <t>Sagitarimon</t>
+  </si>
+  <si>
+    <t>Justimon: Critical Arm</t>
+  </si>
+  <si>
+    <t>Bind Red Trigger</t>
+  </si>
+  <si>
+    <t>Royal Base</t>
+  </si>
+  <si>
+    <t>Gaimon</t>
+  </si>
+  <si>
+    <t>Dorigoramon</t>
+  </si>
+  <si>
+    <t>Emperorgreymon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rojo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azul</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16555,6 +16650,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -16660,7 +16762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -16830,32 +16932,21 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17333,10 +17424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597BD2C-F0F5-45F6-AAA7-FF6209C8F3A6}">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17368,17 +17459,17 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
-        <f>(SUM(D2:G175))/M1</f>
-        <v>0.26724137931034481</v>
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
+        <f>(SUM(D2:G187))/M1</f>
+        <v>0.2553763440860215</v>
       </c>
       <c r="M1" s="96">
-        <f>174*4</f>
-        <v>696</v>
+        <f>186*4</f>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -17401,9 +17492,9 @@
       <c r="G2" s="95">
         <v>0</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -21020,10 +21111,10 @@
         <v>605</v>
       </c>
       <c r="B173" t="s">
-        <v>730</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>667</v>
+        <v>374</v>
+      </c>
+      <c r="C173" s="43" t="s">
+        <v>2173</v>
       </c>
       <c r="D173" s="95">
         <v>0</v>
@@ -21043,10 +21134,10 @@
         <v>606</v>
       </c>
       <c r="B174" t="s">
-        <v>731</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>669</v>
+        <v>730</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>667</v>
       </c>
       <c r="D174" s="95">
         <v>0</v>
@@ -21066,9 +21157,11 @@
         <v>607</v>
       </c>
       <c r="B175" t="s">
-        <v>732</v>
-      </c>
-      <c r="C175" s="6"/>
+        <v>731</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>669</v>
+      </c>
       <c r="D175" s="95">
         <v>0</v>
       </c>
@@ -21080,6 +21173,148 @@
       </c>
       <c r="G175" s="95">
         <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B176" t="s">
+        <v>732</v>
+      </c>
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C177" s="136"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B178" t="s">
+        <v>344</v>
+      </c>
+      <c r="C178" s="13"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5237</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5240</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D182" s="108">
+        <v>1</v>
+      </c>
+      <c r="E182" s="108">
+        <v>1</v>
+      </c>
+      <c r="F182" s="108">
+        <v>1</v>
+      </c>
+      <c r="G182" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B183" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5241</v>
+      </c>
+      <c r="C184" s="49" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C185" s="137" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C187" s="45" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>5236</v>
       </c>
     </row>
   </sheetData>
@@ -21130,11 +21365,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G75))/M1</f>
         <v>0.70945945945945943</v>
       </c>
@@ -21161,9 +21396,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="99"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22626,15 +22861,15 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G75))/M1</f>
         <v>0.14583333333333334</v>
       </c>
-      <c r="M1" s="139">
+      <c r="M1" s="96">
         <f>36*4</f>
         <v>144</v>
       </c>
@@ -22659,9 +22894,9 @@
       <c r="G2" s="103">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22671,10 +22906,10 @@
         <v>5211</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -22684,10 +22919,10 @@
         <v>2728</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -22697,10 +22932,10 @@
         <v>127</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -22734,9 +22969,9 @@
       <c r="D7" s="97">
         <v>1</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -22752,8 +22987,8 @@
       <c r="E8" s="97">
         <v>1</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -22805,10 +23040,10 @@
         <v>654</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -22818,10 +23053,10 @@
         <v>633</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -22831,10 +23066,10 @@
         <v>5213</v>
       </c>
       <c r="C13" s="68"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -22844,10 +23079,10 @@
         <v>2368</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -22857,10 +23092,10 @@
         <v>2739</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="137"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -22870,10 +23105,10 @@
         <v>5214</v>
       </c>
       <c r="C16" s="68"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22883,10 +23118,10 @@
         <v>655</v>
       </c>
       <c r="C17" s="41"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -22898,10 +23133,10 @@
       <c r="C18" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -22911,10 +23146,10 @@
         <v>155</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -22924,10 +23159,10 @@
         <v>5215</v>
       </c>
       <c r="C20" s="52"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -22937,10 +23172,10 @@
         <v>632</v>
       </c>
       <c r="C21" s="59"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -22950,10 +23185,10 @@
         <v>5216</v>
       </c>
       <c r="C22" s="59"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -22963,10 +23198,10 @@
         <v>3716</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -22976,10 +23211,10 @@
         <v>5217</v>
       </c>
       <c r="C24" s="59"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -22989,10 +23224,10 @@
         <v>2756</v>
       </c>
       <c r="C25" s="47"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -23002,10 +23237,10 @@
         <v>656</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -23015,10 +23250,10 @@
         <v>4674</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -23028,10 +23263,10 @@
         <v>5218</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -23041,10 +23276,10 @@
         <v>5219</v>
       </c>
       <c r="C29" s="51"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -23054,10 +23289,10 @@
         <v>4952</v>
       </c>
       <c r="C30" s="51"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -23067,10 +23302,10 @@
         <v>4959</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -23080,10 +23315,10 @@
         <v>5220</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -23093,10 +23328,10 @@
         <v>634</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -23106,10 +23341,10 @@
         <v>636</v>
       </c>
       <c r="C34" s="68"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -23125,8 +23360,8 @@
       <c r="E35" s="97">
         <v>1</v>
       </c>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -23136,10 +23371,10 @@
         <v>5221</v>
       </c>
       <c r="C36" s="72"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -23151,276 +23386,265 @@
       <c r="C37" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="140"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="140"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="140"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="140"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="140"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="140"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="143"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="140"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="140"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="131"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="131"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="137"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="99"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="131"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="131"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="143"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="143"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="143"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="143"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="143"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="143"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="141"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="141"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="141"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="141"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="141"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="141"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="141"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="141"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="141"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="137"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="131"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="131"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="131"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="131"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="131"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="137"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="144"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="137"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="131"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="137"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="131"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="141"/>
-      <c r="D74" s="137"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="137"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="142"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="137"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24033,11 +24257,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.67391304347826086</v>
       </c>
@@ -24060,9 +24284,9 @@
       <c r="E2" s="109">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -26113,11 +26337,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.5334821428571429</v>
       </c>
@@ -26142,9 +26366,9 @@
       </c>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -28115,11 +28339,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G113))/M1</f>
         <v>0.515625</v>
       </c>
@@ -28145,9 +28369,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -29975,11 +30199,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G116))/M1</f>
         <v>0.44782608695652176</v>
       </c>
@@ -30008,9 +30232,9 @@
       <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -33064,8 +33288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E08088-3B8F-476A-82F9-3F89298B5798}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B113"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34433,6 +34657,7 @@
       <c r="D112" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -45619,11 +45844,11 @@
       <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G103))/M1</f>
         <v>0.20833333333333334</v>
       </c>
@@ -45640,9 +45865,9 @@
         <v>1103</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -47081,8 +47306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971E71C-5C25-4D98-BC33-ABF1194C53E5}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B103"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47955,6 +48180,7 @@
       <c r="C78" s="72" t="s">
         <v>3136</v>
       </c>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -48264,11 +48490,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G74))/M1</f>
         <v>0.50684931506849318</v>
       </c>
@@ -48294,9 +48520,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -49397,8 +49623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B7896-4739-4F31-ADC2-70654CB7C685}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B103"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49467,7 +49693,10 @@
         <v>4426</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -49763,7 +49992,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4355</v>
       </c>
@@ -49772,7 +50001,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4356</v>
       </c>
@@ -49781,7 +50010,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4357</v>
       </c>
@@ -49790,7 +50019,7 @@
       </c>
       <c r="C35" s="26"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4358</v>
       </c>
@@ -49802,7 +50031,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4359</v>
       </c>
@@ -49812,7 +50041,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4360</v>
       </c>
@@ -49823,7 +50052,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4361</v>
       </c>
@@ -49834,7 +50063,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4362</v>
       </c>
@@ -49845,7 +50074,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4363</v>
       </c>
@@ -49856,7 +50085,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4364</v>
       </c>
@@ -49868,7 +50097,7 @@
       </c>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4365</v>
       </c>
@@ -49879,7 +50108,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4366</v>
       </c>
@@ -49891,7 +50120,7 @@
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4367</v>
       </c>
@@ -49901,9 +50130,12 @@
       <c r="C45" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4368</v>
       </c>
@@ -49912,7 +50144,7 @@
       </c>
       <c r="C46" s="35"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4369</v>
       </c>
@@ -49922,8 +50154,12 @@
       <c r="C47" s="4" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4370</v>
       </c>
@@ -49985,7 +50221,10 @@
       <c r="C53" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -50036,6 +50275,10 @@
       <c r="C57" s="4" t="s">
         <v>729</v>
       </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -50533,8 +50776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD3D28-D37B-4D9E-88F9-BF1B051AF44D}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51017,6 +51260,10 @@
       <c r="C46" s="4" t="s">
         <v>729</v>
       </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -51049,8 +51296,10 @@
       <c r="C49" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -51091,6 +51340,10 @@
       <c r="C53" s="4" t="s">
         <v>729</v>
       </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -51102,10 +51355,10 @@
       <c r="C54" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -51422,6 +51675,10 @@
         <v>4604</v>
       </c>
       <c r="C85" s="59"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -51532,7 +51789,7 @@
       </c>
       <c r="C96" s="80"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4568</v>
       </c>
@@ -51542,9 +51799,12 @@
       <c r="C97" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4569</v>
       </c>
@@ -51555,7 +51815,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4570</v>
       </c>
@@ -51564,7 +51824,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4571</v>
       </c>
@@ -51575,7 +51835,7 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4572</v>
       </c>
@@ -51584,7 +51844,7 @@
       </c>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4573</v>
       </c>
@@ -51595,7 +51855,7 @@
         <v>4622</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4574</v>
       </c>
@@ -56396,11 +56656,11 @@
       <c r="G1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="134" t="s">
         <v>4047</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135">
         <f>(SUM(D2:G13))/M1</f>
         <v>1</v>
       </c>
@@ -56429,9 +56689,9 @@
       <c r="G2" s="70">
         <v>1</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -58192,7 +58452,7 @@
       <c r="A2" t="s">
         <v>5134</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" t="s">
         <v>1292</v>
       </c>
       <c r="C2" s="84"/>
@@ -58205,7 +58465,7 @@
       <c r="A3" t="s">
         <v>5135</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="25"/>
@@ -58218,7 +58478,7 @@
       <c r="A4" t="s">
         <v>5136</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" t="s">
         <v>134</v>
       </c>
       <c r="C4" s="25"/>
@@ -58231,7 +58491,7 @@
       <c r="A5" t="s">
         <v>5137</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="25"/>
@@ -58244,7 +58504,7 @@
       <c r="A6" t="s">
         <v>5138</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" t="s">
         <v>371</v>
       </c>
       <c r="C6" s="111"/>
@@ -58257,20 +58517,16 @@
       <c r="A7" t="s">
         <v>5139</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" t="s">
         <v>372</v>
       </c>
       <c r="C7" s="111"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5140</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" t="s">
         <v>183</v>
       </c>
       <c r="C8" s="47"/>
@@ -58283,7 +58539,7 @@
       <c r="A9" t="s">
         <v>5141</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="47"/>
@@ -58296,7 +58552,7 @@
       <c r="A10" t="s">
         <v>5142</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="47"/>
@@ -58309,29 +58565,21 @@
       <c r="A11" t="s">
         <v>5143</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="84"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5144</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" t="s">
         <v>5170</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>2173</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -58355,13 +58603,9 @@
       <c r="B14" t="s">
         <v>5165</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="129" t="s">
         <v>1651</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -58370,7 +58614,7 @@
       <c r="B15" t="s">
         <v>5167</v>
       </c>
-      <c r="C15" s="134"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -58383,7 +58627,7 @@
       <c r="B16" t="s">
         <v>5166</v>
       </c>
-      <c r="C16" s="135"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -58439,7 +58683,7 @@
       <c r="A2" t="s">
         <v>5149</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" t="s">
         <v>1496</v>
       </c>
       <c r="C2" s="58"/>
@@ -58452,7 +58696,7 @@
       <c r="A3" t="s">
         <v>5150</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" t="s">
         <v>147</v>
       </c>
       <c r="C3" s="55"/>
@@ -58465,7 +58709,7 @@
       <c r="A4" t="s">
         <v>5151</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" t="s">
         <v>5168</v>
       </c>
       <c r="C4" s="55"/>
@@ -58478,7 +58722,7 @@
       <c r="A5" t="s">
         <v>5152</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="55"/>
@@ -58491,7 +58735,7 @@
       <c r="A6" t="s">
         <v>5153</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="111"/>
@@ -58504,20 +58748,16 @@
       <c r="A7" t="s">
         <v>5154</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="111"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5155</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="65"/>
@@ -58530,7 +58770,7 @@
       <c r="A9" t="s">
         <v>5156</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="65"/>
@@ -58543,7 +58783,7 @@
       <c r="A10" t="s">
         <v>5157</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="65"/>
@@ -58556,29 +58796,21 @@
       <c r="A11" t="s">
         <v>5158</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" t="s">
         <v>146</v>
       </c>
       <c r="C11" s="58"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5159</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" t="s">
         <v>5169</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>1657</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -58605,10 +58837,6 @@
       <c r="C14" s="50" t="s">
         <v>938</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -58617,7 +58845,7 @@
       <c r="B15" t="s">
         <v>5173</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -58630,7 +58858,7 @@
       <c r="B16" t="s">
         <v>5174</v>
       </c>
-      <c r="C16" s="135"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -59483,8 +59711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9559E2-63E0-4D06-AE93-851D7E102422}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B75"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59816,7 +60044,7 @@
       </c>
       <c r="C32" s="26"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4192</v>
       </c>
@@ -59827,7 +60055,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4193</v>
       </c>
@@ -59836,7 +60064,7 @@
       </c>
       <c r="C34" s="26"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4194</v>
       </c>
@@ -59847,7 +60075,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4195</v>
       </c>
@@ -59856,7 +60084,7 @@
       </c>
       <c r="C36" s="35"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4196</v>
       </c>
@@ -59865,7 +60093,7 @@
       </c>
       <c r="C37" s="35"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4197</v>
       </c>
@@ -59874,7 +60102,7 @@
       </c>
       <c r="C38" s="35"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4198</v>
       </c>
@@ -59883,7 +60111,7 @@
       </c>
       <c r="C39" s="35"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4199</v>
       </c>
@@ -59892,7 +60120,7 @@
       </c>
       <c r="C40" s="35"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4200</v>
       </c>
@@ -59901,7 +60129,7 @@
       </c>
       <c r="C41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4201</v>
       </c>
@@ -59912,7 +60140,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4202</v>
       </c>
@@ -59922,7 +60150,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4203</v>
       </c>
@@ -59930,8 +60158,10 @@
         <v>4256</v>
       </c>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4204</v>
       </c>
@@ -59942,7 +60172,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4205</v>
       </c>
@@ -59953,7 +60183,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4206</v>
       </c>
@@ -59964,7 +60194,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4207</v>
       </c>
@@ -60202,6 +60432,7 @@
         <v>4275</v>
       </c>
       <c r="C71" s="72"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -61009,8 +61240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0490D2B9-913D-4F17-AA72-45D8FC1AE784}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B75"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61314,6 +61545,7 @@
       <c r="C30" s="26" t="s">
         <v>1651</v>
       </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -61367,6 +61599,8 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">

--- a/Digicolle tcg.xlsx
+++ b/Digicolle tcg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0a018o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50222592-D40F-4BAC-88CD-A59773B6EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAD873-C942-464D-A21B-DCBC6380C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="16" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{E583C101-652B-4369-8D58-D3DC881FE72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="3" r:id="rId1"/>
@@ -24480,8 +24480,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24518,7 +24518,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="139">
         <f>(SUM(D2:G116))/M1</f>
-        <v>0.8</v>
+        <v>0.86739130434782608</v>
       </c>
       <c r="M1" s="96">
         <f>115*4</f>
@@ -24533,10 +24533,16 @@
         <v>116</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="109">
-        <v>1</v>
-      </c>
-      <c r="E2" s="109">
+      <c r="D2" s="70">
+        <v>1</v>
+      </c>
+      <c r="E2" s="70">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70">
+        <v>1</v>
+      </c>
+      <c r="G2" s="70">
         <v>1</v>
       </c>
       <c r="J2" s="138"/>
@@ -24755,7 +24761,16 @@
         <v>129</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="109">
+      <c r="D13" s="70">
+        <v>1</v>
+      </c>
+      <c r="E13" s="70">
+        <v>1</v>
+      </c>
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="70">
         <v>1</v>
       </c>
     </row>
@@ -24809,6 +24824,18 @@
         <v>132</v>
       </c>
       <c r="C16" s="1"/>
+      <c r="D16" s="70">
+        <v>1</v>
+      </c>
+      <c r="E16" s="70">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70">
+        <v>1</v>
+      </c>
+      <c r="G16" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -24917,6 +24944,9 @@
       <c r="F22" s="70">
         <v>1</v>
       </c>
+      <c r="G22" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -24965,6 +24995,9 @@
         <v>142</v>
       </c>
       <c r="C26" s="1"/>
+      <c r="D26" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -24980,6 +25013,12 @@
       <c r="E27" s="70">
         <v>1</v>
       </c>
+      <c r="F27" s="70">
+        <v>1</v>
+      </c>
+      <c r="G27" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -25031,13 +25070,16 @@
         <v>146</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="97">
-        <v>1</v>
-      </c>
-      <c r="E30" s="97">
-        <v>1</v>
-      </c>
-      <c r="F30" s="97">
+      <c r="D30" s="103">
+        <v>1</v>
+      </c>
+      <c r="E30" s="103">
+        <v>1</v>
+      </c>
+      <c r="F30" s="103">
+        <v>1</v>
+      </c>
+      <c r="G30" s="70">
         <v>1</v>
       </c>
     </row>
@@ -25328,6 +25370,9 @@
         <v>161</v>
       </c>
       <c r="C45" s="2"/>
+      <c r="D45" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -25641,6 +25686,9 @@
         <v>177</v>
       </c>
       <c r="C61" s="3"/>
+      <c r="D61" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -25665,16 +25713,16 @@
         <v>179</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="109">
-        <v>1</v>
-      </c>
-      <c r="E63" s="109">
-        <v>1</v>
-      </c>
-      <c r="F63" s="109">
-        <v>1</v>
-      </c>
-      <c r="G63" s="109">
+      <c r="D63" s="70">
+        <v>1</v>
+      </c>
+      <c r="E63" s="70">
+        <v>1</v>
+      </c>
+      <c r="F63" s="70">
+        <v>1</v>
+      </c>
+      <c r="G63" s="70">
         <v>1</v>
       </c>
     </row>
@@ -25686,6 +25734,9 @@
         <v>180</v>
       </c>
       <c r="C64" s="3"/>
+      <c r="D64" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -25800,13 +25851,13 @@
         <v>186</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="103">
-        <v>1</v>
-      </c>
-      <c r="E70" s="103">
-        <v>1</v>
-      </c>
-      <c r="F70" s="103">
+      <c r="D70" s="97">
+        <v>1</v>
+      </c>
+      <c r="E70" s="97">
+        <v>1</v>
+      </c>
+      <c r="F70" s="97">
         <v>1</v>
       </c>
     </row>
@@ -26053,6 +26104,9 @@
         <v>199</v>
       </c>
       <c r="C83" s="4"/>
+      <c r="D83" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -26083,6 +26137,9 @@
         <v>201</v>
       </c>
       <c r="C85" s="6"/>
+      <c r="D85" s="109">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -26092,13 +26149,16 @@
         <v>202</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="109">
-        <v>1</v>
-      </c>
-      <c r="E86" s="109">
-        <v>1</v>
-      </c>
-      <c r="F86" s="109">
+      <c r="D86" s="70">
+        <v>1</v>
+      </c>
+      <c r="E86" s="70">
+        <v>1</v>
+      </c>
+      <c r="F86" s="70">
+        <v>1</v>
+      </c>
+      <c r="G86" s="70">
         <v>1</v>
       </c>
     </row>
@@ -26110,13 +26170,16 @@
         <v>203</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="109">
-        <v>1</v>
-      </c>
-      <c r="E87" s="109">
-        <v>1</v>
-      </c>
-      <c r="F87" s="109">
+      <c r="D87" s="70">
+        <v>1</v>
+      </c>
+      <c r="E87" s="70">
+        <v>1</v>
+      </c>
+      <c r="F87" s="70">
+        <v>1</v>
+      </c>
+      <c r="G87" s="70">
         <v>1</v>
       </c>
     </row>
@@ -26164,13 +26227,16 @@
         <v>206</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="97">
-        <v>1</v>
-      </c>
-      <c r="E90" s="109">
-        <v>1</v>
-      </c>
-      <c r="F90" s="109">
+      <c r="D90" s="103">
+        <v>1</v>
+      </c>
+      <c r="E90" s="70">
+        <v>1</v>
+      </c>
+      <c r="F90" s="70">
+        <v>1</v>
+      </c>
+      <c r="G90" s="70">
         <v>1</v>
       </c>
     </row>
@@ -26287,14 +26353,18 @@
         <v>212</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="97">
-        <v>1</v>
-      </c>
-      <c r="E96" s="97">
-        <v>1</v>
-      </c>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
+      <c r="D96" s="103">
+        <v>1</v>
+      </c>
+      <c r="E96" s="103">
+        <v>1</v>
+      </c>
+      <c r="F96" s="103">
+        <v>1</v>
+      </c>
+      <c r="G96" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -26388,14 +26458,18 @@
         <v>217</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="97">
-        <v>1</v>
-      </c>
-      <c r="E101" s="97">
-        <v>1</v>
-      </c>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
+      <c r="D101" s="103">
+        <v>1</v>
+      </c>
+      <c r="E101" s="103">
+        <v>1</v>
+      </c>
+      <c r="F101" s="103">
+        <v>1</v>
+      </c>
+      <c r="G101" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -26426,10 +26500,18 @@
         <v>219</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
+      <c r="D103" s="103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -26664,7 +26746,9 @@
         <v>138</v>
       </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="99"/>
+      <c r="D115" s="97">
+        <v>1</v>
+      </c>
       <c r="E115" s="99"/>
       <c r="F115" s="99"/>
       <c r="G115" s="99"/>
@@ -33336,7 +33420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EADFA4-B03A-4A5C-BF19-C33CF1C28CA2}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
